--- a/outputbook6 - Kopie.xlsx
+++ b/outputbook6 - Kopie.xlsx
@@ -1,44 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="540" windowWidth="21015" windowHeight="7620" tabRatio="837"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1034">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sen ist menschlich." b kannst du in den Kopfübungen am der weißen Ebene früher erworbene isse wiederholen und auffrischen. Erinnern und Wiederholen rd Grundlegendes aus den vorhergehen- nden knapp und übersichtlich zusam- stellt. </t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In der Grafik sind die durchschnittlichen Tages- und Nachttem- peraturen in Karesuando in Schweden angegeben. Klimadiagramm Karesuando 20 in oc Jan Feb Mär Apr Mai Jun Aug Sep Okt Nov Dez -16 15 10 5 -5 -10 -15 -20 -25 14 är A Mai Jun Jul Tagestemperatur Aug Se 'Nachttempe@turo a) Übertrage die Tabelle in dein Heft und fülle sie vollständig aus. Temperaturen in • Celsius b) Bestimme die Änderung der mittleren Nachttemperatur bzw. Tagestemperatur zwischen (1) Februar und Juni, (2) April und September, (3) Oktober und November. c) Wie groß ist der Unterschied zwischen der höchsten und niedrigsten mittleren Nacht- temperatur im Verlauf des Jahres? Wie groß ist der entsprechende Wert bei den Tages- temperaturen? Wie groß ist der Unterschied zwischen der in Karesuando auftreten den höchsten und niedrigsten monatlichen Durchschnittstemperatur? </t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nach einem Möbelkauf erhält Herr Sander folgenden Kontoauszug: Schroedelbank Kontoinhaber Bernd Sander Fuchurgstag Wert Verwendungszweck erstellt am Auszug -Nr. 13.10. 14 ter Kontostand soll 355,00 102 , 25 Blatt 252,75 04.10. 04.10. Johann, Rechnung 999011 Neuer Kontostand a) Wie kommt es zu den 102,25 € und warum steht das bei „Soll"? b) Herr Sander zahlt am nächsten Tag 500 € auf das Konto ein und bezahlt einen Schuhkauf über 120 € mit seiner EC-Karte. Erstelle einen neuen Kontoauszug. Ob auf dem Thermometer oder in Statistiken, oft erweisen sich negative Zahlen als sehr nützlich. Negative Zahlen Negative Zahlen findest du als Beschreibung von Zuständen und von Änderungen. • Zustände auf Skalen und Anzeigen • Änderung auf Skalen und Anzeigen 40 30 20 10 Temperatur: - 12 oc Morgens 40 30 20 10 Mittags 12 oc 40 30 20 10 Wasserstand: Temperaturänderung: + 19 OC • Zustände und Änderung bei grafischen Darstellungen Wasserstands- änderung:- 1 m 4 3-- Temperatur um 2 10.00 Uhr: -1 oc -2 -3 —4- 0.00 6.00 12.00 18.00 0.00 6.00 12.00 18.00 0:00 Temperaturverlauf an zwei Tagen in Neustadt Temperatur- änderung von 18.00 Uhr bis 6.00 Uhr: </t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Erstelle aus dem Schaubild eine Wertetabelle für die Tageshöchsttemperaturen vom 5. bis 10. Januar. b) Zwischen welchen Tagen fiel das Thermometer am stärksten? Wie groß war diese Temperaturänderung? ageshöchsttemperatur im Monat Janu 8 MO 1 14 16 8 -10 -12 Lösung: a ) Tag @hemperatur in -12 10. b) Das Thermometer fiel am stärksten vom 6. zum 7. Januar. Die Temperaturänderung betrug </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="958">
   <si>
     <t>5</t>
   </si>
@@ -52,30 +28,12 @@
     <t xml:space="preserve">s noch 5 oc, zum Abend hin um 9 oc ab. bend? nächst zu einem Felsen in aus noch zu einer Höhle in eter liegt die Höhle tiefer als b) Nachdem es am Morgen noch —4 oc waren, zeig- te das Thermometer am Mittag schon 10 oc an. Wie groß war die Temperaturänderung? d) Ein U-Boot befindet sich auf Tauchfahrt in 275 m Tiefe. Das Sehrohr des Bootes kann 6 m ausge- fahren werden. Wie viel Meter muss das U-Boot aufsteigen, damit das Sehrohr 2 m über die Was seroberfläche hinausragt? </t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brrr, war das heute Morgen um 7.00 Uhr wieder kalt, als ich aufstehen musste, —5 0 C. Das Thermometer an der Apotheke auf dem Schulweg zeigte um 7.45 Uhr immer noch —3 oc an, auf den Straßen war Rauhreif und es war ganz schön glatt. In der großen Pause um 9.30 Uhr war der Schulhof allerdings schon nass, es war nun 5 oc wärmer geworden. Als ich um 14.00 Uhr zu Hause ankam, schien die Son- ne und das Thermometer zeigte 8 oc. Nach den Hausaufgaben fuhr ich noch um 16.00 Uhr für zwei Stunden zum Fußballtraining. Auf dem Rückweg merkte ich, dass die Straßen schon wieder anfingen zu gefrieren, es war jetzt sicher wieder mindes- tens 1 oc unter Null. Beim Abendessen hörte ich im Radio, wie der Nachrichtenspre- cher ankündigte, dass es in der Nacht bis 7 oc unter Null kalt werden sollte. Erstelle zu dem Bericht eine Tabelle mit Uhrzeit, Temperatur und Temperaturände- rung sowie eine Grafik (x-Achse: Uhrzeit, y-Achse: Temperatur). Wie groß ist der Unterschied zwischen der höchsten und niedrigsten Temperatur an diesem Tag? </t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
     <t xml:space="preserve">Bei einem Kartenspiel hat Paul einen Punktestand von 36 Punkten. Nach dem nächsten Spiel hat er —12 Punkte. Wie viele Punkte hat er in diesem Spiel verloren? Im nächsten Spiel gewinnt er 30 Punkte. a) Übertrage die Tabelle und fülle sie so weit wie möglich aus. b) Denke dir ein Spielergebnis aus, mit dem Paul im dritten Spiel gewinnt oder verliert, dein Partner 36 -12 2 3 4 5 6 7 +30 bestimmt dann den Spielstand. Wechselt danach die Rolle. Denke dir auch einmal einen Spielstand aus, zu dem der Partner das Spielergebnis fin den muss. Tragt alle Werte in die Tabelle ein. </t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stärksten Rückgang? a sphäre nur wenig n kann, sind die Tempe- r Oberfläche sehr groß. hen in Äquatornähe etwa bis auf —85 oc in der eratur des Planeten liegt Quelle: Wikipedia, Mars (Plonet) Ein Tag au dem Mars dauert ca. 24 Stunden und 40 Minuten. Der Graph zeigt den Temperaturverlauf eines Tages auf der Marsoberfläche. u- 10 - 20 s -30 -40 a- 50 E -60 -70 a) Erstelle eine Tabelle mit Uhrzeit und Temperatur. Gib jeweils von Zeile zu Zeile die Temperaturänderung an. b) In welcher Stunde gab es den größ- ten Temperaturanstieg, wann den 'Ührzei€ *emperatu mperaturänderung 10 —80 73 -90 00 00 0100 02.00 -73 -72 -76 -76 5 -73 oc -71 oc -72 oc 10 15 — 48 58 20 --67 25 Uhrzeit in Stunden </t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In der Tabelle kannst du sehen, wie ungemütlich es auf anderen Himmelskörpern sein kann. a) Trage auf einer senkrechten Skala (1 cm ent- spricht 50 oc) die Temperaturen ein. Runde, falls nötig. b) Um wie viel oc unterscheiden sich Höchst- rper Erde Mond Merkur Mars temperatur +58 oc + 130 OC +427 oc +27 oc emperatu -89 oc -160 oc -173 oc -133 oc und Tiefsttemperatur eines Himmelskörpers? Welche Spanne ist am größten, wel che am kleinsten? c) Wie unterscheiden sich die Tiefsttemperaturen der Himmelskörper? Lege eine Rangliste an, beginne mit dem kältesten. </t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -91,69 +49,21 @@
     <t>13</t>
   </si>
   <si>
-    <t xml:space="preserve">Auf dem Girokonto sind noch 705 € Guthaben. Wie lautet der Kontostand nach folgenden Buchungen? Datum 25.02. 27.02. Werft Iß Betrag Verwendungszweck Telefonrechnung 121276 Autoreparatur Meisterbetrieb 26.02. 82,00 s 28.02. 823,00 s </t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.02. 28.02. 02.03. 02.03. co.KG Tante Vielen 90,00 H 1672.30 R ZW,OO s Betrac te den Kontoauszug der Familie Schüssel. a) Wie viel Euro hatte Familie Schüssel, wie viel hat sie insgesamt ausge- geben, wie viel Geld kam in dieser Zeit dazu? b) Wie könnte man Ausgaben und Einnahmen noch anders kenntlich machen? Kopfübungen 1. Ordne die Zahlen der Größe nach: 741; 147; 471; 714; 174; 417 2. Wie viele Dreiecke erhält man mindestens, wenn man ein Rechteck in Dreiecke zerschneidet? 3. Wandle 10000 cm in Meter um. 4. Berechne im Kopf: a) 56 : 8 7 b) 56 : (8 • 7) 5. Gib die Anzahl und die Form der Flächen an, aus denen das Netz einer Fünfeckpyramide besteht. 6. In der Tabelle sind fünf europäische Länder aufgelistet, die besonders viel Speiseeis produzieren. Runde auf Zehntausender. 7. Die Sonne ist von der Venus 108 Mio. km entfernt. Das Licht legt in einer Minute 18 Mio. km zurück. Wie lange braucht das Licht von der Sonne zur Venus? Spanien Italien Großbritannien Frankreich Deutschland 'Oroduktion n Gerunde€' 234 620 rn3 369249 m: 311 548 362000 m3 492700 m3 Quelle: Euroglaces, 2011 </t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei einer Tauchfahrt in einem Unterwasserlabyrinth muss man genau navigieren, damit das Boot nicht an den Felswänden beschädigt wird. Auf der Karte unten siehst du die verschiedenen Phasen der Tauchfahrt. a) Was geben die Zahlen an den Pfeilen jeweils an? b) Überprüfe anhand der Karte, ob du auch mit den beiden folgenden Tauchfahrten zum Schatz kommst: (1) (01-3), (2) (310), (41-3), (-31-5), (01-9), (-21-3), Start 01—4 (23 1 2) Schatz Exkurs (-411) (-412) c) Auf die Karte wird ein Koordinatensystem so gelegt, dass der Start im Ursprung ist. Gib die Koordinaten der Zielpunkte der einzelnen Fahrtabschnitte an. d) Kannst du aus den Zahlen an den Pfeilen die Koordinaten des Zielpunktes ermitteln? Finde anschließend eine weitere Tauchroute, die das Boot zum Schatz führt, und gib die Koordinaten der Zielpunkte der einzelnen Fahrtabschnitte und des Ziels an. e) Zeichne selbst ein Labyrinth auf kariertes Papier und finde einen Weg hindurch. Negative Zahlen in den Naturwissenschaften Dass tiefe Temperaturen durch negative Zah- len ausgedrückt werden können, ist fiir dich nichts Neues. Die Temperaturskala kann man aber nicht wie die negativen Zahlen beliebig weit unter Null fortsetzen. Es gibt eine tiefste Temperatur, an die sich Wissenschaftler mit auf- wendigen Apparaturen immer weiter „herantas- ten", mit einem einfachen Kühlschrank ist es da nicht getan. Diese Temperatur, auch „absoluter Nullpunkt" genannt, beträgt —273,15 ac. Für ein Experiment, bei dem diese Temperatur fast er- reicht wurde, erhielten 1996 drei amerikanische Wissenschaftler den Nobelpreis für Physik. Die tiefste auf der Erde je gemessene und bestätigte Temperatur ist —89,2 C, gemessen in der For- schungsstation Wostok in der Antarktis. Wie du von der Batterie her weißt, wird auch in der Elektrizitätslehre der Gegensatz negativ-positiv benutzt. Du hast sicher schon gesehen, dass eine Batterie einen Plus- und einen Minuspol besitzt. Es gibt auch negative und positive elektrische Ladung. So ist ein Körper elektrisch neutral, wenn sich in ihm ebenso viele positive wie nega- tive elektrische Ladung befindet. </t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
     <t xml:space="preserve">Aristoteles lebte von 384 bis 322 vor Christus, er war Lehrer Alexanders des Großen, der von 356 bis 323 vor Christus lebte. a) Zeichne eine Zeitachse, in die du die Lebensdaten der beiden Männer eintragen kannst. Wie alt wurden sie jeweils? b) Platon, ein anderer großer Philosoph, lebte von 427 bis 348 vor Christus. Konnte er Aristoteles kennen? Wie alt wurde Platon? Aristoteles </t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Für diese Aufgabe benötigst du einen Spiegel. Wenn du ihn direkt auf der Spiegelachse aufsetzt, erkennst du das Spiegelbild des Zahlenstrahls. Der Spiegel hilft dir auch beim Lesen der Arbeitsaufträge. Spiegelachse 2 3 4 5 Spiegelzahl a) Beschreibe, wie sich die Reihen- folge der Zahlen im Spiegelbild ver- ändert hat. b) Gibt es Zahlen, die kein Spiegel- bild besitzen? Begründe. c) Was ist mit den Abständen zwi- schen den Zahlen geschehen? d) Warum haben sich in der Mathematik andere Bezeichnungen als 1 , 2, 3, 4 für die „Spiegelzahlen" durchgesetzt? Welche Bezeichnungen werden benutzt? </t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Übertrage die Tabelle in dein Heft und ergänze die Lücken. Minuend Differenz 8 3 7 2 6 5 4 3 2 Stelle dazu jede Subtraktion auch am Zahlenstrahl dar. Ab welcher Stelle ergeben sich Schwie- rigkeiten und wie kann man sie lösen? 3 8 </t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welche Zahlen sind markiert? b) -20 -5 10 Lösung: a) -25 c) d) 15 e) 35 </t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zeichne einen passenden Ausschnitt aner Zahlengeraden und trage ein: -12 Lösung: -12 </t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
     <t xml:space="preserve">Welche Zahlen auf der Zahlengeraden haben von O die Entfernung 3? -3 —3 ist die Spiegelzahl zu 3 und 3 ist die Spiegelzahl zu —3. 3 </t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M liegt genau In der Mitte zwischen S und T. Welche Zahl gehört zu M? Lösung: Der Abstand zwischen S und T beträgt 20. M liegt also 10 Einheiten rechts von S und 10 Einheiten links von T. M liegt bei 7. -3 7 17 </t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
-    <t xml:space="preserve">ertrage le Za engera en In ein He . Ac te a I au le untersc le IC en Ein- teilungen. Gib anschließend an, auf welche Zahlen die Pfeile jeweils deuten. -200 -200 --1000 000 100 100 </t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -166,42 +76,18 @@
     <t xml:space="preserve">Ordne die Zahlen der Größe nach. Beginne jeweils mit der kleinsten Zahl. -3 5 c) -80 —67 43 -16 -99 -100 -1000 Zahlensuche Gib jeweils drei Zahlen an, a) die zwischen 5 und 10 liegen. c) die zwischen —2 und 3 liegen o 12 8 Rätselhaftes an der Zahlengeraden Bei manchen Aufgaben hilft es dir, eine Zahlengerade zu zeichnen und daran zu probieren. Manchmal klappt es auch mit „scharfem Hinsehen". Die mittleren Zahlen liegen jeweils genau in der Mitte zwischen den beiden weiteren Zahlen. b) 10 -8 d)-43 12 b) die zwischen d) die kleiner als -12 -5 -5 —4 -56 -10 und —4 sind. -2 6 —4 liegen. -2 c c 25 c 53 </t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t xml:space="preserve">a) Gib den Vorgänger und den Nachfolger von —5 an. b) Von welcher Zahl ist— 10 der Vorgänger? c) Von welcher Zahl ist — 16 der Nachfolger? -120 -40 6 c 28 </t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t xml:space="preserve">Wec e er o gen en Aussagen Sin ric tig, wec e Aussagen reicht zur Begründung ein Gegenbeispiel. a) —2 ist eine ganze Zahl, aber keine natürliche Zahl. b) Jede natürliche Zahl ist auch eine ganze Zahl. sc Begrun e. Bel en sc en c) Zwischen zwei ganzen Zahlen liegt immer eine weitere ganze Zahl. d) Auf der Zahlengeraden gibt es zwei Zahlen, die die Entfernung 2 von der O haben. e) Ist a&gt;b, so ist die Spiegelzahl von a kleiner als die Spiegelzahl von b. f) Es gibt keine ganze Zahl, die gleich ihrer Spiegelzahl ist. </t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Das Koor Inatensystem, as u IS er ennst, Ist grau unterlegt. Man kann es mithilfe der negativen Zahlen nach links und unten erweitern. a) Gehe den Weg in Pfeilrichtung entlang und gib die Koordinaten der eingezeichneten Punkte an. b) Beschreibe, wo jeweils die Punkte liegen: ex-Koordinate 1+Koordinate 1) 2) 3) negativ positiv negativ positiv negativ negativ B (-113)4 (1 13) A (513) c 11 Koordinatensystem Mit positiven und negativen Zahlen sowie der Null können alle Punkte in der Ebene mithilfe eines Koordi- natensystems gekennzeichnet werden. Die Koordinatenachsen unterteilen die Ebene in vier Quadranten, die von rechts oben („positiver Quad- rant") gegen den Uhrzeigersinn nummeriert werden. Der Punkt (010) heißt Ursprung und wird oft mit O bezeichnet. </t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Trage die folgenden Punkte in das Koordinatensystem ein: A (21-3), B (31-1), C (-31-3), D (-312). b) Lies die Koordinaten der Punkte E, F und G ab. Lösung: Die Punkte E, F und G haben die Koordinaten E (-314), F </t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a bertrage das Koordinatenkreuz mit dem halben Clowngesicht in dein Heft. Beschrifte anschlie- Bend alle Punkte mit den zugehörigen Koordina ten. Für das Ohr ist ein Punkt schon vorgemacht. b) Ergänze nun dein Punktemuster zu einem voll- ständigen Clowngesicht. Gib zu jedem Punkt die Koordinaten an. c) Vergleiche die Koordinaten des linken und des rechten Auges, des linken und des rechten Mundwinkels. Was fällt dir auf? (311) </t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
-    <t xml:space="preserve">Gib zunächst an, in welchem Quadranten die Punkte liegen. Gelingt dir dies, ohne die Punkte zu zeichnen? Entscheide durch Zeichnen im Koordinatensystem, ob a) die Punkte A 1 1-3), B (-0,51-1), C (01 1), D (0,512) auf einer Geraden liegen. b) die Punkte E (—512), F (—312), G (212), H (-0,512) auf einer Geraden liegen. c) die Punkte L (—313), M (- 1 | 1), N (—31— 1), P (—511) die Eckpunkte eines Quadrates sind. </t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -211,111 +97,39 @@
     <t>33</t>
   </si>
   <si>
-    <t xml:space="preserve">Ersetze die Kästchen durc -181 • 1181 d) 1-181. 1-171 das passende Zeic b) -181-17 e) 1—181 • 1+171 c) 1-181 u- 17 f) -18 -1-171 </t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ordne die Zahlen nach ihren Beträgen. -3 -2 3 5 o c) -80 -67 43 -16 -99 12 Kopfübungen b) 10 d) -43 -8 12 -5 — 56 -4 17 6 -2 -100 -1000 1. Notiere das Zahlwort im satz mit Ziffern: „Unser Universum ist ungefähr </t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t xml:space="preserve">Euromünzen </t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fun Vermessungsteams a en le Ho e anes Kirc turms bestimmt. In der Tabelle siehst du, wie gut die Teams jeweils gemessen haben. Tearw GÄbweichung A B c D E + 7 cm — 8 cm +24 cm —25 cm —11 cm Nach Beendigung der Messungen verrät der Pfarrer die exakte Höhe des Kirch turms. Sie beträgt 38,75 m. a) Welches Team lag am nächsten mit seiner Mes- sung? Erstelle eine Rangliste. b) Welche Höhen haben die Teams jeweils gemessen? Lege eine Tabelle an. c) Im Abschlussbericht steht: „Durchschnittlich lagen die Messungen der Teams um 18 cm daneben." Stimmt das? </t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennst du das? Ist es im Winter besonders windig und regnerisch, frierst du viel leichter als an klaren, sonnigen Tagen, selbst wenn dir das Thermometer eine viel tiefere Temperatur anzeigt. Amerikanische Wissenschaftler haben den Zusammenhang zwischen Wind und gefühlter Temperatur genauer untersucht. Für Expeditionsteilnehmer in die Polargebiete der Er- de oder Extrembergsteiger können diese Ergebnisse lebenswichtig sein. a) Beschreibe, welche Information die Tabelle enthält. b) Welche gefühlte Temperatur liefert die Tabelle bei —7 oc und einer Windgeschwindig- keit von 20 km/h? c) Erstelle eine Anleitung, wie man mit der Tabelle die gefühlte Temperatur ermitteln kann. d) Stimmt es, dass es sich auch „doppelt so kalt" anfühlt, wenn sich die Windgeschwin- digkeit verdoppelt? -26 -21 32 - -23 Temperatur in oc Windstill 10 krn,'h 20 km/h 30 km/h 40 km/h 4 4 3 -2 -6 -8 -3 -13 -16 -18 -16 -26 -12 -12 -14 -23 -28 -34 -18 -18 -21 -23 -23 36 -29 -38 - —39 ——47.00-55 große Gefahr -29 -34 -29 ¯ -32 63 ; mit entsprechender Kleidung geringe Gefahr erhöhte Gefahr </t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The deepest lake In t e wor d IS Lake Baika In central Siberia, Russa.lt asa ept o 1620 metres. The deepest point of Lake Baikal is 1197 metres below sea level. How high above sea level is the surface of the Lake? </t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erdteil Höchster Punkt Tiefster Punkt Nordamerika Mount McKinley, Alaska 6194 m über N.N. Death Valley, Kalifornien 86 m unter N.N. Südamerika a) Finde ähnliche rekordverdächtige Daten für die anderen Erdteile. Schaue im Atlas nach, wo die Orte liegen, und trage sie auf einer Weltkarte ein. Wie viele Höhenmeter liegen jeweils zwischen dem tiefsten und dem höchsten Punkt? b) Finde den höchsten und den tiefsten Punkt der Erde (einschließlich der Ozeane). Was meinst du zu dem Zeitungsartikel? Houston, 28. März 2004 c) Temperaturrekorde Der höchste Berg auf dem Mars, der Finde für die Erdteile die jemals gemes Olympus Mons, ist ein sanft abfallender sene höchste und niedrigste Tempera Schildvulkan. Er ist mit 25 km Höhe tur. Stelle deine Ergebnisse so, wie die weit höher als jeder Berg der Erde. in Aufgabe a), dar. Die Erde und ihre Nachbarn im All B Die Menschen haben schon mit unbemannten Raumsonden die Planeten unseres Sonnensystems besucht. Die NASA plant eine bemannte Raummission zum Mars. Die Oberflächentemperatur ist sowohl für bemannte als auch unbemannte Raumsonden von besonderer Wichtigkeit. Welche Temperaturen trifft man auf den Planeten und auf dem Erdmond an? Stelle deine Ergebnisse zusammen und beurteile, auf welchen der Planeten eine bemannte Landung möglich sein könnte. </t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
-    <t xml:space="preserve">a) Donald schuldet seinen drei Neffen noch Taschengeld. Von den Stadtwerken erhält er eine Gutschrift von 79 Talern. Kann er damit seine Schulden begleichen? b) Der Computer der Bank in Entenhausen streikt. Er hat nur einen unvollständigen Ausdruck der Bewegungen auf Dagobert Ducks Konto ausgedruckt. Kannst du die fehlenden Zahlen ergänzen? 02.04 04.04 80 6,00 Taschengeld Tick Trick Track Datam Alter Kontostand Änderung Neuer Kontostand - 14,00 6,00 - 52,00 03.04. 80 , 00 - 52,00 35,- 28,- 19,- - 52,00 Donald zeichnet und rechnet, um den ersten fehlenden Eintrag herauszufinden: Änderung Rechnung: -14+ 20=6 -14 Alter Kontostand 6 Neuer Kontostand c) Welcher Geldbetrag wurde insgesamt vom 1.4. bis zum 5.4. auf Dagobert Ducks Konto überwiesen, welcher wurde abgebucht? </t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
     <t xml:space="preserve">3-2 2- 1- 5- 0-2 (-2) -1 (-3) c) —2+ -2+ 5-(-2) -2 -3 -4 Berechne und stelle jede Aufgabe an der Zahlengeraden wie in den beiden Beispielen dar. —2+7=5 -4-3-2-10 1 2345 6 -4-3-2-10 1 23 456 Erkennst du Regeln für das Addieren und Subtrahieren von positiven und negativen ganzen Zahlen in der Darstellung mit der Zahlengeraden? </t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berechne —3 — 5) und stelle die Rech- nung an der Zahlengeraden dar. Zur Unterscheidung von Vorzeichen und -3 Rechenzeichen benutzt man Klammern. o 2 </t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betrachte die Buchung auf dem Konto. Schreibe als Additionsaufgabe und bestimme den Endstand. Mache eine Überschlagsrechnung. Runde dazu die Zahlen. Kontostand 1378,00 € Buchung -2045,00 € Endstand Überschlagsrechnung: 1400 + 2000) = -600 Exakte Rechnung: 1 378,00 + 2045,00) = -667 Der Kontostand beträgt —667,00 €. </t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finde die fehlenden Angaben der Temperaturbeobachtung. -gac Die Ausgangstemperatur beträgt —2 0 C, denn 2 9--11 Die Temperaturänderung beträgt —12 oc, denn 3-12=-9 </t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t xml:space="preserve">bertrage ins Heft und setze die richtigen Vorzeichen ein. .46 .46 43 • = b) • 1000- (.999) - 1999 • 1000 + (.999) - 1999 .10+ (.29) (.54)-93 • 100- (.45) + </t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
     <t xml:space="preserve">Löse die Aufgaben. a) 60- 12 13 + • ——27 -7 .-10 c) (-41) = 50 81 -.=-2 14 = </t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t xml:space="preserve">Veren c e le Sc a) 18 + (-22) _ 3 + (+15) 35 - (-5) -65 + 35) wese evor u rec b) —74 + (—16) -24 - 7) -12- (+24) -24 + 12) nest. c) 205 - (-21) -830 + 29) 1200 - (+ 1389) (-495) - (-95) d) -22 + (-23) -22 - (-23) -22 - (+ 23) -22 + (+23) </t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vereinfache zuerst die Schreibweise. Entscheide dann, ob du bei der Rechnung die Null überschreitest. Wie kann man geschickt rechnen? a) -1090 - 1022) -456 + (+500) 365 + (-400) -978 - (+ 100) b) -597 + (-600) -247 - (-300) -124-(+124) -124- (-125) c) 378 - (-222) -306 + (-209) 1200 - 1 389) (-495) - (-695) </t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubertrage die Tabellen in dein Heft und fülle die Lücken. -99 11 -100 27 -45 -19 -91 145 </t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
-    <t xml:space="preserve">Ubertrage die Quadrate ins Heft. Fülle die Felder so aus, dass die Summe der Zahlen in Spalten, Zeilen und Diagonalen gleich ist. 2 -12 b) c) d) </t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
@@ -325,9 +139,6 @@
     <t>52</t>
   </si>
   <si>
-    <t xml:space="preserve">a) Setze die Zahlen 4, —2, 5 jeweils so in die Kästchen ein, dass du das Ergebnis 11 (—1; —3) erhältst. b) Welche verschiedenen Ergebnisse erhältst du, wenn du die Zahlen 15, —84, —28 in den Rechenausdruck einsetzt? </t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
@@ -337,9 +148,6 @@
     <t>54</t>
   </si>
   <si>
-    <t xml:space="preserve">Zwei ne enanan erste en e Za en musst u entwe era lereno er su tra leren. Hast du alles richtig gemacht, so erkennst du das an der „Spitzenzahl". a) c) -23 30 10 </t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
@@ -349,9 +157,6 @@
     <t>56</t>
   </si>
   <si>
-    <t xml:space="preserve">a) Trage im Koordinatensystem Punkte ein, deren Ko ordinaten die Differenz 3 haben. Was fällt dir auf? b) Welches Muster ergibt sich für Punkte mit der Koordinatendifferenz (—5)? c) Welches Muster erhältst du, wenn die Koordi- natensumme immer 4 beträgt? d) Formuliere eine Regel und begründe diese. </t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
@@ -367,15 +172,9 @@
     <t>59</t>
   </si>
   <si>
-    <t xml:space="preserve">Welche Konten sind nach den Buchungen überzogen? Runde und notiere einen ber- schlag. Berechne dann die Kontostände mit dem Taschenrechner. Vergleicht. Wer hat die besten Überschläge? Kontostand Buchung Buchung Endstand 359,78 -279,67 -376,56 3235,81 - 402,00 -2604,12 -128,54 +1012,98 -801 654,23 + 347 ,66 -1551 -1984,89 -51 ,37 +2026,11 </t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
-    <t xml:space="preserve">Willst du einen Zahlpfeil z.B. auf das Dreifache verlängern, so kannst du ihn mit der Zahl 3 multiplizieren. Zahlen und Zahlpfeile -3 -6 -5 -4 -2 2 3 4 5 6 7 a) Überlege dir mithilfe der Zahlpfeile auch die Ergebnisse folgender Rechnungen und zeichne die zugehörigen Pfeilbilder. b) Überlege dir eine Antwort zu Nellys Frage. Kann ich auch zu (-2).3 und • ein passendes Pfeitbitd zeichnen? </t>
-  </si>
-  <si>
     <t>61</t>
   </si>
   <si>
@@ -385,15 +184,9 @@
     <t>62</t>
   </si>
   <si>
-    <t xml:space="preserve">Ermittle die fehlenden Zahlen. Bestimme zuerst das Vorzeichen dieser Zahlen. a) • 15- . Lösung: a) Das Ergebnis ist negativ: —45 c) Der fehlende Faktor ist negativ: —5 c) . • = 20 d) • • 7- — 49 b) Das Ergebnis ist positiv: 25 d) Der fehlende Faktor ist negativ: —7 </t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
-    <t xml:space="preserve">Mit dem Pfeilbitd ist eine Rechnung veranschaulicht. Erkläre. Der Zahlpfeil zu (+2) wird mit (- 3) multipliziert. Damit wird er 3-mal so lang, dreht aber auch seine Richtung um. (+2) • 3) = —6 -g 8-7 -6-5-4 -3-2-10 1 2 3 5 </t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
@@ -415,15 +208,9 @@
     <t>67</t>
   </si>
   <si>
-    <t xml:space="preserve">Was Ist grö er. bertrage -32) • 10 d) 15 • (-2).100 • o le Au gaben In ein He un ergänze -10) </t>
-  </si>
-  <si>
     <t>68</t>
   </si>
   <si>
-    <t xml:space="preserve">Mu tip Inere ne gende Feld ein. a) 129 enanan erste trage as Pro b) u t In as aru er le- c) 86 </t>
-  </si>
-  <si>
     <t>69</t>
   </si>
   <si>
@@ -433,9 +220,6 @@
     <t>70</t>
   </si>
   <si>
-    <t xml:space="preserve">a) Welche Multiplikation ist dargestellt? Erkläre. b) Veranschauliche in einem Pfeilbild Schneller durch Multiplizieren Berechne durch Multiplizieren. a) 17+17+17+17+17 c) 23 + (-14) + (-14) d) 34 + 12) + 12) + 34+34+ (-12) </t>
-  </si>
-  <si>
     <t>71</t>
   </si>
   <si>
@@ -445,15 +229,9 @@
     <t>72</t>
   </si>
   <si>
-    <t xml:space="preserve">Versuche, je ein Beispie ür zwei ganze Za en zu In en, a) deren Summe und Produkt negativ ist. b) deren Summe O und deren Produkt positiv ist. c) deren Summe positiv und deren Produkt negativ ist. Nicht alles geht. Formuliere noch weitere solche Rätsel. </t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
-    <t xml:space="preserve">a Was bedeutet er Spruc Im A tag. Finde Situationen un Beispiele, wo u lesen Spruch anwenden würdest. b) Was würde ein Mathematiker zu diesem Spruch sagen? </t>
-  </si>
-  <si>
     <t>74</t>
   </si>
   <si>
@@ -475,15 +253,9 @@
     <t>77</t>
   </si>
   <si>
-    <t xml:space="preserve">In den USA wird die Temperatur in Grad Fahrenheit (OF) angegeben. In Euro- pa misst man die Temperatur in Grad z- -20 Celsius (oc). a) Bei welcher Temperatur in oc gefriert das Wasser, bei welcher Temperatur kocht es? Welches sind die ent- 30 40 e 30 20 10 -o 70 80 100 -30 50 S sprechenden Temperaturangaben in OF? Du findest die Angaben im Internet, aber auch in jedem Lexikon. b) Man kann die Temperaturangabe nach der folgenden Regel von OF in oc umrechnen: • Subtrahiere 32 Multipliziere das Ergebnis mit 5 Dividiere das Ergebnis durch 9 Rechne um: 212 OF, 500F, 320F, 140F, -40F c) Chris aus New York schreibt seinem deutschen Freund: „Bei uns gefriert das Wasser bei positiven Temperaturen." Was meint ihr? d) Carina macht mit ihren Eltern Urlaub in den Alpen. In der vergangenen Nacht waren es —25 oc. Sie möchte dies per E-Mail ihrer amerikanischen Freundin mitteilen. Sie rechnet die Temperatur nach den folgenden Regeln in OF um: Dividiere die Temperaturangabe in oc durch 5 Multipliziere das Ergebnis mit 9 • Addiere dann 32 Carina rechnet und erhält als Ergebnis —130F. Überprüfe. e) Suche dir eine Stadt in den USA aus. Schaue im Internet bei einer amerikanischen Wetterstation nach (z. B. weather.com), wie die Tagestemperatur ist. Rechne in oc um. </t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
-    <t xml:space="preserve">a) Wie hätte ein Mathematiker die Stockwerke auf der Fahrstuhlanzeige beschriftet? b) Johanna ist vom 3. Stock 4 Stockwerke nach unten gefahren, wo kommt sie an? </t>
-  </si>
-  <si>
     <t>79</t>
   </si>
   <si>
@@ -499,33 +271,18 @@
     <t>81</t>
   </si>
   <si>
-    <t xml:space="preserve">Fülle die Lücken aus. -19 b) -210 13 -100 -28 </t>
-  </si>
-  <si>
     <t>82</t>
   </si>
   <si>
-    <t xml:space="preserve">Auf Julians Konto sind zu Beginn 1 20 €. Nun werden nachein ander folgende Buchungen ausgeführt: O Abhebung 210 € @ Einzahlung 72 € @ Einzahlung 85 € @Abbuchung 68 € Bestimme den aktuellen Kontostand nach jeder Buchung. </t>
-  </si>
-  <si>
     <t>83</t>
   </si>
   <si>
-    <t xml:space="preserve">Wie kann man an den Koordinaten (xly) eines Punktes ohne zu zeichnen erkennen, in welchem Quadranten er sich befindet? </t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne die Punkte A bis J in ein Koordinatensystem mit der Ein- heit 1 cm ein und verbinde sie in der angegebenen Reihenfolge, sowie den letzten und den ersten Punkt. A (-1 1-3); B (-41-1); C (-410); D (-311); E (-211); F (-1 10); G (011); H (1 11); 1 (210); J (21-1) </t>
-  </si>
-  <si>
     <t>85</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne jeweils eine Zahlengerade mit einer geeigneten Einteilung und markiere die Zahlen auf der Zahlengeraden. a) -2,0, -4, 3, 4 c) -50, 50, 10, 25, 40 b) -20, -40, -60, -75, -100 d) -1000, -250, 500, 750, -500 </t>
-  </si>
-  <si>
     <t>86</t>
   </si>
   <si>
@@ -535,9 +292,6 @@
     <t>87</t>
   </si>
   <si>
-    <t xml:space="preserve">a) Gib den Vorgänger und den Nachfolger von —5 an. b) Von welcher Zahl ist — 10 der Vorgänger? c) Von welcher Zahl ist —16 der Nachfolger? </t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
@@ -3116,25 +2870,42 @@
   </si>
   <si>
     <t xml:space="preserve">2 4 ESt}, Die Gesetzmäßigkeiten, die den holländischen Künstler M. C. ESCHER sein ganzes Leben lang am meisten fasziniert haben, waren die der re- gelmäßigen Flächenaufteilung (Parkettierung). Die Abbildung links ist eine seiner ersten Studien zu diesem Thema und stammt vom Oktober 1936. a) Beschreibe das Bild. Welche Besonderheiten fallen dir auf? Was haben die einzelnen Bud- dhas gemeinsam, wie unterscheiden sie sich? b) Durch welche Bewegung kannst du Buddha 2 aus Buddha 1 erhalten, wie Buddha 3 aus Buddha I? Kommst du auch mit einer einzi- gen Bewegung von Buddha 2 zu Buddha 3? c) Wie kommst du von Buddha 5 zu Buddha 3 (4; 6)? Finde mehrere Möglichkeiten. </t>
+  </si>
+  <si>
+    <t>Antwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auf dem Girokonto sind noch 705 Euro Guthaben. Wie lautet der Kontostand nach folgenden Buchungen? Datum 25.02. 27.02. Werft Iß Betrag Verwendungszweck Telefonrechnung 121276 Autoreparatur Meisterbetrieb 26.02. 82,00 s 28.02. 823,00 s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Trage im Koordinatensystem Punkte ein, deren Koordinaten die Differenz 3 haben. Was fällt dir auf? b) Welches Muster ergibt sich für Punkte mit der Koordinatendifferenz (—5)? c) Welches Muster erhältst du, wenn die Koordi- natensumme immer 4 beträgt? d) Formuliere eine Regel und begründe diese. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versuche, je ein Beispie für zwei ganze Zahlen zu finden, a) deren Summe und Produkt negativ ist. b) deren Summe O und deren Produkt positiv ist. c) deren Summe positiv und deren Produkt negativ ist. Nicht alles geht. Formuliere noch weitere solche Rätsel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">den USA wird die Temperatur in Grad Fahrenheit (°F) angegeben. In Europa misst man die Temperatur in Grad 20 Celsius (oc). a) Bei welcher Temperatur in oc gefriert das Wasser, bei welcher Temperatur kocht es? Welches sind die ent- 30 40 e 30 20 10 -o 70 80 100 -30 50 S sprechenden Temperaturangaben in OF? Du findest die Angaben im Internet, aber auch in jedem Lexikon. b) Man kann die Temperaturangabe nach der folgenden Regel von OF in oc umrechnen: • Subtrahiere 32 Multipliziere das Ergebnis mit 5 Dividiere das Ergebnis durch 9 Rechne um: 212 OF, 500F, 320F, 140F, -40F c) Chris aus New York schreibt seinem deutschen Freund: „Bei uns gefriert das Wasser bei positiven Temperaturen." Was meint ihr? d) Carina macht mit ihren Eltern Urlaub in den Alpen. In der vergangenen Nacht waren es —25 oc. Sie möchte dies per E-Mail ihrer amerikanischen Freundin mitteilen. Sie rechnet die Temperatur nach den folgenden Regeln in OF um: Dividiere die Temperaturangabe in oc durch 5 Multipliziere das Ergebnis mit 9 • Addiere dann 32 Carina rechnet und erhält als Ergebnis —130F. Überprüfe. e) Suche dir eine Stadt in den USA aus. Schaue im Internet bei einer amerikanischen Wetterstation nach (z. B. weather.com), wie die Tagestemperatur ist. Rechne in oc um. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auf Julians Konto sind zu Beginn 1 20 Euro. Nun werden nachein ander folgende Buchungen ausgeführt: O Abhebung 210 € @ Einzahlung 72 € @ Einzahlung 85 € @Abbuchung 68 € Bestimme den aktuellen Kontostand nach jeder Buchung. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -3150,15 +2921,87 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3167,10 +3010,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="222226"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CDCFD4"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3446,4172 +3289,3892 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B519"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:GZ491"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:208" ht="90" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:208" ht="90" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:208" ht="90" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:208" ht="90" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:208" ht="90" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:208" ht="90" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:208" ht="90" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:208" ht="90" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:208" ht="90" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:208" ht="90" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:208" ht="90" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:208" ht="90" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:208" ht="90" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="GZ13" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:208" ht="90" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="GZ14" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:208" ht="90" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="GZ15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:208" ht="90" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="90" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="90" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="90" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="90" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="90" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="90" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B22" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="90" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="90" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="90" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="90" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="90" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="90" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="90" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="90" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="90" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="90" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="90" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="90" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="90" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B35" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="90" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="90" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="90" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="B38" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="90" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="90" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="90" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="B41" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="90" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B42" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="90" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B43" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="90" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="B44" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="90" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B45" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="90" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="B46" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="90" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="B47" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="90" customHeight="1">
+      <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B48" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="90" customHeight="1">
+      <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="B49" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="90" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="B50" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="90" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="B51" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="90" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B52" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="90" customHeight="1">
+      <c r="A53" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="B53" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="90" customHeight="1">
+      <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="90" customHeight="1">
+      <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="B55" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="90" customHeight="1">
+      <c r="A56" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B56" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="90" customHeight="1">
+      <c r="A57" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B57" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="90" customHeight="1">
+      <c r="A58" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="B58" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="90" customHeight="1">
+      <c r="A59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="B59" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="90" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="B60" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="90" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="B61" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="90" customHeight="1">
+      <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="B62" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="90" customHeight="1">
+      <c r="A63" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="B63" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="90" customHeight="1">
+      <c r="A64" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="B64" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="90" customHeight="1">
+      <c r="A65" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B65" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="90" customHeight="1">
+      <c r="A66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="B66" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="90" customHeight="1">
+      <c r="A67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="B67" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="90" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="B68" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="90" customHeight="1">
+      <c r="A69" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="B69" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="90" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="B70" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="90" customHeight="1">
+      <c r="A71" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="B71" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="90" customHeight="1">
+      <c r="A72" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="B72" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="90" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="90" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="B74" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="90" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="B75" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="90" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="B76" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="90" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B77" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="90" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="B78" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="90" customHeight="1">
+      <c r="A79" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="B79" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="90" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B80" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="90" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="B81" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="90" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="B82" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="90" customHeight="1">
+      <c r="A83" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="B83" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="90" customHeight="1">
+      <c r="A84" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B84" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="90" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="B85" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="90" customHeight="1">
+      <c r="A86" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="B86" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="90" customHeight="1">
+      <c r="A87" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="B87" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="90" customHeight="1">
+      <c r="A88" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="B88" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="90" customHeight="1">
+      <c r="A89" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="B89" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="90" customHeight="1">
+      <c r="A90" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="B90" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="90" customHeight="1">
+      <c r="A91" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B79" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="B91" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="90" customHeight="1">
+      <c r="A92" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="B92" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="90" customHeight="1">
+      <c r="A93" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="B93" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="90" customHeight="1">
+      <c r="A94" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B82" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B94" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="90" customHeight="1">
+      <c r="A95" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="B95" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="90" customHeight="1">
+      <c r="A96" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B84" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="B96" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="90" customHeight="1">
+      <c r="A97" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B85" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="B97" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="90" customHeight="1">
+      <c r="A98" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B86" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="B98" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="90" customHeight="1">
+      <c r="A99" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B87" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="B99" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="90" customHeight="1">
+      <c r="A100" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B88" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="B100" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="90" customHeight="1">
+      <c r="A101" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B89" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="B101" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="90" customHeight="1">
+      <c r="A102" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B90" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="B102" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="90" customHeight="1">
+      <c r="A103" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B91" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+      <c r="B103" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="90" customHeight="1">
+      <c r="A104" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B92" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+      <c r="B104" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="90" customHeight="1">
+      <c r="A105" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B93" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="B105" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="90" customHeight="1">
+      <c r="A106" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+      <c r="B106" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="90" customHeight="1">
+      <c r="A107" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B95" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="B107" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="90" customHeight="1">
+      <c r="A108" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B96" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="B108" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="90" customHeight="1">
+      <c r="A109" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B97" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="B109" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="90" customHeight="1">
+      <c r="A110" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="B110" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="90" customHeight="1">
+      <c r="A111" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B99" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+      <c r="B111" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="90" customHeight="1">
+      <c r="A112" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B100" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+      <c r="B112" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="90" customHeight="1">
+      <c r="A113" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B101" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+      <c r="B113" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="90" customHeight="1">
+      <c r="A114" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B102" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+      <c r="B114" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="90" customHeight="1">
+      <c r="A115" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B103" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+      <c r="B115" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="90" customHeight="1">
+      <c r="A116" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B104" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+      <c r="B116" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="90" customHeight="1">
+      <c r="A117" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B105" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+      <c r="B117" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="90" customHeight="1">
+      <c r="A118" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B106" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+      <c r="B118" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="90" customHeight="1">
+      <c r="A119" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B107" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+      <c r="B119" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="90" customHeight="1">
+      <c r="A120" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B108" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+      <c r="B120" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="90" customHeight="1">
+      <c r="A121" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B109" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+      <c r="B121" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="90" customHeight="1">
+      <c r="A122" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B110" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="B122" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="90" customHeight="1">
+      <c r="A123" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B111" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
+      <c r="B123" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="90" customHeight="1">
+      <c r="A124" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B112" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+      <c r="B124" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="90" customHeight="1">
+      <c r="A125" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B113" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+      <c r="B125" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="90" customHeight="1">
+      <c r="A126" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B114" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+      <c r="B126" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="90" customHeight="1">
+      <c r="A127" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B115" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
+      <c r="B127" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="90" customHeight="1">
+      <c r="A128" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B116" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
+      <c r="B128" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="90" customHeight="1">
+      <c r="A129" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B117" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+      <c r="B129" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="90" customHeight="1">
+      <c r="A130" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B118" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+      <c r="B130" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="90" customHeight="1">
+      <c r="A131" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B119" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
+      <c r="B131" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="90" customHeight="1">
+      <c r="A132" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+      <c r="B132" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="90" customHeight="1">
+      <c r="A133" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B121" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+      <c r="B133" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="90" customHeight="1">
+      <c r="A134" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B122" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
+      <c r="B134" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="90" customHeight="1">
+      <c r="A135" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B123" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
+      <c r="B135" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="90" customHeight="1">
+      <c r="A136" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B124" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+      <c r="B136" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="90" customHeight="1">
+      <c r="A137" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B125" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+      <c r="B137" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="90" customHeight="1">
+      <c r="A138" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B126" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="B138" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="90" customHeight="1">
+      <c r="A139" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B127" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+      <c r="B139" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="90" customHeight="1">
+      <c r="A140" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B128" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="B140" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="90" customHeight="1">
+      <c r="A141" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B129" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+      <c r="B141" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="90" customHeight="1">
+      <c r="A142" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B130" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="B142" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="90" customHeight="1">
+      <c r="A143" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B131" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+      <c r="B143" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="90" customHeight="1">
+      <c r="A144" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B132" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+      <c r="B144" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="90" customHeight="1">
+      <c r="A145" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B133" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+      <c r="B145" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="90" customHeight="1">
+      <c r="A146" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B134" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+      <c r="B146" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="90" customHeight="1">
+      <c r="A147" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B135" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+      <c r="B147" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="90" customHeight="1">
+      <c r="A148" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B136" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="B148" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="90" customHeight="1">
+      <c r="A149" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B137" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+      <c r="B149" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="90" customHeight="1">
+      <c r="A150" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B138" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+      <c r="B150" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="90" customHeight="1">
+      <c r="A151" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B139" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="B151" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="90" customHeight="1">
+      <c r="A152" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B140" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="B152" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="90" customHeight="1">
+      <c r="A153" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B141" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="B153" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="90" customHeight="1">
+      <c r="A154" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B142" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="B154" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="90" customHeight="1">
+      <c r="A155" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B143" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
+      <c r="B155" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="90" customHeight="1">
+      <c r="A156" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B144" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
+      <c r="B156" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="90" customHeight="1">
+      <c r="A157" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B145" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
+      <c r="B157" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="90" customHeight="1">
+      <c r="A158" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B146" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+      <c r="B158" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="90" customHeight="1">
+      <c r="A159" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B147" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
+      <c r="B159" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="90" customHeight="1">
+      <c r="A160" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B148" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
+      <c r="B160" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="90" customHeight="1">
+      <c r="A161" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B149" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+      <c r="B161" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="90" customHeight="1">
+      <c r="A162" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B150" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+      <c r="B162" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="90" customHeight="1">
+      <c r="A163" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B151" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
+      <c r="B163" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="90" customHeight="1">
+      <c r="A164" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B152" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+      <c r="B164" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="90" customHeight="1">
+      <c r="A165" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B153" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
+      <c r="B165" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="90" customHeight="1">
+      <c r="A166" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B154" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
+      <c r="B166" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="90" customHeight="1">
+      <c r="A167" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B155" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
+      <c r="B167" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="90" customHeight="1">
+      <c r="A168" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B156" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
+      <c r="B168" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="90" customHeight="1">
+      <c r="A169" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B157" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
+      <c r="B169" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="90" customHeight="1">
+      <c r="A170" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B158" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
+      <c r="B170" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="90" customHeight="1">
+      <c r="A171" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B159" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
+      <c r="B171" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="90" customHeight="1">
+      <c r="A172" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B160" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
+      <c r="B172" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="90" customHeight="1">
+      <c r="A173" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B161" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
+      <c r="B173" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="90" customHeight="1">
+      <c r="A174" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B162" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
+      <c r="B174" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="90" customHeight="1">
+      <c r="A175" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B163" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
+      <c r="B175" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="90" customHeight="1">
+      <c r="A176" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B164" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+      <c r="B176" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="90" customHeight="1">
+      <c r="A177" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B165" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
+      <c r="B177" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="90" customHeight="1">
+      <c r="A178" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B166" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
+      <c r="B178" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="90" customHeight="1">
+      <c r="A179" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B167" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
+      <c r="B179" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="90" customHeight="1">
+      <c r="A180" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B168" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
+      <c r="B180" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="90" customHeight="1">
+      <c r="A181" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B169" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
+      <c r="B181" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="90" customHeight="1">
+      <c r="A182" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B170" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
+      <c r="B182" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="90" customHeight="1">
+      <c r="A183" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B171" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
+      <c r="B183" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="90" customHeight="1">
+      <c r="A184" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B172" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
+      <c r="B184" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="90" customHeight="1">
+      <c r="A185" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B173" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
+      <c r="B185" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="90" customHeight="1">
+      <c r="A186" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B174" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
+      <c r="B186" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="90" customHeight="1">
+      <c r="A187" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B175" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
+      <c r="B187" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="90" customHeight="1">
+      <c r="A188" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B176" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
+      <c r="B188" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="90" customHeight="1">
+      <c r="A189" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B177" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
+      <c r="B189" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="90" customHeight="1">
+      <c r="A190" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B178" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
+      <c r="B190" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="90" customHeight="1">
+      <c r="A191" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B179" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+      <c r="B191" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="90" customHeight="1">
+      <c r="A192" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B180" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
+      <c r="B192" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="90" customHeight="1">
+      <c r="A193" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B181" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
+      <c r="B193" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="90" customHeight="1">
+      <c r="A194" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B182" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
+      <c r="B194" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="90" customHeight="1">
+      <c r="A195" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B183" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
+      <c r="B195" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="90" customHeight="1">
+      <c r="A196" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B184" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
+      <c r="B196" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="90" customHeight="1">
+      <c r="A197" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B185" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
+      <c r="B197" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="90" customHeight="1">
+      <c r="A198" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B186" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
+      <c r="B198" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="90" customHeight="1">
+      <c r="A199" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B187" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
+      <c r="B199" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="90" customHeight="1">
+      <c r="A200" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B188" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
+      <c r="B200" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="90" customHeight="1">
+      <c r="A201" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B189" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
+      <c r="B201" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="90" customHeight="1">
+      <c r="A202" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B190" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
+      <c r="B202" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="90" customHeight="1">
+      <c r="A203" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B191" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
+      <c r="B203" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="90" customHeight="1">
+      <c r="A204" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B192" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+      <c r="B204" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="90" customHeight="1">
+      <c r="A205" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B193" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+      <c r="B205" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="90" customHeight="1">
+      <c r="A206" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B194" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
+      <c r="B206" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="90" customHeight="1">
+      <c r="A207" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B195" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
+      <c r="B207" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="90" customHeight="1">
+      <c r="A208" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B196" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+      <c r="B208" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="90" customHeight="1">
+      <c r="A209" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B197" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+      <c r="B209" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="90" customHeight="1">
+      <c r="A210" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B198" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+      <c r="B210" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="90" customHeight="1">
+      <c r="A211" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B199" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
+      <c r="B211" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="90" customHeight="1">
+      <c r="A212" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B200" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
+      <c r="B212" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="90" customHeight="1">
+      <c r="A213" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B201" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
+      <c r="B213" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="90" customHeight="1">
+      <c r="A214" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B202" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+      <c r="B214" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="90" customHeight="1">
+      <c r="A215" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B203" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
+      <c r="B215" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="90" customHeight="1">
+      <c r="A216" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B204" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
+      <c r="B216" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="90" customHeight="1">
+      <c r="A217" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B205" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
+      <c r="B217" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="90" customHeight="1">
+      <c r="A218" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B206" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
+      <c r="B218" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="90" customHeight="1">
+      <c r="A219" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B207" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
+      <c r="B219" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="90" customHeight="1">
+      <c r="A220" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B208" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
+      <c r="B220" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="90" customHeight="1">
+      <c r="A221" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B209" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
+      <c r="B221" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="90" customHeight="1">
+      <c r="A222" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B210" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
+      <c r="B222" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="90" customHeight="1">
+      <c r="A223" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B211" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
+      <c r="B223" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="90" customHeight="1">
+      <c r="A224" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B212" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
+      <c r="B224" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="90" customHeight="1">
+      <c r="A225" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B213" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
+      <c r="B225" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="90" customHeight="1">
+      <c r="A226" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B214" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
+      <c r="B226" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="90" customHeight="1">
+      <c r="A227" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B215" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
+      <c r="B227" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="90" customHeight="1">
+      <c r="A228" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B216" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
+      <c r="B228" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="90" customHeight="1">
+      <c r="A229" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B217" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
+      <c r="B229" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="90" customHeight="1">
+      <c r="A230" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B218" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
+      <c r="B230" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="90" customHeight="1">
+      <c r="A231" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B219" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
+      <c r="B231" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="90" customHeight="1">
+      <c r="A232" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B220" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
+      <c r="B232" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="90" customHeight="1">
+      <c r="A233" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B221" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
+      <c r="B233" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="90" customHeight="1">
+      <c r="A234" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B222" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
+      <c r="B234" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="90" customHeight="1">
+      <c r="A235" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B223" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
+      <c r="B235" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="90" customHeight="1">
+      <c r="A236" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B224" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
+      <c r="B236" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="90" customHeight="1">
+      <c r="A237" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B225" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
+      <c r="B237" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="90" customHeight="1">
+      <c r="A238" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B226" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
+      <c r="B238" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="90" customHeight="1">
+      <c r="A239" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B227" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
+      <c r="B239" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="90" customHeight="1">
+      <c r="A240" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B228" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
+      <c r="B240" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="90" customHeight="1">
+      <c r="A241" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B229" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
+      <c r="B241" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="90" customHeight="1">
+      <c r="A242" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B230" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
+      <c r="B242" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="90" customHeight="1">
+      <c r="A243" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B231" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
+      <c r="B243" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="90" customHeight="1">
+      <c r="A244" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B232" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
+      <c r="B244" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="90" customHeight="1">
+      <c r="A245" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B233" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
+      <c r="B245" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="90" customHeight="1">
+      <c r="A246" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B234" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
+      <c r="B246" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="90" customHeight="1">
+      <c r="A247" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B235" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
+      <c r="B247" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="90" customHeight="1">
+      <c r="A248" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B236" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
+      <c r="B248" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="90" customHeight="1">
+      <c r="A249" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B237" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
+      <c r="B249" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="90" customHeight="1">
+      <c r="A250" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B238" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
+      <c r="B250" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="90" customHeight="1">
+      <c r="A251" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B239" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
+      <c r="B251" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="90" customHeight="1">
+      <c r="A252" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B240" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
+      <c r="B252" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="90" customHeight="1">
+      <c r="A253" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B241" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
+      <c r="B253" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="90" customHeight="1">
+      <c r="A254" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B242" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
+      <c r="B254" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="90" customHeight="1">
+      <c r="A255" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B243" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
+      <c r="B255" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="90" customHeight="1">
+      <c r="A256" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B244" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
+      <c r="B256" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="90" customHeight="1">
+      <c r="A257" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B245" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
+      <c r="B257" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="90" customHeight="1">
+      <c r="A258" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B246" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
+      <c r="B258" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="90" customHeight="1">
+      <c r="A259" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B247" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
+      <c r="B259" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="90" customHeight="1">
+      <c r="A260" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B260" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="90" customHeight="1">
+      <c r="A261" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="90" customHeight="1">
+      <c r="A262" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="90" customHeight="1">
+      <c r="A263" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="90" customHeight="1">
+      <c r="A264" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="90" customHeight="1">
+      <c r="A265" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="90" customHeight="1">
+      <c r="A266" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="90" customHeight="1">
+      <c r="A267" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="90" customHeight="1">
+      <c r="A268" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="90" customHeight="1">
+      <c r="A269" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="90" customHeight="1">
+      <c r="A270" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="90" customHeight="1">
+      <c r="A271" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="90" customHeight="1">
+      <c r="A272" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="90" customHeight="1">
+      <c r="A273" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="90" customHeight="1">
+      <c r="A274" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="90" customHeight="1">
+      <c r="A275" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="90" customHeight="1">
+      <c r="A276" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="90" customHeight="1">
+      <c r="A277" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="90" customHeight="1">
+      <c r="A278" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="90" customHeight="1">
+      <c r="A279" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="90" customHeight="1">
+      <c r="A280" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="90" customHeight="1">
+      <c r="A281" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="90" customHeight="1">
+      <c r="A282" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="90" customHeight="1">
+      <c r="A283" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="90" customHeight="1">
+      <c r="A284" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="90" customHeight="1">
+      <c r="A285" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="90" customHeight="1">
+      <c r="A286" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="90" customHeight="1">
+      <c r="A287" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="90" customHeight="1">
+      <c r="A288" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="90" customHeight="1">
+      <c r="A289" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="90" customHeight="1">
+      <c r="A290" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="90" customHeight="1">
+      <c r="A291" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="90" customHeight="1">
+      <c r="A292" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="90" customHeight="1">
+      <c r="A293" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="90" customHeight="1">
+      <c r="A294" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="90" customHeight="1">
+      <c r="A295" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="90" customHeight="1">
+      <c r="A296" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="90" customHeight="1">
+      <c r="A297" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="90" customHeight="1">
+      <c r="A298" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="90" customHeight="1">
+      <c r="A299" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="90" customHeight="1">
+      <c r="A300" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="90" customHeight="1">
+      <c r="A301" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="90" customHeight="1">
+      <c r="A302" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="90" customHeight="1">
+      <c r="A303" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="90" customHeight="1">
+      <c r="A304" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="90" customHeight="1">
+      <c r="A305" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="90" customHeight="1">
+      <c r="A306" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="90" customHeight="1">
+      <c r="A307" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="90" customHeight="1">
+      <c r="A308" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="90" customHeight="1">
+      <c r="A309" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="90" customHeight="1">
+      <c r="A310" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="90" customHeight="1">
+      <c r="A311" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="90" customHeight="1">
+      <c r="A312" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="90" customHeight="1">
+      <c r="A313" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="90" customHeight="1">
+      <c r="A314" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="90" customHeight="1">
+      <c r="A315" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="90" customHeight="1">
+      <c r="A316" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="90" customHeight="1">
+      <c r="A317" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="90" customHeight="1">
+      <c r="A318" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="90" customHeight="1">
+      <c r="A319" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="90" customHeight="1">
+      <c r="A320" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="90" customHeight="1">
+      <c r="A321" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="90" customHeight="1">
+      <c r="A322" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="90" customHeight="1">
+      <c r="A323" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="90" customHeight="1">
+      <c r="A324" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="90" customHeight="1">
+      <c r="A325" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
-        <v>496</v>
-      </c>
-      <c r="B249" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
-        <v>498</v>
-      </c>
-      <c r="B250" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
-        <v>500</v>
-      </c>
-      <c r="B251" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
-        <v>502</v>
-      </c>
-      <c r="B252" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
-        <v>504</v>
-      </c>
-      <c r="B253" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
-        <v>506</v>
-      </c>
-      <c r="B254" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
-        <v>508</v>
-      </c>
-      <c r="B255" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
-        <v>510</v>
-      </c>
-      <c r="B256" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
-        <v>512</v>
-      </c>
-      <c r="B257" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
-        <v>514</v>
-      </c>
-      <c r="B258" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
-        <v>516</v>
-      </c>
-      <c r="B259" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
-        <v>518</v>
-      </c>
-      <c r="B260" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
-        <v>520</v>
-      </c>
-      <c r="B261" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
-        <v>522</v>
-      </c>
-      <c r="B262" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
-        <v>524</v>
-      </c>
-      <c r="B263" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
-        <v>526</v>
-      </c>
-      <c r="B264" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
-        <v>528</v>
-      </c>
-      <c r="B265" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
-        <v>530</v>
-      </c>
-      <c r="B266" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
-        <v>532</v>
-      </c>
-      <c r="B267" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
-        <v>534</v>
-      </c>
-      <c r="B268" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
-        <v>536</v>
-      </c>
-      <c r="B269" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
-        <v>538</v>
-      </c>
-      <c r="B270" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
-        <v>540</v>
-      </c>
-      <c r="B271" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
-        <v>542</v>
-      </c>
-      <c r="B272" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
-        <v>544</v>
-      </c>
-      <c r="B273" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
-        <v>546</v>
-      </c>
-      <c r="B274" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
-        <v>548</v>
-      </c>
-      <c r="B275" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
-        <v>550</v>
-      </c>
-      <c r="B276" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="s">
-        <v>552</v>
-      </c>
-      <c r="B277" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
-        <v>554</v>
-      </c>
-      <c r="B278" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
-        <v>556</v>
-      </c>
-      <c r="B279" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
-        <v>558</v>
-      </c>
-      <c r="B280" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
-        <v>560</v>
-      </c>
-      <c r="B281" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="s">
-        <v>562</v>
-      </c>
-      <c r="B282" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
-        <v>564</v>
-      </c>
-      <c r="B283" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
-        <v>566</v>
-      </c>
-      <c r="B284" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" t="s">
-        <v>568</v>
-      </c>
-      <c r="B285" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="s">
-        <v>570</v>
-      </c>
-      <c r="B286" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>572</v>
-      </c>
-      <c r="B287" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
-        <v>574</v>
-      </c>
-      <c r="B288" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="s">
-        <v>576</v>
-      </c>
-      <c r="B289" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="s">
-        <v>578</v>
-      </c>
-      <c r="B290" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="s">
-        <v>580</v>
-      </c>
-      <c r="B291" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
-        <v>582</v>
-      </c>
-      <c r="B292" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="s">
-        <v>584</v>
-      </c>
-      <c r="B293" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" t="s">
-        <v>586</v>
-      </c>
-      <c r="B294" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="s">
-        <v>588</v>
-      </c>
-      <c r="B295" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" t="s">
-        <v>590</v>
-      </c>
-      <c r="B296" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" t="s">
-        <v>592</v>
-      </c>
-      <c r="B297" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" t="s">
-        <v>594</v>
-      </c>
-      <c r="B298" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" t="s">
-        <v>596</v>
-      </c>
-      <c r="B299" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" t="s">
-        <v>598</v>
-      </c>
-      <c r="B300" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" t="s">
-        <v>600</v>
-      </c>
-      <c r="B301" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="s">
-        <v>602</v>
-      </c>
-      <c r="B302" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="s">
-        <v>604</v>
-      </c>
-      <c r="B303" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
-        <v>606</v>
-      </c>
-      <c r="B304" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="s">
-        <v>608</v>
-      </c>
-      <c r="B305" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" t="s">
-        <v>610</v>
-      </c>
-      <c r="B306" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" t="s">
-        <v>612</v>
-      </c>
-      <c r="B307" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" t="s">
-        <v>614</v>
-      </c>
-      <c r="B308" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" t="s">
-        <v>616</v>
-      </c>
-      <c r="B309" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" t="s">
-        <v>618</v>
-      </c>
-      <c r="B310" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" t="s">
-        <v>620</v>
-      </c>
-      <c r="B311" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" t="s">
-        <v>622</v>
-      </c>
-      <c r="B312" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" t="s">
-        <v>624</v>
-      </c>
-      <c r="B313" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" t="s">
+    <row r="326" spans="1:2" ht="90" customHeight="1">
+      <c r="A326" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B314" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" t="s">
+      <c r="B326" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="90" customHeight="1">
+      <c r="A327" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B315" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" t="s">
+      <c r="B327" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="90" customHeight="1">
+      <c r="A328" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B316" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" t="s">
+      <c r="B328" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="90" customHeight="1">
+      <c r="A329" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B317" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" t="s">
+      <c r="B329" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="90" customHeight="1">
+      <c r="A330" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B318" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" t="s">
+      <c r="B330" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="90" customHeight="1">
+      <c r="A331" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B319" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" t="s">
+      <c r="B331" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="90" customHeight="1">
+      <c r="A332" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B320" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" t="s">
+      <c r="B332" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="90" customHeight="1">
+      <c r="A333" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B321" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" t="s">
+      <c r="B333" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="90" customHeight="1">
+      <c r="A334" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B322" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" t="s">
+      <c r="B334" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="90" customHeight="1">
+      <c r="A335" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B323" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" t="s">
+      <c r="B335" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="90" customHeight="1">
+      <c r="A336" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B324" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" t="s">
+      <c r="B336" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="90" customHeight="1">
+      <c r="A337" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B325" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" t="s">
+      <c r="B337" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="90" customHeight="1">
+      <c r="A338" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B326" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" t="s">
+      <c r="B338" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="90" customHeight="1">
+      <c r="A339" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B327" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" t="s">
+      <c r="B339" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="90" customHeight="1">
+      <c r="A340" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B328" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" t="s">
+      <c r="B340" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="90" customHeight="1">
+      <c r="A341" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B329" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" t="s">
+      <c r="B341" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="90" customHeight="1">
+      <c r="A342" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B330" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" t="s">
+      <c r="B342" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="90" customHeight="1">
+      <c r="A343" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B331" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" t="s">
+      <c r="B343" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="90" customHeight="1">
+      <c r="A344" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B344" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="90" customHeight="1">
+      <c r="A345" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" t="s">
-        <v>664</v>
-      </c>
-      <c r="B333" t="s">
+      <c r="B345" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="90" customHeight="1">
+      <c r="A346" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" t="s">
-        <v>666</v>
-      </c>
-      <c r="B334" t="s">
+      <c r="B346" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="90" customHeight="1">
+      <c r="A347" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" t="s">
-        <v>668</v>
-      </c>
-      <c r="B335" t="s">
+      <c r="B347" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="90" customHeight="1">
+      <c r="A348" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" t="s">
-        <v>670</v>
-      </c>
-      <c r="B336" t="s">
+      <c r="B348" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="90" customHeight="1">
+      <c r="A349" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" t="s">
-        <v>672</v>
-      </c>
-      <c r="B337" t="s">
+      <c r="B349" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="90" customHeight="1">
+      <c r="A350" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" t="s">
-        <v>674</v>
-      </c>
-      <c r="B338" t="s">
+      <c r="B350" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="90" customHeight="1">
+      <c r="A351" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" t="s">
-        <v>676</v>
-      </c>
-      <c r="B339" t="s">
+      <c r="B351" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="90" customHeight="1">
+      <c r="A352" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" t="s">
-        <v>678</v>
-      </c>
-      <c r="B340" t="s">
+      <c r="B352" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="90" customHeight="1">
+      <c r="A353" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" t="s">
-        <v>680</v>
-      </c>
-      <c r="B341" t="s">
+      <c r="B353" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="90" customHeight="1">
+      <c r="A354" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" t="s">
-        <v>682</v>
-      </c>
-      <c r="B342" t="s">
+      <c r="B354" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="90" customHeight="1">
+      <c r="A355" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" t="s">
-        <v>684</v>
-      </c>
-      <c r="B343" t="s">
+      <c r="B355" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="90" customHeight="1">
+      <c r="A356" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" t="s">
-        <v>686</v>
-      </c>
-      <c r="B344" t="s">
+      <c r="B356" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="90" customHeight="1">
+      <c r="A357" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" t="s">
-        <v>688</v>
-      </c>
-      <c r="B345" t="s">
+      <c r="B357" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="90" customHeight="1">
+      <c r="A358" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" t="s">
-        <v>690</v>
-      </c>
-      <c r="B346" t="s">
+      <c r="B358" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="90" customHeight="1">
+      <c r="A359" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" t="s">
-        <v>692</v>
-      </c>
-      <c r="B347" t="s">
+      <c r="B359" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="90" customHeight="1">
+      <c r="A360" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" t="s">
-        <v>694</v>
-      </c>
-      <c r="B348" t="s">
+      <c r="B360" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="90" customHeight="1">
+      <c r="A361" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" t="s">
-        <v>696</v>
-      </c>
-      <c r="B349" t="s">
+      <c r="B361" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="90" customHeight="1">
+      <c r="A362" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" t="s">
-        <v>698</v>
-      </c>
-      <c r="B350" t="s">
+      <c r="B362" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="90" customHeight="1">
+      <c r="A363" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" t="s">
-        <v>700</v>
-      </c>
-      <c r="B351" t="s">
+      <c r="B363" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="90" customHeight="1">
+      <c r="A364" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" t="s">
-        <v>702</v>
-      </c>
-      <c r="B352" t="s">
+      <c r="B364" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="90" customHeight="1">
+      <c r="A365" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" t="s">
-        <v>704</v>
-      </c>
-      <c r="B353" t="s">
+      <c r="B365" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="90" customHeight="1">
+      <c r="A366" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" t="s">
-        <v>706</v>
-      </c>
-      <c r="B354" t="s">
+      <c r="B366" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="90" customHeight="1">
+      <c r="A367" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" t="s">
-        <v>708</v>
-      </c>
-      <c r="B355" t="s">
+      <c r="B367" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="90" customHeight="1">
+      <c r="A368" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" t="s">
-        <v>710</v>
-      </c>
-      <c r="B356" t="s">
+      <c r="B368" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="90" customHeight="1">
+      <c r="A369" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" t="s">
-        <v>712</v>
-      </c>
-      <c r="B357" t="s">
+      <c r="B369" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="90" customHeight="1">
+      <c r="A370" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" t="s">
-        <v>714</v>
-      </c>
-      <c r="B358" t="s">
+      <c r="B370" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="90" customHeight="1">
+      <c r="A371" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" t="s">
-        <v>716</v>
-      </c>
-      <c r="B359" t="s">
+      <c r="B371" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="90" customHeight="1">
+      <c r="A372" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" t="s">
-        <v>718</v>
-      </c>
-      <c r="B360" t="s">
+      <c r="B372" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="90" customHeight="1">
+      <c r="A373" s="1" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" t="s">
-        <v>720</v>
-      </c>
-      <c r="B361" t="s">
+      <c r="B373" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="90" customHeight="1">
+      <c r="A374" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" t="s">
-        <v>722</v>
-      </c>
-      <c r="B362" t="s">
+      <c r="B374" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="90" customHeight="1">
+      <c r="A375" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" t="s">
-        <v>724</v>
-      </c>
-      <c r="B363" t="s">
+      <c r="B375" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="90" customHeight="1">
+      <c r="A376" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" t="s">
-        <v>726</v>
-      </c>
-      <c r="B364" t="s">
+      <c r="B376" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="90" customHeight="1">
+      <c r="A377" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" t="s">
-        <v>728</v>
-      </c>
-      <c r="B365" t="s">
+      <c r="B377" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="90" customHeight="1">
+      <c r="A378" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366" t="s">
-        <v>730</v>
-      </c>
-      <c r="B366" t="s">
+      <c r="B378" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="90" customHeight="1">
+      <c r="A379" s="1" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367" t="s">
-        <v>732</v>
-      </c>
-      <c r="B367" t="s">
+      <c r="B379" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="90" customHeight="1">
+      <c r="A380" s="1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="A368" t="s">
-        <v>734</v>
-      </c>
-      <c r="B368" t="s">
+      <c r="B380" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="90" customHeight="1">
+      <c r="A381" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" t="s">
-        <v>736</v>
-      </c>
-      <c r="B369" t="s">
+      <c r="B381" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="90" customHeight="1">
+      <c r="A382" s="1" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" t="s">
-        <v>738</v>
-      </c>
-      <c r="B370" t="s">
+      <c r="B382" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="90" customHeight="1">
+      <c r="A383" s="1" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" t="s">
-        <v>740</v>
-      </c>
-      <c r="B371" t="s">
+      <c r="B383" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="90" customHeight="1">
+      <c r="A384" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" t="s">
-        <v>742</v>
-      </c>
-      <c r="B372" t="s">
+      <c r="B384" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="90" customHeight="1">
+      <c r="A385" s="1" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" t="s">
-        <v>744</v>
-      </c>
-      <c r="B373" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374" t="s">
+      <c r="B385" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="90" customHeight="1">
+      <c r="A386" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B374" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
-      <c r="A375" t="s">
+      <c r="B386" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="90" customHeight="1">
+      <c r="A387" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B375" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" t="s">
+      <c r="B387" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="90" customHeight="1">
+      <c r="A388" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B376" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" t="s">
+      <c r="B388" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="90" customHeight="1">
+      <c r="A389" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B377" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" t="s">
+      <c r="B389" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="90" customHeight="1">
+      <c r="A390" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B378" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" t="s">
+      <c r="B390" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="90" customHeight="1">
+      <c r="A391" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B379" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" t="s">
+      <c r="B391" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="90" customHeight="1">
+      <c r="A392" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B380" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" t="s">
+      <c r="B392" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="90" customHeight="1">
+      <c r="A393" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B381" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" t="s">
+      <c r="B393" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="90" customHeight="1">
+      <c r="A394" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B382" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" t="s">
+      <c r="B394" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="90" customHeight="1">
+      <c r="A395" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B383" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="A384" t="s">
+      <c r="B395" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="90" customHeight="1">
+      <c r="A396" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B384" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="A385" t="s">
+      <c r="B396" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="90" customHeight="1">
+      <c r="A397" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B385" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" t="s">
+      <c r="B397" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="90" customHeight="1">
+      <c r="A398" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B386" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" t="s">
+      <c r="B398" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="90" customHeight="1">
+      <c r="A399" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B387" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" t="s">
+      <c r="B399" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="90" customHeight="1">
+      <c r="A400" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B388" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" t="s">
+      <c r="B400" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="90" customHeight="1">
+      <c r="A401" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B389" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" t="s">
+      <c r="B401" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="90" customHeight="1">
+      <c r="A402" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B390" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" t="s">
+      <c r="B402" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="90" customHeight="1">
+      <c r="A403" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B391" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" t="s">
+      <c r="B403" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="90" customHeight="1">
+      <c r="A404" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B392" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" t="s">
+      <c r="B404" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="90" customHeight="1">
+      <c r="A405" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B393" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" t="s">
+      <c r="B405" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="90" customHeight="1">
+      <c r="A406" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B394" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2">
-      <c r="A395" t="s">
+      <c r="B406" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="90" customHeight="1">
+      <c r="A407" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B395" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
-      <c r="A396" t="s">
+      <c r="B407" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="90" customHeight="1">
+      <c r="A408" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B396" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
-      <c r="A397" t="s">
+      <c r="B408" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="90" customHeight="1">
+      <c r="A409" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B397" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="A398" t="s">
+      <c r="B409" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="90" customHeight="1">
+      <c r="A410" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B398" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" t="s">
+      <c r="B410" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="90" customHeight="1">
+      <c r="A411" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B399" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" t="s">
+      <c r="B411" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="90" customHeight="1">
+      <c r="A412" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B400" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" t="s">
+      <c r="B412" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="90" customHeight="1">
+      <c r="A413" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B401" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" t="s">
+      <c r="B413" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="90" customHeight="1">
+      <c r="A414" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B402" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" t="s">
+      <c r="B414" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="90" customHeight="1">
+      <c r="A415" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B403" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" t="s">
+      <c r="B415" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="90" customHeight="1">
+      <c r="A416" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B404" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" t="s">
+      <c r="B416" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="90" customHeight="1">
+      <c r="A417" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B405" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" t="s">
+      <c r="B417" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="90" customHeight="1">
+      <c r="A418" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B406" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" t="s">
+      <c r="B418" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="90" customHeight="1">
+      <c r="A419" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B407" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" t="s">
+      <c r="B419" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="90" customHeight="1">
+      <c r="A420" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B408" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" t="s">
+      <c r="B420" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="90" customHeight="1">
+      <c r="A421" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B409" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" t="s">
+      <c r="B421" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="90" customHeight="1">
+      <c r="A422" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B410" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" t="s">
+      <c r="B422" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="90" customHeight="1">
+      <c r="A423" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B411" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412" t="s">
+      <c r="B423" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="90" customHeight="1">
+      <c r="A424" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B412" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" t="s">
+      <c r="B424" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="90" customHeight="1">
+      <c r="A425" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B413" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" t="s">
+      <c r="B425" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="90" customHeight="1">
+      <c r="A426" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B414" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" t="s">
+      <c r="B426" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="90" customHeight="1">
+      <c r="A427" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B415" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" t="s">
+      <c r="B427" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="90" customHeight="1">
+      <c r="A428" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B416" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" t="s">
+      <c r="B428" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="90" customHeight="1">
+      <c r="A429" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B417" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" t="s">
+      <c r="B429" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="90" customHeight="1">
+      <c r="A430" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B418" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" t="s">
+      <c r="B430" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="90" customHeight="1">
+      <c r="A431" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B419" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" t="s">
+      <c r="B431" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="90" customHeight="1">
+      <c r="A432" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B420" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" t="s">
+      <c r="B432" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="90" customHeight="1">
+      <c r="A433" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B421" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422" t="s">
+      <c r="B433" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="90" customHeight="1">
+      <c r="A434" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B422" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" t="s">
+      <c r="B434" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="90" customHeight="1">
+      <c r="A435" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B423" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" t="s">
+      <c r="B435" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="90" customHeight="1">
+      <c r="A436" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B424" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" t="s">
+      <c r="B436" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="90" customHeight="1">
+      <c r="A437" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="B425" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" t="s">
+      <c r="B437" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="90" customHeight="1">
+      <c r="A438" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B438" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="90" customHeight="1">
+      <c r="A439" s="1" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" t="s">
-        <v>851</v>
-      </c>
-      <c r="B427" t="s">
+      <c r="B439" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="90" customHeight="1">
+      <c r="A440" s="1" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" t="s">
-        <v>853</v>
-      </c>
-      <c r="B428" t="s">
+      <c r="B440" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="90" customHeight="1">
+      <c r="A441" s="1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="A429" t="s">
+      <c r="B441" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="90" customHeight="1">
+      <c r="A442" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B442" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="90" customHeight="1">
+      <c r="A443" s="1" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="A430" t="s">
-        <v>857</v>
-      </c>
-      <c r="B430" t="s">
+      <c r="B443" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="90" customHeight="1">
+      <c r="A444" s="1" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="431" spans="1:2">
-      <c r="A431" t="s">
-        <v>859</v>
-      </c>
-      <c r="B431" t="s">
+      <c r="B444" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="90" customHeight="1">
+      <c r="A445" s="1" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" t="s">
-        <v>861</v>
-      </c>
-      <c r="B432" t="s">
+      <c r="B445" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="90" customHeight="1">
+      <c r="A446" s="1" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" t="s">
-        <v>863</v>
-      </c>
-      <c r="B433" t="s">
+      <c r="B446" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="90" customHeight="1">
+      <c r="A447" s="1" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="434" spans="1:2">
-      <c r="A434" t="s">
-        <v>865</v>
-      </c>
-      <c r="B434" t="s">
+      <c r="B447" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="90" customHeight="1">
+      <c r="A448" s="1" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="435" spans="1:2">
-      <c r="A435" t="s">
-        <v>867</v>
-      </c>
-      <c r="B435" t="s">
+      <c r="B448" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="90" customHeight="1">
+      <c r="A449" s="1" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" t="s">
-        <v>869</v>
-      </c>
-      <c r="B436" t="s">
+      <c r="B449" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="90" customHeight="1">
+      <c r="A450" s="1" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="437" spans="1:2">
-      <c r="A437" t="s">
-        <v>871</v>
-      </c>
-      <c r="B437" t="s">
+      <c r="B450" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="90" customHeight="1">
+      <c r="A451" s="1" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="438" spans="1:2">
-      <c r="A438" t="s">
-        <v>873</v>
-      </c>
-      <c r="B438" t="s">
+      <c r="B451" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="90" customHeight="1">
+      <c r="A452" s="1" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="439" spans="1:2">
-      <c r="A439" t="s">
-        <v>875</v>
-      </c>
-      <c r="B439" t="s">
+      <c r="B452" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="90" customHeight="1">
+      <c r="A453" s="1" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="440" spans="1:2">
-      <c r="A440" t="s">
-        <v>877</v>
-      </c>
-      <c r="B440" t="s">
+      <c r="B453" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="90" customHeight="1">
+      <c r="A454" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="441" spans="1:2">
-      <c r="A441" t="s">
-        <v>879</v>
-      </c>
-      <c r="B441" t="s">
+      <c r="B454" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="90" customHeight="1">
+      <c r="A455" s="1" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="442" spans="1:2">
-      <c r="A442" t="s">
-        <v>881</v>
-      </c>
-      <c r="B442" t="s">
+      <c r="B455" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="90" customHeight="1">
+      <c r="A456" s="1" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" t="s">
-        <v>883</v>
-      </c>
-      <c r="B443" t="s">
+      <c r="B456" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="90" customHeight="1">
+      <c r="A457" s="1" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" t="s">
-        <v>885</v>
-      </c>
-      <c r="B444" t="s">
+      <c r="B457" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="90" customHeight="1">
+      <c r="A458" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="445" spans="1:2">
-      <c r="A445" t="s">
-        <v>887</v>
-      </c>
-      <c r="B445" t="s">
+      <c r="B458" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="90" customHeight="1">
+      <c r="A459" s="1" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="446" spans="1:2">
-      <c r="A446" t="s">
-        <v>889</v>
-      </c>
-      <c r="B446" t="s">
+      <c r="B459" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="90" customHeight="1">
+      <c r="A460" s="1" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="447" spans="1:2">
-      <c r="A447" t="s">
-        <v>891</v>
-      </c>
-      <c r="B447" t="s">
+      <c r="B460" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="90" customHeight="1">
+      <c r="A461" s="1" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" t="s">
-        <v>893</v>
-      </c>
-      <c r="B448" t="s">
+      <c r="B461" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="90" customHeight="1">
+      <c r="A462" s="1" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" t="s">
-        <v>895</v>
-      </c>
-      <c r="B449" t="s">
+      <c r="B462" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="90" customHeight="1">
+      <c r="A463" s="1" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" t="s">
-        <v>897</v>
-      </c>
-      <c r="B450" t="s">
+      <c r="B463" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="90" customHeight="1">
+      <c r="A464" s="1" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="451" spans="1:2">
-      <c r="A451" t="s">
-        <v>899</v>
-      </c>
-      <c r="B451" t="s">
+      <c r="B464" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="90" customHeight="1">
+      <c r="A465" s="1" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="452" spans="1:2">
-      <c r="A452" t="s">
-        <v>901</v>
-      </c>
-      <c r="B452" t="s">
+      <c r="B465" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="90" customHeight="1">
+      <c r="A466" s="1" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="453" spans="1:2">
-      <c r="A453" t="s">
-        <v>903</v>
-      </c>
-      <c r="B453" t="s">
+      <c r="B466" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="90" customHeight="1">
+      <c r="A467" s="1" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="454" spans="1:2">
-      <c r="A454" t="s">
-        <v>905</v>
-      </c>
-      <c r="B454" t="s">
+      <c r="B467" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="90" customHeight="1">
+      <c r="A468" s="1" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="455" spans="1:2">
-      <c r="A455" t="s">
-        <v>907</v>
-      </c>
-      <c r="B455" t="s">
+      <c r="B468" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="90" customHeight="1">
+      <c r="A469" s="1" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="456" spans="1:2">
-      <c r="A456" t="s">
-        <v>909</v>
-      </c>
-      <c r="B456" t="s">
+      <c r="B469" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="90" customHeight="1">
+      <c r="A470" s="1" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="457" spans="1:2">
-      <c r="A457" t="s">
-        <v>911</v>
-      </c>
-      <c r="B457" t="s">
+      <c r="B470" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="90" customHeight="1">
+      <c r="A471" s="1" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="458" spans="1:2">
-      <c r="A458" t="s">
-        <v>913</v>
-      </c>
-      <c r="B458" t="s">
+      <c r="B471" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="90" customHeight="1">
+      <c r="A472" s="1" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
-      <c r="A459" t="s">
-        <v>915</v>
-      </c>
-      <c r="B459" t="s">
+    <row r="473" spans="1:2" ht="90" customHeight="1">
+      <c r="A473" s="1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
-      <c r="A460" t="s">
-        <v>917</v>
-      </c>
-      <c r="B460" t="s">
+    <row r="474" spans="1:2" ht="90" customHeight="1">
+      <c r="A474" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
-      <c r="A461" t="s">
-        <v>919</v>
-      </c>
-      <c r="B461" t="s">
+    <row r="475" spans="1:2" ht="90" customHeight="1">
+      <c r="A475" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
-      <c r="A462" t="s">
-        <v>921</v>
-      </c>
-      <c r="B462" t="s">
+    <row r="476" spans="1:2" ht="90" customHeight="1">
+      <c r="A476" s="1" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
-      <c r="A463" t="s">
-        <v>923</v>
-      </c>
-      <c r="B463" t="s">
+    <row r="477" spans="1:2" ht="90" customHeight="1">
+      <c r="A477" s="1" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
-      <c r="A464" t="s">
-        <v>925</v>
-      </c>
-      <c r="B464" t="s">
+    <row r="478" spans="1:2" ht="90" customHeight="1">
+      <c r="A478" s="1" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
-      <c r="A465" t="s">
-        <v>927</v>
-      </c>
-      <c r="B465" t="s">
+    <row r="479" spans="1:2" ht="90" customHeight="1">
+      <c r="A479" s="1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
-      <c r="A466" t="s">
-        <v>929</v>
-      </c>
-      <c r="B466" t="s">
+    <row r="480" spans="1:2" ht="90" customHeight="1">
+      <c r="A480" s="1" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
-      <c r="A467" t="s">
-        <v>931</v>
-      </c>
-      <c r="B467" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2">
-      <c r="A468" t="s">
+    <row r="481" spans="1:1" ht="90" customHeight="1">
+      <c r="A481" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B468" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
-      <c r="A469" t="s">
+    </row>
+    <row r="482" spans="1:1" ht="90" customHeight="1">
+      <c r="A482" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B469" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" t="s">
+    </row>
+    <row r="483" spans="1:1" ht="90" customHeight="1">
+      <c r="A483" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B470" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
-      <c r="A471" t="s">
-        <v>937</v>
-      </c>
-      <c r="B471" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
-      <c r="A472" t="s">
+    </row>
+    <row r="484" spans="1:1" ht="90" customHeight="1">
+      <c r="A484" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B472" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2">
-      <c r="A473" t="s">
+    </row>
+    <row r="485" spans="1:1" ht="90" customHeight="1">
+      <c r="A485" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B473" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
-      <c r="A474" t="s">
+    </row>
+    <row r="486" spans="1:1" ht="90" customHeight="1">
+      <c r="A486" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B474" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
-      <c r="A475" t="s">
+    </row>
+    <row r="487" spans="1:1" ht="90" customHeight="1">
+      <c r="A487" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B475" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="A476" t="s">
+    </row>
+    <row r="488" spans="1:1" ht="90" customHeight="1">
+      <c r="A488" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B476" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
-      <c r="A477" t="s">
+    </row>
+    <row r="489" spans="1:1" ht="90" customHeight="1">
+      <c r="A489" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B477" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="A478" t="s">
+    </row>
+    <row r="490" spans="1:1" ht="90" customHeight="1">
+      <c r="A490" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B478" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
-      <c r="A479" t="s">
-        <v>952</v>
-      </c>
-      <c r="B479" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2">
-      <c r="A480" t="s">
-        <v>954</v>
-      </c>
-      <c r="B480" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
-      <c r="A481" t="s">
-        <v>956</v>
-      </c>
-      <c r="B481" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2">
-      <c r="A482" t="s">
-        <v>958</v>
-      </c>
-      <c r="B482" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2">
-      <c r="A483" t="s">
-        <v>960</v>
-      </c>
-      <c r="B483" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2">
-      <c r="A484" t="s">
-        <v>962</v>
-      </c>
-      <c r="B484" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
-      <c r="A485" t="s">
-        <v>964</v>
-      </c>
-      <c r="B485" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2">
-      <c r="A486" t="s">
-        <v>966</v>
-      </c>
-      <c r="B486" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2">
-      <c r="A487" t="s">
-        <v>968</v>
-      </c>
-      <c r="B487" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2">
-      <c r="A488" t="s">
-        <v>970</v>
-      </c>
-      <c r="B488" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2">
-      <c r="A489" t="s">
-        <v>972</v>
-      </c>
-      <c r="B489" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2">
-      <c r="A490" t="s">
-        <v>974</v>
-      </c>
-      <c r="B490" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
-      <c r="A491" t="s">
-        <v>976</v>
-      </c>
-      <c r="B491" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
-      <c r="A492" t="s">
-        <v>978</v>
-      </c>
-      <c r="B492" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2">
-      <c r="A493" t="s">
-        <v>980</v>
-      </c>
-      <c r="B493" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2">
-      <c r="A494" t="s">
-        <v>982</v>
-      </c>
-      <c r="B494" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2">
-      <c r="A495" t="s">
-        <v>984</v>
-      </c>
-      <c r="B495" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2">
-      <c r="A496" t="s">
-        <v>986</v>
-      </c>
-      <c r="B496" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2">
-      <c r="A497" t="s">
-        <v>988</v>
-      </c>
-      <c r="B497" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2">
-      <c r="A498" t="s">
-        <v>990</v>
-      </c>
-      <c r="B498" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2">
-      <c r="A499" t="s">
-        <v>992</v>
-      </c>
-      <c r="B499" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2">
-      <c r="A500" t="s">
-        <v>994</v>
-      </c>
-      <c r="B500" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2">
-      <c r="A501" t="s">
-        <v>996</v>
-      </c>
-      <c r="B501" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2">
-      <c r="A502" t="s">
-        <v>998</v>
-      </c>
-      <c r="B502" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2">
-      <c r="A503" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B503" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2">
-      <c r="A504" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B504" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2">
-      <c r="A505" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B505" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2">
-      <c r="A506" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B506" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2">
-      <c r="A507" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2">
-      <c r="A508" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2">
-      <c r="A509" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2">
-      <c r="A510" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2">
-      <c r="A511" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2">
-      <c r="A512" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B512" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2">
-      <c r="A513" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2">
-      <c r="A514" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2">
-      <c r="A515" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B515" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2">
-      <c r="A516" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B516" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2">
-      <c r="A517" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B517" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2">
-      <c r="A518" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B518" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2">
-      <c r="A519" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B519" t="s">
-        <v>1033</v>
-      </c>
-    </row>
+    </row>
+    <row r="491" spans="1:1" ht="90" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputbook6 - Kopie.xlsx
+++ b/outputbook6 - Kopie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="783">
   <si>
     <t>5</t>
   </si>
@@ -217,9 +217,6 @@
     <t xml:space="preserve">berlege zunächst, welches Vorzeichen das Ergebnis hat. Nutze Rechenvorteile durch Vertauschen und Zusammenfassen. a) (-5) • 37 • 20) d) 125 • 34 • b) 8 • • (-25) • 10 e) 200 • 56 (—4) c) (-2) • (-17) • 5 • 20 f) (-25) 125 • • 8 </t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>71</t>
   </si>
   <si>
@@ -301,33 +298,18 @@
     <t>89</t>
   </si>
   <si>
-    <t xml:space="preserve">In der Ubersicht findest du die Regeln zum Addieren (und Subtra- hieren) ganzer Zahlen. Schreibe für jeden Fall ein Beispiel auf und zeichne das Pfeilbild an der Zahlengeraden. </t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
-    <t xml:space="preserve">Berechne. -IW -112 200 45 -100 -418 -200 </t>
-  </si>
-  <si>
     <t>91</t>
   </si>
   <si>
-    <t xml:space="preserve">Runde und mache zuerst einen berschlag. Berechne dann die fehlenden Kontostände und Buchungen. Alter Kontostand Buch ung Neuer Kontostand -493 -162 -701 -12 -243 876 1109 -2170 </t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
-    <t xml:space="preserve">c) 11 (-1) -1000) </t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
-    <t xml:space="preserve">Ergänze. a) 15 .=-60 e) 20 • .--1000 c) f) (—5) </t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -337,9 +319,6 @@
     <t>95</t>
   </si>
   <si>
-    <t xml:space="preserve">a) 200 300+10 100+90 d) 2000 + (-1200) + (-800) Mehrere Faktoren Berechne. Nutze Rechenvorteile. a) 10 . . (-3) LÜcken füllen Ergänze die fehlenden Zahlen. Gefährliche Mischung b) 81 + (-79) 150 —45) f) c) f) c) (-4) • 7 • (-5)2 -15 • (-2)3 -4) 97 + (—27) + 60 (—45) + ((_55) + 78) -10) . (-1) • (-10) (-6) = 48 Für diese Aufgabe musst du die Regeln für Addition und Multiplikation beherrschen. b) o • (-625) c) (—9) — 42 g) (-18) + h) 5 . (-32) </t>
-  </si>
-  <si>
     <t>96</t>
   </si>
   <si>
@@ -349,15 +328,9 @@
     <t>97</t>
   </si>
   <si>
-    <t xml:space="preserve">Vera at Im Koor Inaten reuz eine ec ge Sc nec e ent- worfen. „Bei (010) habe ich begonnen, dann kam ich zum Punkt (01—1 ), von dort ging es dann mit (1 1—1) weiter ..." Übertrage das Koordinatensystem samt Muster in dein Heft und führe die Schnecke weiter. Gib die Koor- dinaten der Eckpunkte an, die du für die Fortsetzung der Schnecke benötigst. Kannst du die Koordinaten der nächsten fünf Eckpunkte angeben, bevor du sie zeichnest? 3 —3 —4 </t>
-  </si>
-  <si>
     <t>98</t>
   </si>
   <si>
-    <t xml:space="preserve">A lerea e ganzen Za en von einsc e IC —49 IS emsc le IC +49. </t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
@@ -379,69 +352,36 @@
     <t>102</t>
   </si>
   <si>
-    <t xml:space="preserve">Am 22. Januar 1943 stieg die Temperatur in Spearfish (Süd Dakota, USA) innerhalb von zwei Minuten von —20 oc auf 7 oc. Im Ort Tummel Bridge (Schottland) kletterte das Thermometer am 9. Mai 1978 von —7 oc auf 22 'C. Stelle die Temperaturanstiege auf einer geeigneten Skala dar: Um wie viel Grad Celsius stieg jeweils die Temperatur? Vergleiche. </t>
-  </si>
-  <si>
     <t>103</t>
   </si>
   <si>
-    <t xml:space="preserve">Wo findest du in deiner alltäglichen Umgebung Beispiele für Kreise und Kugeln? Erstel- le eine eigene Beispielliste. Bei welchen Gegenständen hätte die Abweichung von der idealen Kreis- oder Kugelform schwerwiegende Nachteile? Beschreibe diese Nachteile. Schreibe auch einige Beispiele für Figuren auf, die gering- fügig von der Kreis- oder Kugelform abweichen. Tennis - </t>
-  </si>
-  <si>
     <t>104</t>
   </si>
   <si>
-    <t xml:space="preserve">a Das Zeichnen von Kreisen mit der freien Hand ist eine wahre Kunst. Versuche es selbst. Warum ist es so schwierig? Was unterscheidet deine Zeichnung von der idealen Form eines Kreises? b) Mit den abgebildeten Hilfsmitteln kannst du exakter zeichnen. Probiere sie alle aus. Beschreibe jeweils dein Vorge- hen. Mit manchen Hilfsmitteln kannst du auch unterschiedlich große Kreise zeichnen. Welche eignen sich dafür? </t>
-  </si>
-  <si>
     <t>105</t>
   </si>
   <si>
-    <t xml:space="preserve">Würfel, Quader und Pyramiden kannst du selbst mithilfe pas sender Netze leicht herstellen. Das funktioniert auch noch bei Zylindern und Kegeln, hier sind die Netze etwas komplizierter. Für die Kugel gibt es kein Netz. Dies wird dir schnell klar, wenn du eine Apfelsine schälst und die Schale flach ausbreiten willst. Probiere es aus. a) Forme eine Kugel aus Knete (im Winter aus Schnee). Geschicktes Formen mit der Hand und Rollen auf flacher Unterlage führt zu recht guten Ergebnissen. b) Sehr schöne Kugeln kannst du mit Seifenblasen herstellen. Leider haben sie nur eine ganz kurze Lebensdauer. </t>
-  </si>
-  <si>
     <t>106</t>
   </si>
   <si>
-    <t xml:space="preserve">Hier sind zwei Bastelanleitungen für „Windbälle", die wie Kugeln rollen. Du musst aller- dings sehr sorgfältig arbeiten. Es reicht, wenn du einen Typ selbst bastelst, den anderen kannst du dir dann bei deinem Nachbarn anschauen. Windball aus Kreisringen Windball aus Kreisscheiben 2. 3. Fünf gleich lange Streifen (16 cm lang, 5 mm breit) aus Tonkarton ausschneiden. An jedem Streifen eine 2 cm breite Klebelasche markieren. Die Streifen zu Kreisen zusammenkleben. Vier kreisförmige Streifen übereinander- schieben und an den „Polstellen" zusammen- kleben. Den fünften Kreis als „Äquator" zur Stabilisierung drüberschieben. 2. 3. 4. 5. 2 cm o 14 cm 5 mm Acht gle•ch große Kreisscheiben aus onkarton ausschneiden. Kreis zweimal falten und wieder auffalten. Eine Faltkante bis zur Mitte einschneiden, die anderen nur anritzen. Zu einer Ecke zusammenfalten und kleben. Die acht Ecken wie im Bild aneinanderkleben. o </t>
-  </si>
-  <si>
     <t>107</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne mit dem Zirkel einen Kreis mit dem Radius 5 cm um den Punkt P. 1. Radius r = 5 cm am Lineal abgreifen 2. Metallspitze in P einstechen 3. Zirkel oben mit Daumen und Zeigefinger greifen 4. Bleispitze vorsichtig aufsetzen, Zirkel zwischen den Fingern abrollen und mit leichtem Druck den Kreis zeichnen </t>
-  </si>
-  <si>
     <t>108</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn man eine Kugel glatt (eben) durchschneidet, so entstehen kreisförmige Schnittflächen. Der Radius des Schnittkreises ist am größten, wenn der Schnitt durch den Mittelpunkt der Kugel geht. Der Durchmesser des Schnittkreises ist in diesem Fall so groß wie der Durchmesser der Kugel. </t>
-  </si>
-  <si>
     <t>109</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne ein Quadrat mit der Seitenlänge 4 cm. a) Zeichne einen Kreis, der genau in das Quadrat passt. Wo liegt der Mittelpunkt, wie groß ist der Radius? b) Zeichne einen Kreis, in den das Quadrat genau hinein passt. Miss den Durchmesser des Kreises. </t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
-    <t xml:space="preserve">Im Deckel einer Kiste ist ein kreisförmiges Loch mit 6 cm Durchmesser. Welche der folgenden Bausteine passen durch dieses Loch? Do 00 a = 6 cm 3 cm 7 cm 3 cm a— 6 cm </t>
-  </si>
-  <si>
     <t>111</t>
   </si>
   <si>
-    <t xml:space="preserve">Bestimme möglichst genau den Durchmesser einer 1 -Euro-Münze und eines Tischtennis- balls. In den Abbildungen sind zwei mögliche Messmethoden skizziert. Findest du noch andere Methoden? </t>
-  </si>
-  <si>
     <t>112</t>
   </si>
   <si>
-    <t xml:space="preserve">Im Wettkampfsport gibt es neben festgelegten Regeln auch Normen für die verwen- deten Spielgeräte. So muss die Größe der Bälle innerhalb bestimmter Grenzen liegen. Prüfe nach, ob die Bälle in eurem Schulsport den Vorschriften entsprechen. Durchmesser Basketball Fußball andball ¯ «v Volleyball TenniS -tischtenn dmin (in cm) d (in cm) 23,9 24,8 21 22,6 (Jugend) 17,8 20,7 21 6,7 3,7 3,8 </t>
-  </si>
-  <si>
     <t>113</t>
   </si>
   <si>
@@ -451,345 +391,174 @@
     <t>114</t>
   </si>
   <si>
-    <t xml:space="preserve">Schau dir einmal genau an, welche Wellen ein Wassertropfen verursacht, wenn er auf eine glatte Wasseroberfläche trifft. Die Wellen breiten sich in Kreisen nach außen aus. Solche Kreise mit gleichem Mittel- punkt nennt man „konzentrische" Kreise. Zeichne mit dem Zirkel konzentrische Kreise mitr — 1 cm, 2 cm, 3 cm, in dein Heft. Welchen Durchmesser hat ein Kreis, der gerade noch auf ein DIN-A4-Blatt passt? Wo musst du den Mittelpunkt wählen, damit der Durchmesser möglichst groß Wird? </t>
-  </si>
-  <si>
     <t>115</t>
   </si>
   <si>
-    <t xml:space="preserve">Viele „runde" Früchte wie pfel, Tomaten, Apfelsinen, Zitronen, Kürbisse u.a. wei- chen ein wenig von der idealen Kugelform ab. Beschreibe diese Abweichungen mit deinen eigenen Worten. Welche Frucht kommt der Kugelform am nächsten? </t>
-  </si>
-  <si>
     <t>116</t>
   </si>
   <si>
-    <t xml:space="preserve">In deiner Umgebung findest du zahlreiche Formen, die rund sind, aber nicht die ide- ale Form eines Kreises oder einer Kugel aufweisen. Ist der Kreis eine Ellipse? Was unterscheidet den Kreis von der Ellipse? Gibt es kugelförmige Vogeleier? Warum ist ein Regentropfen keine Kugel? Finde weitere Formen, die rund sind, aber keine Kreise oder Kugeln sind. Ellipse Linse Reuleauxsches Dreieck 13 Kreise im Koordinatensystem Football Regentropfen Walnuss Ei Tennisschläger Zeichne die Punkte in ein Koordinatensystem in dein Heft: A (211), B (512), C (812), D (815), E (819), F (617), G (1 18), H (314). a) Zeichne durch jeden Punkt einen Kreis mit dem Mittelpunkt in M (515). Miss die Radien der verschiedenen Kreise. b) Ordne die Punkte nach ihrer Entfernung zum Punkt M. Gibt es verschiedene Punkte mit gleicher Entfernung zu M? </t>
-  </si>
-  <si>
     <t>117</t>
   </si>
   <si>
-    <t xml:space="preserve">Forme aus Knete eine Kugel. Wenn du die Kugel glatt (eben) durchschneidest, so entstehen kreisförmige Schnittflächen. Wie musst du schneiden, damit der Schnittkreis am größten ist? Wie groß ist dann der Durchmesser des Schnittkreises? </t>
-  </si>
-  <si>
     <t>118</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne einen Kreis auf Pappe, indem du eine Dose oder einen Teller mit dem Bleistift umfährst. Schneide diesen Kreis dann möglichst exakt aus. Wo liegt nun genau der Mittelpunkt? Versuche es mit den folgenden Methoden. Mess- und Probiermethode: Zirkel ansetzen und probieren oder mit dem Lineal eine längste Sehne (Durch- messer) zeichnen und dann halbieren. Faltmethode: Kreis zweimal falten und wieder auffalten. Die Faltlinien verraten den Mittelpunkt. Rechteckmethode: Eine Ecke des Rechtecks genau auf einen Punkt des Kreises legen. Schnittpunkte der beiden Rechteckseiten mit dem Kreis markieren und dann durch eine Sehne ver binden. Das Verfahren an einem anderen Kreispunkt wiederholen. (opfübungen 1. Gib mit Ziffern an: das Doppelte von 5050. 2. Welche Aussage stimmt? Es gibt Dreiecke, in denen Seiten zueinander (1) parallel (2) senkrecht sind. 3. Der afrikanische Goliathfrosch ist ein Weithüpfer: Bei einer Körperlänge von 30 cm legt er fast 17ma1 so lange Sprünge hin. Wie weit springt ein Goliathfrosch? 4. Erkennst du das Ergebnis auf einen Blick? Berechne: b) 138+97+103 a) 8 + 5400 + 8+8 + 8 + 8 5. An welchen geometrischen Körper erinnert dich ein Indianerzelt? 6. Entscheide, welche Antwort zutriffi: In Nordrhein-Westfalen regnet es .. (1) nie (2) selten (3) häufig (4) immer 7. Für das gemeinsame Frühstück möchten 32 Schülerinnen und Schüler und zwei }aassen- lehrer der 6 c belegte Brötchen zubereiten. Pro Person ist mit 2 oder 3 belegten Brötchen Schätze, wie viele belegte Brötchen mindestens bzw. höchstens bestellt werden müssen. </t>
-  </si>
-  <si>
     <t>119</t>
   </si>
   <si>
-    <t xml:space="preserve">Mit den obigen Informationen über die Erde und deinen geometrischen Kenntnissen über Kugeln und Kreise kannst du die Fragen beantworten. Wie viele Längenkreise gehen durch einen Punkt auf der Erdoberfläche? Wie viele Breitenkreise gehen durch einen Punkt auf der Erdoberfläche? </t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
-    <t xml:space="preserve">und Durchmesser Der Umfang des Äquators ist un- gefähr dreimal so groß wie dessen Durchmesser. Gilt dies auch für andere Kreise? Experimentiere mit verschiedenen Kreisen (z. B. an Dosen, Tellern, Eimern, ...) durch Abmessen der beiden Größen mit einer Schnur. </t>
-  </si>
-  <si>
     <t>121</t>
   </si>
   <si>
-    <t xml:space="preserve">In der Architektur findest du viele Formen mit Kreisen und Kreisbögen. Zu den beiden Fotos ist jeweils eine Konstruktionsskizze angegeben. Zeichne mithilfe dieser Skizzen einen möglichst exakten Plan auf ein unliniertes DIN-A4-Blatt. Vielleicht findest du in deiner Umgebung noch andere Bauformen mit Kreisen, zu denen du einen Plan zeichnen und ausgestalten kannst. a) Fenster im Friesenhaus Maßstab 1 m 22 cm b) Drususbrücke in Bingen/Rhein 12 m Maßstab 1 me c </t>
-  </si>
-  <si>
     <t>122</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne das Kreismuster mit sieben gleich großen Kreisen (r — 3 cm) in dein Heft. Die Mittelpunkte der äußeren Kreise liegen in gleichen Abständen auf dem inneren Kreis. Kennzeichne die abgebildeten Teilfiguren in dem Kreismuster. </t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
-    <t xml:space="preserve">Mit dem Kreismuster aus Aufgabe 2 kannst du viele interessante Muster zeichnen. Du musst dazu nur bestimmte Kreislinien dick nachzeichnen und andere wegradieren. a) „Blütenmuster" b) „Ventilatoren" 0 </t>
-  </si>
-  <si>
     <t>124</t>
   </si>
   <si>
-    <t xml:space="preserve">Auch die folgenden regelmäßigen Vielecke kannst du mithilfe des Kreismusters aus Aufgabe 2 zeichnen. Du musst hierzu jeweils bestimmte Schnittpunkte durch Strecken miteinander verbinden. </t>
-  </si>
-  <si>
     <t>125</t>
   </si>
   <si>
-    <t xml:space="preserve">regelmäßigen Sechsecks Kreis mit Radius r. Zirkel auf dem Kreis ein- stechen und sechsmal den Radius abtragen. Benachbarte Schnittpunkte durch Strecken verbinden. a = 4 cm). Erfinde selbst eschmack aus. </t>
-  </si>
-  <si>
     <t>126</t>
   </si>
   <si>
-    <t xml:space="preserve">Konstruiere ein gleichseitiges Dreieck mit der Seitenlänge a = 4 cm. a) Zeichne dann jeweils drei gleich große Kreise um die Eckpunkte des Dreiecks mit dem Radius r, = 4 cm (r2=3 cm, rs=2 cm, r, = 1 cm). b) Bestimme jeweils die Anzahl der Schnittpunkte der Kreise miteinander. c) Zeichne farbig die Bereiche ein, die jeweils von zwei (drei) Kreisen überdeckt werden. Im gleichseitigen Dreieck sind alle drei Seiten gleich lang. </t>
-  </si>
-  <si>
     <t>127</t>
   </si>
   <si>
-    <t xml:space="preserve">Aus den Konstruktionen in bung 6 kannst du die fo genden Muster gewinnen. Zeichne sie auf unliniertes Papier und male sie nach deinem Geschmack farbig aus. Möndchen Zeichne einen Halbkreis über der Strecke AB (4 cm). Kennzeichne einen beliebigen Punkt C auf dem Halbkreis und zeichne das Dreieck ABC. Mit zwei Halbkreisen über AC und BC erhältst du dann die sogenannten „Möndchen des Hippokrates". Wie ändern sich diese Mönd chen, wenn der Punkt C auf dem Halbkreis von A nach B wandert? Beschreibe. Kopfübungen 1. Gib den Vorgänger der dargestellten Zahl mit Ziffern an. 2. Wie viele kleine Quadrate (2 cm Seitenlänge) braucht man zum Auslegen eines großen Rechtecks (4 cm • 10 cm)? 3. Vergleiche. Setze &gt; oder &lt; oder = ein. a) 61 lan u 6050 m b) 0,1 lan 100 m 4. Berechne geschickt: 27 + 29 + 25 + 13 + 15 + 11 c 5. Beschreibe die geometrische Form: a) gewöhnlicher Kleiderschrank b) gewöhnliche Seifenblase 6. Entscheide, ob es sich um ein zufälliges Ereignis handelt: a) Wird der Schütze beim Strafstoß das Tor treffen? b) Der Kaffee wird sich abkühlen. 7. Drei Studenten wohnen in einer Wohngemeinschaft und zahlen zusammen 654 € Ntiete monatlich. Wie viel Geld zahlt jeder Student? </t>
-  </si>
-  <si>
     <t>128</t>
   </si>
   <si>
-    <t xml:space="preserve">a) Zeichne die Grundfigur ins Heft. Achte ge- nau auf die Lage der Punkte A, B, C, D, E auf den Gitterlinien. b) Die Muster unten entstanden aus der Grundfigur. Welche Linien musste man wegradieren oder ergänzen? Zeichne die Muster ab und male sie aus. A B c D E c) Auf unliniertem Papier wirken die Muster besonders schön. Wenn du mit der Hilfs- strecke ÄÉ (6 cm) beginnst, gelingt dir bestimmt auch der Rest. </t>
-  </si>
-  <si>
     <t>129</t>
   </si>
   <si>
-    <t xml:space="preserve">In gotischen Kirchen und auch in alten Rathäusern findet man oft Fenster, die kunstvoll durch Kreise in Kreisen ausgestaltet sind. Je nach der Zahl der inneren Kreise nennt man solche Formen Dreipass, Vierpass, Sechspass usw. Mit den folgenden Konstruktionszeich- nungen kannst du selbst solche Fenster entwerfen. 500 Dreipass Vierpass Sechspass </t>
-  </si>
-  <si>
     <t>130</t>
   </si>
   <si>
-    <t xml:space="preserve">Man kann die Kreise im Kreis auch so verbinden, dass sogenannte „Fischblasen" ent- stehen. Auf dem Foto siehst du ein Kirchenfenster mit sechs Fischblasen. Für zwei und vier Fischblasen findest du Konstruktionszeichnungen. Zeichne sie nach. </t>
-  </si>
-  <si>
     <t>131</t>
   </si>
   <si>
-    <t xml:space="preserve">a) Flugzeuge starten und landen unter einem bestimmten Steigungswinkel. Was passiert, wenn der Steigungs- winkel zu flach oder zu steil ist? c) Zwei Straßen kreuzen sich unter einem bestimmten Kreuzungswinkel. Wer hat Vorfahrt? Wie ist es bei einer rechtwinkligen Straßenkreuzung? b) Schutzdeiche werden unter bestimm ten Böschungswinkeln gebaut. Warum sind die Böschungswinkel zur Meeresseite flacher als zur Landseite? d) Richtungsänderungen von Schiffen werden durch Bewegung der Kom- passnadel um einen bestimmten Drehwinkel angezeigt. Welchen Winkel überstreicht die Kom- passnadel bei einer Richtungsänderung von Nord nach Nordwest? Zeichne. </t>
-  </si>
-  <si>
     <t>132</t>
   </si>
   <si>
-    <t xml:space="preserve">Welche Bedeutung haben die Winkel in den folgenden Situationen? Zeichne Skizzen mit verschiedenen sinnvollen Winkeln. a) Neigungswinkel am Dach b) Schusswinkel beim Fußball c) Abstoßwinkel beim Kugelstoßen Finde weitere Beispiele aus dem Alltag, bei denen Winkel vorkommen. Suche jeweils Bilder dazu oder fertige eine Skizze an. </t>
-  </si>
-  <si>
     <t>133</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Schräge von Dächern wird durch den „Neigungswinkel" des Daches genau be- schrieben. a) Welche Bedeutung hat der Neigungswinkel für die Bewohner des Hauses? b) Der Zimmermann muss beim Bau des Dachstuhls genau den Neigungswinkel des Daches kennen. flaches Satteldach normales Satteldach Übertrage die verschiedenen Neigungswinkel mithilfe von Transparentpapier auf Pappe und schneide sie aus. Zeichne damit die drei Giebelformen in dein Heft. Die Breite des Giebels soll jeweils 8 cm betragen. c) Schneide aus Pappe auch die drei „Öffnungs- winkel" an der Giebelspitze aus und vergleiche sie miteinander. Zu welchem Neigungswinkel gehört der größte Öffnungswinkel? steiles Satteldach 8 cm Öffnungs- winkel </t>
-  </si>
-  <si>
     <t>134</t>
   </si>
   <si>
-    <t xml:space="preserve">Der große Zeiger einer Uhr überstreicht in 20 Minu- ten den farbig gekennzeichneten Winkel. a) Zeichne mehrere Uhren-Zifferblätter in dein Heft und kennzeichne jeweils den Winkel, den der große Zeiger in 10 (25, 35, 40, 50) Minuten über- streicht. Vergleiche deine Bilder mit denen deiner Tischnachbarn. Was ist gleich, worin unterscheiden sie sich? b) Welche Zeitspanne hat der große Zeiger bei den farbig eingezeichneten Winkeln überschritten? (1) (2) (3) a 12 11 : 10 7 6 (4) b c) Kannst du jeweils eine Uhrzeit an- geben, bei der der Winkel zwischen dem großen und dem kleinen Zeiger gleich groß ist zu den gezeichneten Winkeln? Gibt es mehrere Lösungen? c </t>
-  </si>
-  <si>
     <t>135</t>
   </si>
   <si>
-    <t xml:space="preserve">s a Der Winkel a entsteht durch Drehung der Halb geraden a. </t>
-  </si>
-  <si>
     <t>136</t>
   </si>
   <si>
-    <t xml:space="preserve">Welche Bedeutung haben die Winkel? Finde passende Nannen. NW sw NO so </t>
-  </si>
-  <si>
     <t>137</t>
   </si>
   <si>
-    <t xml:space="preserve">Vergleiche die Winkel. Was stellst du fest? b) </t>
-  </si>
-  <si>
     <t>138</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne die folgenden Figuren in dein Heft und vergleiche dann jeweils die angegebe- nen Winkel. Winkeltypen Winkel werden in verschiedene Typen eingeteilt: spitzer Winkel rechter Winkel stumpfer Winkel Vollwinkel gestreckter Winkel überstumpfer Winkel </t>
-  </si>
-  <si>
     <t>139</t>
   </si>
   <si>
-    <t xml:space="preserve">Gib für die folgenden Winkel den Typ an. a) b) d) Sehwinkel eines Frosches Steigungswinkel einer Straße </t>
-  </si>
-  <si>
     <t>140</t>
   </si>
   <si>
-    <t xml:space="preserve">a) Zerschneide ein Quadrat längs der Dia gonalen in zwei Dreiecke. Vergleiche die Winkel a und ß. b) Setze die drei Winkel eines gleichsei- tigen Dreiecks aneinander. Welchen Winkel erhältst du? </t>
-  </si>
-  <si>
     <t>141</t>
   </si>
   <si>
-    <t xml:space="preserve">Durch Falten kannst du einen Winkel halbieren. Du musst so falten, dass die beiden Schenkel zur Deckung kommen. Halbiere auf diese Weise s a) einen rechten Winkel, b) einen Winkel in einem Dreieck. s </t>
-  </si>
-  <si>
     <t>142</t>
   </si>
   <si>
-    <t xml:space="preserve">In dein Heft. a) Verdopple den Winkel a. b) Verdreifache den Winkel ß. c) Vervierfache den Winkel Y. Kopfübungen s" Zeichne einen Kreis um den Scheitel. Markiere die Schnittpunkte A und B des Kreises mit den beiden Schenkeln. Trage die Zirkelweite AB von B aus nach links mehrmals auf dem Kreis ab. Zeichne die Schenkel SC (SD, SE). z 1. 2. 4. 5. Notiere die dargestellte Zahl mit Ziffern und als Zerlegungsaufgabe: 4 • 1000 + Wie viele kleine Rechtecke (1 cm • 3 cm) braucht man zum Auslegen eines großen Rechtecks (3 cm • 9 cm)? 3. Es ist 9.33 Uhr. Der Zug fährt um 10.03 ab. Wie lange muss man noch warten? Erkennst du das Ergebnis auf einen Blick? Berechne: a) 338. 125 • 8. 125-8 b) 50000:250 Ein Kegel wird durch genau einen ebenen Schnitt geteilt. Welche Antwort trifft zu? Die Schnittfläche kann (1) ein Dreieck (2) ein Rechteck (3) ein Kreis sein. 6. Entscheide, welche Antwort zutriffi: In Nordrhein-Westfalen schneit es (1) nie (2) selten (3) häufig (4) immer 7. Bei dem Verkauf der Bastelartikel wurden 810 € erwirtschaftet. Dieses Geld soll zu gleichen Teilen an drei Tierheime verteilt werden. Wie viel Geld erhält jedes Tierheim? </t>
-  </si>
-  <si>
     <t>143</t>
   </si>
   <si>
-    <t xml:space="preserve">In den Bildfolgen sind jeweils einige Momentaufnahmen eines Turmspringers beim Sprung festgehalten. „Klappmessersprung" Schreibe für jede Position den Typ des Winkels auf. a) Klappmessersprung: Zwischen Arme und Oberkörper, • Oberkörper und Beine. b) Kopfsprung rückwärts: Zwischen Oberkörper und Arme, Beine und Oberkörper. Schreibe eine kurze Reportage des Sprung- ablaufs, in dem Begriffe wie rechter Winkel, stumpfer (spitzer) Winkel und gestreckter Winkel benutzt werden. „Kopfsprung rückwärts" </t>
-  </si>
-  <si>
     <t>144</t>
   </si>
   <si>
-    <t xml:space="preserve">Im Muster der Haut einer Giraffe findest du verschiedene Winkel. • Benenne die eingezeichneten Winkeltypen. Lege eine Folie über das Foto und zeichne je zwei weitere Beispiele für spitze, stump- fe, überstumpfe Winkel. • Findest du auch Winkel, die ungefähr einem rechten (gestreckten) Winkel entspre- chen? • Versuche, Winkelpaare zu finden, bei denen ein Winkel ungefähr das Doppelte (das Dreifache) des anderen Winkels ist. </t>
-  </si>
-  <si>
     <t>145</t>
   </si>
   <si>
-    <t xml:space="preserve">Mit einer leicht herstellbaren „Winkeldrehscheibe" kannst du eine gute Vorstellung über Winkelgrößen gewinnen. Bauanleitung: 1. Zeichne zwei Kreise mit dem Radius 5 cm auf verschiedenfarbigen Tonkarton und schneide sie aus. 2. Schneide beide Kreise längs eines Radius ein und stecke sie ineinander. Durch Drehen der gelben Scheibe kannst du nun Winkel verschiedener Größe einstellen. a) Stelle einen Winkel ein und lasse deinen Partner den Winkeltyp bestimmen. b) Stelle auf deiner Winkeldrehscheibe ein: einen rechten Winkel, • einen gestreckten Winkel, • den Winkel zwischen Seite und Diagonale eines Quadrats, den Winkel eines gleichseitigen Dreiecks, den doppelten Winkel eines gleichseitigen Dreiecks. Markiere die Winkel am Rand der blauen Scheibe. </t>
-  </si>
-  <si>
     <t>146</t>
   </si>
   <si>
-    <t xml:space="preserve">Winkel werden in Grad gemessen. Ein rechter Winkel hat 900, ein gestreckter Winkel 1 800 und der Vollwinkel 3600. Im Bild ist der rechte Winkel in sechs gleich große Winkel geteilt. a) Kopiere die Vorlage viermal und klebe die ausgeschnittenen Viertelkreise auf die blaue Scheibe deiner Winkeldreh scheibe. Beachte: Den ersten Schenkel genau an den eingeschnittenen Radius anlegen. Beschrifte die Markierungen nun mit 00, 150, 300 usw. bis 3450, 3600. b) Stelle nun die Winkel der Größen 300, 450, 600, 1200, 1950, 2700 und 3300 ein. c) Stelle folgende Winkelgrößen ungefähr ein: 100, 550, 1000, 1700, 2500, 302 </t>
-  </si>
-  <si>
     <t>147</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn du auf deiner Winkeldrehscheibe mit- hilfe der Skala einen blauen Winkel bestimm- ter Größe einstellst, so erscheint der gleiche Winkel ohne Skala auf der Rückseite in Gelb. In Partnerarbeit lässt sich damit das Schät- zen von Winkelgrößen trainieren: Ein Partner stellt mit der Skala einen blauen Winkel ein, der andere sieht nur den gelben Winkel auf der Rückseite und schätzt dessen Größe. Wechselt euch ab. Für jeden „Treffer" gibt es einen Punkt. </t>
-  </si>
-  <si>
     <t>148</t>
   </si>
   <si>
-    <t xml:space="preserve">a) Schau dir die „Halbkreisskala" auf deinem Geodreieck genau an. Wie viele Teilstriche findest du darauf? Wo findest du Winkel von 900 und von 450? Welcher Zusammenhang besteht zwi- schen der Skala auf dem Halbkreis und den Skalen auf den Seiten des Geo- dreiecks? Fällt dir noch mehr auf? b) In dem Bild werden die Winkel a und ß gemessen. Beschreibe, wie das Geo- dreieck an den Winkel angelegt wird. Wie groß sind die Winkel a und ß? c) Miss mit dem Geodreieck die Winkel y und 6. Übertrage dazu die Winkel in dein Heft und verlängere die Schenkel. </t>
-  </si>
-  <si>
     <t>149</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Bildfolge zeigt dir, wie man einen Winkel von 400 zeichnet. Schenkel zeichnen Geodreieck anlegen, Punkt B beim Skolenwert 400 morkieren Schenkel durch S und 8 zeichnen, Winkel kennzeichnen a) Zeichne auf diese Weise Winkel von 350, 600, 850, 1300 und 1 600 b) Kannst du mit dem Geodreieck auch einen Winkel von 2300 zeichnen? Beschreibe dein Vorgehen. </t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
-    <t xml:space="preserve">Miss den Steigungswinkel der Zahnradbahn. Lösung: Der Steigungswinkel beträgt 250 </t>
-  </si>
-  <si>
     <t>151</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne einen überstumpfen Winkel von 3100. Lösungsmöglichkeiten: a) Zeichne einen gestreckten Winkel von 1800 und ergänze ihn um einen Winkel von 1300. 310 1300 b) Zeichne einen Winkel von 3600 (Voll- kreis) minus 3100, also von 500. 310' </t>
-  </si>
-  <si>
     <t>152</t>
   </si>
   <si>
-    <t xml:space="preserve">Konstruiere den Giebel eines Satteldaches mit 380 Neigungswinkel. 380 380 10 cm </t>
-  </si>
-  <si>
     <t>153</t>
   </si>
   <si>
-    <t xml:space="preserve">Schätze zuerst die Größe der Winkel. Miss dann mit dem Geodreieck. </t>
-  </si>
-  <si>
     <t>154</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne die folgenden Winkel in dein Heft. Bestimme auch immer den Winkeltyp. a) a- 660, ß- 1250, 320, b) a = 60, ß- 2450, Y- 1950, 6- 3250 </t>
-  </si>
-  <si>
     <t>155</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne ein Dreieck mit den Winkeln a und ß und der Seitenlänge c = 10 cm. a) a- 300, ß = 600 b) a = 400, ß = 700 c) a — 200, ß- 1000 Miss jeweils die Größe des Winkels y. </t>
-  </si>
-  <si>
     <t>156</t>
   </si>
   <si>
-    <t xml:space="preserve">Das genaue Zeichnen von Winkeln kostet Zeit. Hier ist eine Methode, mit der es viel- leicht schneller geht. Probiere es mit 1200 aus und zeichne dann auf diese Weise Winkel von 350, 1350 und 2350. 1200 10 Spiel — schätzen und messen Fertige von dem Bild rechts eine vergrö- Berte Fotokopie an (DIN A5). Suche dir ei- ne Scheibe aus. Schätze ihren Winkel zum Schenkel a. Zeichne dann den geschätz- ten Winkel. Wenn du gut geschätzt hast, so trifft der Schenkel die Scheibe. Mehr Spaß macht es mit einem Spielpart- ner. Für einen Treffer ins Schwarze gibt es drei Punkte, für den offenen Ring einen Punkt. </t>
-  </si>
-  <si>
     <t>157</t>
   </si>
   <si>
-    <t xml:space="preserve">Wie gro Sin Mitte pun tswln e un Innenwinkel beim regelmäßigen Fünfeck? Kannst du mithilfe des Mittelpunktswin- kels ein regelmäßiges Fünfeck konstruie- ren? Beschreibe deine Methode. l} </t>
-  </si>
-  <si>
     <t>158</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne eine Kompassrose, die 16 ver schiedene Himmelsrichtungen festlegt. N = Nord, NO — Nordost, NNW = Nordnordwest, a) Wie groß ist der Winkel zwischen N und W, O und NO, N und NNW? b) Übertrage die Tabelle in dein Heft und o 0% fülle sie aus. Winkel zwischeRll Winkelgröße Winkelart o, NO NW,SW NNO, N 450 spitz NO, S s SO, O NNW, O o, so NNO, O </t>
-  </si>
-  <si>
     <t>159</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Fotos zeigen die Giebel von Mansardendächern. Schätze die Größe der Neigungs winkel der Dachflächen und der Öffnungswinkel am Dachfirst. Miss dann genau nach und zeichne die Giebel vergrößert in dein Heft. </t>
-  </si>
-  <si>
     <t>160</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Bruc e „Ponte e a Ma a ena in der nördlichen Toskana fällt auf durch ihren sogenannten „Esels- bogenrücken". Bestimme die Stei- gungswinkel der Brückenauffahrten. Wie groß ist der Winkel am höchsten Punkt der Brücke? Zeichne ein ver- größertes Bild der Brücke in dein Heft. </t>
-  </si>
-  <si>
     <t>161</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist der Winkel zwischen den Skiern das Er- folgsgeheimnis der Skispringer? Wie groß ist er bei diesem Springer? Welche weite ren Winkel beeinflussen einen Sprung? </t>
-  </si>
-  <si>
     <t>162</t>
   </si>
   <si>
-    <t xml:space="preserve">Vogelschwärme bilden eine aerodynamische Formation, bei der sich die Vögel an der Spitze ständig abwechseln. Sie fliegen im Windschatten des vorausfliegenden Vogels, um so auf langen Flügen Kraft zu sparen. Welchen Winkel bilden die unterschiedlichen Vögel in ihrer Formation? 4- SchneegOnse auf Wanderung Store im An/lug auf eine Wasserstelle Kanadagänse bei der Zwischenlandung Ziehende Kraniche Informiere dich über die Flugformationen von Vögeln. </t>
-  </si>
-  <si>
     <t>163</t>
   </si>
   <si>
-    <t xml:space="preserve">Dreigung Oder as Gefälle von Straßen an. 5 % Steigung bedeutet: Auf 100 m steigt die Straße um 5 m an. a) Wie groß ist der Steigungswinkel bei 5 % Steigung? Zeichne eine maßstäbliche Skizze in dein Heft und miss den Steigungswinkel. b) Welcher Steigungswinkel entspricht 7 % (Auffahrt im Mittelgebirge), 15 % (steile Passstraße im Hochgebirge), 48 % (Zahnradbahn „Pilatus", Schweiz). c) Welcher Winkel würde 100 % Steigung entsprechen? Du kannst dir selbst aus Pappe ein Messgerät für Steigungswinkel her- stellen. Die Schnur mit dem Gewicht stellt sich immer lotrecht ein. Probiere es an einem schiefen Brett aus. (opfübungen 100 m Pilatus bahn . Nenne alle möglichen Zahlen, die durch Hinzufügen eines Plättchens zur Stellenwerttafel aus der dargestellten Zahl entstehen können. z . Zeichne ein Quadrat mit seinen Diagonalen. Markiere alle senkrechten und parallelen . Nico hat einen Termin in der Fahrradwerkstatt um 16.15 Uhr. Er braucht etwa 20 Minuten für die Fahrt. Wann sollte er spätestens losfahren? . Erkennst du das Ergebnis auf einen Blick? Berechne: a) 937 + 20+20+20 +20 +20 b) 444- 111 - 111 . Wie viele Flächen, Kanten und Ecken besitzt ein Quader? . Was ist bei der Darstellung von Daten in Balkendiagrammen sinnvoll: (I) Überschrift (2) Achsenbeschriftung (3) viele Smileys . Beim Kistenklettern möchte man den höchsten Turm mit Kisten bauen und sie dabei erklettern. Welche Höhe kann mit zwanzig 350 mm hohen Kisten erreicht werden? </t>
-  </si>
-  <si>
     <t>164</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Segelyacht „Elsa" gerät beim Sturm in Seenot. ber SOS — Dringend Hilfe — Funk fordert der Skipper Hilfe an. Suche in deinem Atlas Position 600 Nord 270 Ost oder auf dem Globus die ungefähre Position der Segel- yacht. </t>
-  </si>
-  <si>
     <t>165</t>
   </si>
   <si>
-    <t xml:space="preserve">Knut Hansen funkt seinen Standort: 900 nördliche Breite/ 1200 östliche Länge. Renato Delgado befindet sich zur selben Zeit 900 nördliche Breite/ 300 östliche Länge. Können sich die beiden sehen? </t>
-  </si>
-  <si>
     <t>166</t>
   </si>
   <si>
-    <t xml:space="preserve">Warum gibt man bei den Koordinaten die Winkel der Längenhalbkreise und nicht die der Längenkreise an? Lege mit einer Schnur auf einem Globus einen Längenkreis, der durch Deutschland geht. Welche Winkel sind möglich? Welcher Winkel gehört zu dem jeweiligen Längenhalbkreis auf der anderen Seite der Erdkugel? </t>
-  </si>
-  <si>
     <t>167</t>
   </si>
   <si>
-    <t xml:space="preserve">In Frankfurt ist der Rettungshub- schrauber „Christoph 2" stationiert, der alle Orte bis zu einer Entfernung von 50 km anfliegen kann. Bestimme auf der Karte alle Orte, die im Einsatz- bereich des Hubschraubers liegen. Bad Marpurg . Hersfeld Giepen. • Fylda Koblenz Frankfurt Wiesbaden. Bitbærg Mainz am Main Trier Mörbach Darmstadt Kaiserslauterh L mgshafen </t>
-  </si>
-  <si>
     <t>168</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne in ein Koordinatensystem die Punkte A (015), B (81 1 ), C (1015) und D (918) ein. a) Zeichne einen Kreis, der durch diese vier Punkte geht. Gib die Koordinaten des Mittelpunktes an. Wie groß ist der Radius des b) Zeichne nun E (5110) und F (1 12) ein. Ist die Strecke EF eine Sehne des Kreises? Miss die Länge der Strecke EF und verglei- che mit dem Durchmesser des Kreises. </t>
-  </si>
-  <si>
     <t>169</t>
   </si>
   <si>
-    <t xml:space="preserve">wahr? Begründe, ohne zu messen. a) Die Strecke AB ist ein Radius des Kreises. b) Die Strecke DE ist kürzer als die Strecke AB. c) Die Strecke FC ist genau halb so lang wie AB. c </t>
-  </si>
-  <si>
     <t>170</t>
   </si>
   <si>
-    <t xml:space="preserve">Eine Styroporkugel von 10 cm Durchmesser wird durch einen ebenen Schnitt in zwei Teile geteilt. Wie musst du schneiden, damit der Schnittkreis möglichst groß wird? Wie groß ist dann der Radius dieses Kreises? </t>
-  </si>
-  <si>
     <t>171</t>
   </si>
   <si>
@@ -799,75 +568,39 @@
     <t>172</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne die folgenden Bilder in dein Heft. Benutze dazu Zirkel und Lineal. </t>
-  </si>
-  <si>
     <t>173</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne Skizzen zu den folgenden Situationen, in denen Winkel vorkommen: a) Der Wurfsektor beim Kugelstoßen hat einen Winkel von 400. b) Der Schwenkbereich eines Ladekranes beträgt 1900. c) Der Neigungswinkel eines Satteldaches beträgt 380. d) Der Außenstürmer erzielte ein Tor aus ganz spitzem Winkel. </t>
-  </si>
-  <si>
     <t>174</t>
   </si>
   <si>
-    <t xml:space="preserve">Vergleiche die Sehwinkel der Tiere mit dem des Menschen. Mensch 1900 Hund 2500 Turmfalke 3000 Fertige jeweils eine Zeichnung an. Eule 1600 Krokodil 2950 </t>
-  </si>
-  <si>
     <t>175</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne jeweils einen Winkel der vorgegebenen Größe: a-450 ß-600 6=1450 E-3200 Gib für jeden Winkel den Typ an. </t>
-  </si>
-  <si>
     <t>176</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne eine Raute, bei der zwei Winkel jeweils 550 betra gen. Miss dann die Größen der bei- den anderen Winkel. </t>
-  </si>
-  <si>
     <t>177</t>
   </si>
   <si>
-    <t xml:space="preserve">Beschreibe an einem Beispiel, wie man mit dem Geodreieck einen überstumpfen Winkel zeichnet. </t>
-  </si>
-  <si>
     <t>178</t>
   </si>
   <si>
-    <t xml:space="preserve">Was vermutest du: Welcher der beiden rot gezeichneten Winkel ist größer? Schätze die Größen der beiden Winkel und miss dann nach. </t>
-  </si>
-  <si>
     <t>179</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne zwei Geraden a und b, die sich in einem Winkel a = 350 schneiden. Kannst du angeben, wie groß dann die Winkel ß, y und 6 sind? </t>
-  </si>
-  <si>
     <t>180</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne Kreise um einen Punkt M mit den Radien 2 cm, 3 cm, 4 cm und 5 crn. Färbe die entstehenden Ringe. Vier Kreise im Quadrat Zeichne die folgenden Muster in dein Heft und male sie farbig aus. In den Bildern (2) und (3) kannst du das innere Quadrat vergrößern oder verkleinern. Dann verändern sich auch die Radien der Kreise. Welche Bilder entstehen? 3 Schnittpunkte von Kreisen Zeichne zwei Kreise mit den Radien 3 cm und 4 cm, die a) sich in zwei Punkten schneiden, b) keinen Punkt gemeinsam haben, c) sich in genau einem Punkt berühren. Was lässt sich in jedem Fall über die Entfernung der beiden Mittelpunkte sagen? </t>
-  </si>
-  <si>
     <t>181</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeichne Winkel mit den Größen 300, 450, 500, 800, 1000, 1 750 und 2350. </t>
-  </si>
-  <si>
     <t>182</t>
   </si>
   <si>
-    <t xml:space="preserve">Schätze die Größe der folgenden Winkel und ordne sie der Größe nach. Übertrage die Winkel dann in dein Heft und miss die genauen Winkelgrößen. </t>
-  </si>
-  <si>
     <t>183</t>
   </si>
   <si>
-    <t xml:space="preserve">Übertrage die Tabelle in dein Heft und fülle die Lücken aus: Winkelart Winkelgröße spitz 00 &lt; a &lt; 900 rechter Winkel gestreckter Winkel überstumpfer Winkel Vollwinkel 900 1800 </t>
-  </si>
-  <si>
     <t>184</t>
   </si>
   <si>
@@ -883,15 +616,9 @@
     <t>186</t>
   </si>
   <si>
-    <t xml:space="preserve">a) Gibt es ein Dreieck mit einem rechten Winkel? b) Kann es ein Dreieck mit zwei rechten Winkeln geben? Begründe. c) We viele rechte Winkel kann es in einem Viereck geben? </t>
-  </si>
-  <si>
     <t>187</t>
   </si>
   <si>
-    <t xml:space="preserve">a) Um 10.30 Uhr bilden der große und der kleine Zeiger einer Uhr einen Winkel von 1350. Warum ist das so? b) Welche Winkel werden gebildet um 9.00 Uhr, um 16.30 Uhr und um 8.24 Uhr? 5. </t>
-  </si>
-  <si>
     <t>188</t>
   </si>
   <si>
@@ -901,21 +628,12 @@
     <t>189</t>
   </si>
   <si>
-    <t xml:space="preserve">Beim Handball dürfen die Spielerinnen und Spieler den Wurfkreis nicht betreten. Welche Wurfposition ist am günstigsten? Begründe anhand einer Skizze. </t>
-  </si>
-  <si>
     <t>190</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Schritte O @zeigen dir, wie man einen Winkel mit dem Zirkel halbieren kann. a) Halbiere auf diese Weise einen rechten Winkel und einen 600 großen Winkel. b) Beschreibe die Konstruktion mit Worten. </t>
-  </si>
-  <si>
     <t>191</t>
   </si>
   <si>
-    <t xml:space="preserve">Mit dem Radarsystem auf der Insel kön- nen alle Schiffe geortet werden, die nicht mehr als 50 km vom Sender entfernt sind. Welche der eingezeichneten Schiffe befin- den sich im Sendebereich? Gibt es Schiffe, die sich gerade an der Grenze befinden? Zeichne die Karte mit den Positionen der Schiffe in dein Heft und beantworte die Fragen mithilfe eines passenden Kreises. 10 km 5 07 3 2 </t>
-  </si>
-  <si>
     <t>192</t>
   </si>
   <si>
@@ -925,27 +643,15 @@
     <t>193</t>
   </si>
   <si>
-    <t xml:space="preserve">Versuche die olympischen Ringe zu konstruieren. Mit den Angaben in der Zeichnung rechts gelingt dir das bestimmt. Erkundige dich, wofür die Farben der olympischen Ringe stehen. C) (29 3 cm 3cm 3c 3 cm </t>
-  </si>
-  <si>
     <t>194</t>
   </si>
   <si>
-    <t xml:space="preserve">Zur Gewinnung von Windenergie werden Drehbewegungen genutzt. Durch regel mäßige Anordnungen der Windmühlen flügel wird eine gleichmäßige Kreisbewe- gung erzeugt. Entwirf verschiedene Windmühlenrotoren. </t>
-  </si>
-  <si>
     <t>195</t>
   </si>
   <si>
-    <t xml:space="preserve">Seit einer Stunde warteten wir bereits auf das Startsignal. Als unsere ganze Klas- se (24 Schülerinnen und Schüler, davon sind Mädchen) dann endlich losfuhr, war es schon halb neun. -li unserer Klasse hatte den Radhelm zu Hause vergessen und musste noch einmal zurück. Nach ungefähr der Strecke (Gesamtlänge der Tour 27 km) hatten wir dann unsere erste Reifenpanne. So ein Pech, gleich unserer Klasse war in die Glasscherben ei- ner unachtsam weggeworfenen Getränkeflasche gefahren.. So erreichten wir alle wohlbehalten das Ziel. Von meinen 2 Litern Früchtetee war nur noch übrig. Zwei Drittel der Schülerinnen und Schüler fanden, dass die Länge der Tour gerade richtig war. -Zi der Klasse gab an, es sei zu langsam gefahren worden. a) Übersetze alle Angaben im Text so, dass keine Brüche mehr auftauchen. Beispiel: Seit einer Stunde» Seit 45 Minuten b) Du hast gemerkt, dass der Mittelteil der Geschichte fehlt. Schreibe ihn auf und er- finde darin weitere „Bruchgeschichten". </t>
-  </si>
-  <si>
     <t>196</t>
   </si>
   <si>
-    <t xml:space="preserve">Manchmal sind Brüche auch versteckt. Zu jedem Bild gehört eine Zeile in der Tabelle. Jedoch sind die meisten Erklärungen verloren gegangen. Übertrage die Tabelle in dein Heft und fülle die Lücken. Ein hä Ibe} tzend 250} Eine dreiviertel Stunde r Angabe ohne Bruch L 6 Stück 50 mm2 750 ml Angabe mit Bruch Dutzend 5 3 4 3 stunde </t>
-  </si>
-  <si>
     <t>197</t>
   </si>
   <si>
@@ -955,21 +661,12 @@
     <t>198</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicole und Marius wollen Omas Waffelrezept ausprobieren, doch das Abmessen der Zutaten ist schwierig: Die Einteilung auf dem Messbecher zeigt nur Milliliter, die Waage nur Gramm. Waffelrezept kg Butter Eier kg Mehl Milch Esslöffel Zucker 1 Prise Satz 750 100 250 500 m! 1000 kg kg 500 100 a) Schreibe die Zutaten des Rezepts in g und me auf. Ist dies immer möglich? b) Notiere die markierten Gramm- und Milliliterangaben als Bruchteile. c) Entscheide mit der Skala des Messbechers, was mehr ist: e oder e. </t>
-  </si>
-  <si>
     <t>199</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Klasse 5 b der Hilbert-Schule hat gesammelt, wo Brüche in unserer Umwelt benutzt werden. Max und Laura fallen sofort zwei Bei- spiele ein: „Im Baumarkt gibt es Rohre mit Zoll Durchmesser." „Die Bushaltestelle ist ungefähr einen halben Kilometer entfernt". Finde auch für die anderen Situationen Beispiele und notiere sie im Heft. Zec </t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
-    <t xml:space="preserve">Donauwellen backt man auf rechteckigen Backblechen. Der Konditor hat den Kuchen in 10 gleich große Stücke vor- geschnitten. Ein Stück entspricht* (einem Zehntel) Kuchen. Lena kauft 7 Stücke. Es sind noch % des Kuchens übrig. </t>
-  </si>
-  <si>
     <t>201</t>
   </si>
   <si>
@@ -2419,456 +2116,225 @@
     <t xml:space="preserve">„Wie viel ist 30 durch ein Halb plus 10?" </t>
   </si>
   <si>
-    <t>443</t>
-  </si>
-  <si>
     <t xml:space="preserve">Berechne die Rechenausdrücke. Zeichne zu jedem Rechenaus- druck einen Rechenbaum. 3+1 2+1 e) 3+9 • 3.1 </t>
   </si>
   <si>
-    <t>444</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verteilen oder Zusammenfassen, was ist vorteilhafter? 3.1 </t>
   </si>
   <si>
-    <t>445</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gib das Ergebnis als gemischte Zahl an. 10 10 c) 42 + Du kannst die Aufgaben auf verschiedene Arten lösen. </t>
   </si>
   <si>
-    <t>446</t>
-  </si>
-  <si>
     <t xml:space="preserve">a) 22 d) 10s -2s +1 2+42 b) 9-2 </t>
   </si>
   <si>
-    <t>447</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gib das gekürzte Ergebnis an. 10 20 5 -L 28 4 </t>
   </si>
   <si>
-    <t>448</t>
-  </si>
-  <si>
     <t xml:space="preserve">In einem Zauberquadrat ist die Summe der 15 Zahlen in den Spalten, in den Zeilen und in den Diagonalen gleich. Ist das erste Quad- 10 rat ein Zauberquadrat? Ergänze das zweite Quadrat zu einem Zauberquadrat. 30 30 30 </t>
   </si>
   <si>
-    <t>449</t>
-  </si>
-  <si>
     <t xml:space="preserve">• 10 100 4 4 </t>
   </si>
   <si>
-    <t>450</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gib das gekürzte Ergebnis an. a) 4-14 b) 12 c) 3v 27 • 10 </t>
   </si>
   <si>
-    <t>451</t>
-  </si>
-  <si>
     <t xml:space="preserve">a) ä von a h b) von c) 76 von 2-5 m d) von 4äkg </t>
   </si>
   <si>
-    <t>452</t>
-  </si>
-  <si>
     <t xml:space="preserve">ertrage le Za enpyraml e In ein He . Trage In as Fe u er zwei Za en eren Produkt ein. Erreichst du die Spitze? Vergiss nicht, zu kürzen. a) 49 b) 20 </t>
   </si>
   <si>
-    <t>453</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zac ne le „Domino-Stane nac er o gen- den Regel in dein Heft: Ein Stein darf angelegt werden, wenn er mit ii ii äu ii dem Produkt der Zahlen auf dem vorhergehenden Stein beginnt. </t>
   </si>
   <si>
-    <t>454</t>
-  </si>
-  <si>
     <t xml:space="preserve">c 10 </t>
   </si>
   <si>
-    <t>455</t>
-  </si>
-  <si>
     <t xml:space="preserve">f) 3 18 </t>
   </si>
   <si>
-    <t>456</t>
-  </si>
-  <si>
     <t xml:space="preserve">.-Le Q;IA A </t>
   </si>
   <si>
-    <t>457</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beantworte die folgenden Fragen zunächst, ohne zu rechnen. Uberprüfe deine Antwort mit einer Rechnung. Was ist größer, a) die Summe oder das Produkt von -t und b) die Summe oder das Produkt von 3 und </t>
   </si>
   <si>
-    <t>458</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wenn man einen Bruch durch einen kleineren Bruch dividiert, dann ist der Quotient (1) kleiner als 1 (2) gleich 1 (3) größer als 1 (4) kann man nicht sagen. </t>
   </si>
   <si>
-    <t>459</t>
-  </si>
-  <si>
     <t xml:space="preserve">We c 12 ¯ a rts- un Rec enrege n wur en angewan t. 12 </t>
   </si>
   <si>
-    <t>460</t>
-  </si>
-  <si>
     <t xml:space="preserve">f)} (16 -24) . 18 g) (3-24) • 10 Vergleiche die Ergebnisse der Aufgaben e) und f). Was stellst du fest? </t>
   </si>
   <si>
-    <t>461</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ste e zunac st en Term a . Berec nel n ann. a) Multipliziere die Summe der Zahlen 5 und mit} und subtrahiere dann b) Subtrahiere von dem Quotient der Zahlen und — das Produkt dieser beiden Zahlen. c) Dividiere die Summe von 2-é und 3ä durch Ä. </t>
   </si>
   <si>
-    <t>462</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eine Zu rt auert von Ham urg nac Fran urt Stunden und von Frankfurt nach Stuttgart 1 Stunden. Wie lange dauert die gesamte Zugfahrt von Hamburg nach Stuttgart, wenn der Zug in Frank- furt} Stunde Aufenthalt hat? Rechne einmal mit Brüchen und einmal, indem du in Minuten umrech- nest. Vergleiche deine Ergebnisse. </t>
   </si>
   <si>
-    <t>463</t>
-  </si>
-  <si>
     <t xml:space="preserve">Patricks Schulweg beträgt 5S km, Julies Schulweg nur 3a km. Um wie viel Kilometer unterscheiden sich die Schulwege von Patrick und Julie? </t>
   </si>
   <si>
-    <t>464</t>
-  </si>
-  <si>
     <t xml:space="preserve">In er K asse 6c des Goethe-Gymnasiums ommen S der Kin er von auswärts, sind 12 Kinder. Schreibe selbst eine Aufgabe und löse sie. Fahrradkauf Die Großeltern von Valentin sagen: „Deine Eltern bezahlen deines Fahrrads. Wir zahlen von dem, was deine Eltern zahlen. Dann ist dein Fahrrad finanziert." Was meinst du, haben die Großeltern Recht? Piraten Drei Piraten haben einen Goldschatz gefunden. Da es schon spät am Abend ist, beschließen sie, sich in ihrem Lager schlafen zu legen und den Schatz am nächsten Morgen zu gleichen Teilen aufzuteilen. Einer der Piraten wird in der Nacht wach. Da er den an- deren nicht traut, nimmt er des Schatzes an sich und verschwindet. Später in der Nacht wird der zweite Pirat as wach und sieht, dass ein Pirat mit einem Teil des Schatzes verschwunden ist. „Ich will fair bleiben", denkt er sich und nimmt von dem verbliebenen Schatz und verschwindet ebenfalls. Als der letzte der Piraten am Morgen aufwacht, sieht er, dass die beiden an- deren verschwunden sind. Er glaubt, dass diese fair gehandelt haben, nimmt den Rest des Goldschatzes an sich und zieht zufrieden von dannen. Was meint ihr, haben alle drei denselben Anteil an dem Schatz erhalten? </t>
   </si>
   <si>
-    <t>465</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aus dem Reschensee ragt von einem Kirchturm noch der Gesamtlänge aus dem Wasser heraus. steht im Wasser und der Rest von 4,5 m ist im Seeboden versunken. a) Wie hoch ist der Turm? b) Wie tief ist das Wasser an dieser Stelle? </t>
   </si>
   <si>
-    <t>466</t>
-  </si>
-  <si>
     <t xml:space="preserve">üfen, ist dein r ensymmetrisc symmetrische </t>
   </si>
   <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
     <t xml:space="preserve">t die eine gelbild der </t>
   </si>
   <si>
-    <t>469</t>
-  </si>
-  <si>
     <t xml:space="preserve">mmetrisch iguren kann man um </t>
   </si>
   <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
     <t xml:space="preserve">Untersuche die Körper Würfel, Quader, Pyramide, Zylinder, Kegel, Kugel auf Symmetrie. Versuche, jeweils möglichst viele Symmetrieebenen und Drehachsen zu finden. Skiz- ziere die Körper dazu möglichst genau als Schrägbilder in deinem Heft. Zeichne dann Symmetrieachsen und Symmetrieebenen ein. </t>
   </si>
   <si>
-    <t>473</t>
-  </si>
-  <si>
     <t xml:space="preserve">Welches der abgebildeten Dächer weist die meisten Symmetrieebenen auf? Welche sind drehsymmetrisch? 11 Würfelhäuser Ergänze die folgenden Würfelhäuser jeweils zu einem spiegelsymmetrischen Gebäude. Zeichne die Schrägbilder. Sind die spiegelsymmetrischen Gebäude auch drehsymmet- risch? Zeichne alle möglichen Drehachsen ein. </t>
   </si>
   <si>
-    <t>474</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wec e Symmetrien annst u In enA I ungen ent ec en. trieachsen und Symmetriezentren. a) Kachel b) Muster eines Bildes von JENSEN, 1966 c) Bestimme le Symme Indianische Korbflechterei </t>
   </si>
   <si>
-    <t>475</t>
-  </si>
-  <si>
     <t xml:space="preserve">una Skizziere sie in dein Heft. Welche Symmetrien findest du? Kopfübungen 1. 2. 3. 4. 5. 6. 7. Wie groß ist der Anteil der farbigen Fläche an der Gesamtfläche? Welche besonderen Vierecke können im Kreuzungsbereich der beiden Folienstreifen entstehen? Entscheide, welche Einheit zu der Angabe passt: „Die geschätzte Dauer einer Autofahrt von Düsseldorf nach Berlin". Welches Rechenzeichen gehört in das Kästchen, damit die Rechnung stimmt? a) b) 14.0=0 c) Entscheide, um welche Flächenform es sich handelt: Jedes Prisma hat mehrere davon. Welche Antwort trifft deiner Meinung nach zu: Die Schülerinnen und Schüler treffen sich in den Pausen am häufigsten mit (1) Eltern (2) Lehrern (3) Schülerinnen und Schülern. Jonas löst jeden Abend eine Knobelaufgabe Wie viele Knobelaufgaben löst Jonas in einem Jahr? </t>
   </si>
   <si>
-    <t>476</t>
-  </si>
-  <si>
     <t xml:space="preserve">In der Welt der Blüten ist eine enorme Vielfalt an Symmetrien zu beobachten. Am weitesten verbreitet ist die fünfzählige Radiärsymmetrie. Biologen unterscheiden bei Blüten vier Symmetrietypen: 1 . radiärsymmetrische (drehsymmetrische) Blüten 2. disymmetrische Blüten (Blüten mit zwei Symmetrieebenen) 3. monosymmetrische Blüten (Blüten mit einer Symmetrieebene) 4. asymmetrische Blüten (kommen äußerst selten vor) Schöllkra ergrün Flam a) Untersuche die abgebildeten Blüten auf Symmetrien. Skizziere sie dazu in dein Heft und zeichne alle Symmetrie- achsen und Drehwinkel ein. Wo würde der Biologe die Blüten einordnen? b) Suche im Garten, im Wald oder auf der Wiese nach Blüten. Welche des Herz hlox Ichen Symmetrien findest du? Welche Symmetrien sind am häufigsten? Versuche, die Blü- ten zu skizzieren oder zu fotografieren und die Symmetrien einzuzeichnen. Vielleicht kann dein Biologielehrer ja bei der Bestimmung der Pflanzen helfen. </t>
   </si>
   <si>
-    <t>477</t>
-  </si>
-  <si>
     <t xml:space="preserve">Probiert einmal aus, wie gut ihr euch in euer Spiegelbild hineinversetzen könnt. Spielt zu zweit und schlüpft abwechselnd in die Spiegelbildrolle. Spielregeln: Das Original hat die Aufgabe, sich zu bewegen, z. B. das Bein zu heben oder sich an der Nase zu kratzen. Das Spiegelbild muss sich dem Origi- nal gegenüber stellen und soll spiegelbildliche Be wegungen ausführen. Achtet beim Spielen darauf, was euch besonders schwer fällt. Könnt ihr nützliche Hilfen formulieren? </t>
   </si>
   <si>
-    <t>478</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fast jeder hat schon einen Papierflieger gebaut. Papierflieger werden meistens nur aus einem Blatt Papier gefaltet, wobei die Verwendung von Klebstoff oder anderen Hilfs- mitteln wie Büroklammern verpönt ist. Für unterschiedliche Papierflieger gibt es Faltpläne. Durch Falten an den Faltkanten ent- steht dann ein Papierflieger. Dargestellt sind die Faltvorgänge für den abgebildeten Papierflieger. (4) (1) (5) (2) (6) (3) (7) </t>
   </si>
   <si>
-    <t>479</t>
-  </si>
-  <si>
     <t xml:space="preserve">chritte auf? ein DIN A4-Blatt. </t>
   </si>
   <si>
-    <t>480</t>
-  </si>
-  <si>
     <t xml:space="preserve">In Kopen agen atte MI 100 onu reatlve Wer OUR 'NDOOR SKATEPARK NEUER ron WET TO SKATE ei ee ur eine In oor-S ater a n. hlE sn nvee snn 2KVIEM nh2EBE IMDOOB 2KUEBVHh UNSERE INDOOR SKATEBAHN IST NIE ZU NASS ZUM SKATEN a) Betrachte die Schrift und ihre Spiegelung einen Augenblick. Welche Buchstaben haben sich (nicht) verändert? Begründe. b) Beschreibe, was mit der Reihenfolge der Wörter geschehen ist. c) Notiere in Großbuchstaben deinen Namen so, dass er als Spiegelung normal lesbar ist. d) Wettbewerb: wer schafft es, Botschaften ganz rasch in Spiegelschrift zu notieren. SCHWIMMEN ERLAUBT - ANGELN VERBOTEN - ELTERN HAFTEN FÜR IHRE KINDER 4 Verrückte Portraits mit dem Handy Egal ob Notebooks, Tablets oder Smartphones - überall ist eine Kamera eingebaut, mit der man auch lustige Bilder von sich selbst auf- nehmen kann. Die passende Software, um mit diesen Bildern tolle Spiegelungen zu erzeugen, gibt es gratis dazu. a) Erzeugt selbst Bilder, bei denen ihr die obere Hälfte eures Kopfes spiegelt. Wer ist noch gut zu erkennen? Wo verläuft die Spiegelachse? b) Betrachte das Bild des berühmten Fußballers. Erkennst du das Original- bild? Wie wurden die beiden anderen erzeugt? Probiere mit einem Taschen spiegel aus. </t>
   </si>
   <si>
-    <t>481</t>
-  </si>
-  <si>
     <t xml:space="preserve">Das ua rat so Lösung: Gegeben: Ausgangsfi- gur und Spiegelachse se a gespiege twer en c Spiegele die Punkte und D. D' C und M stimmen mit ihren Bildpunkten überein. B' Verbinde die Bildpunk- te und D' zur Bildfigur. </t>
   </si>
   <si>
-    <t>482</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zeic ne le Figuren mit den Spiegelachsen in dein Heft und konstru- iere das Spiegelbild. b) </t>
   </si>
   <si>
-    <t>483</t>
-  </si>
-  <si>
     <t xml:space="preserve">bertrage le Rec Spiegelbild. tec e un b) le Spiege ac sen In ein He und onstrulere as c) Geobrett Spannt auf einem Geobrett die abgebildete Figur. Legt dann ein zweites Geobrett da- neben und spannt das Spiegelbild, das sich nach Spiegelung an der roten Achse ergibt. a) b) Wenn ihr keine Geobretter zur Verfügung habt, könnt ihr auf Karopapier zeichnen. Die Punkte auf dem Geobrett sind dann die Gitterpunkte. </t>
   </si>
   <si>
-    <t>484</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spiegele das Dreiec ABC mit A 8112 , B (12115) und C (9117) a) an der Parallelen zur x-Achse durch den Punkt P (01 9); b) an der Parallelen zur y-Achse durch den Punkt Q (7 10); c) an der 1. Winkelhalbierenden. Vergleiche die Koordinaten der Punkte des Grunddreiecks und Bilddreiecks. Fällt dir etwas auf? Hättest du die Koordinaten der Bildpunkte auch berechnen können? le era e urc le Punkte (010), (1 11), (212) usw. heißt 1. Winkelhalbierende. 3 2 o 45 2 3 4 5 </t>
   </si>
   <si>
-    <t>485</t>
-  </si>
-  <si>
     <t xml:space="preserve">rtrage le Zac nungen In an H un spiegee ann an er roten Linie. Du erhältst interessante achsensymmetrische Figuren. </t>
   </si>
   <si>
-    <t>486</t>
-  </si>
-  <si>
     <t xml:space="preserve">e Symmetrie- oder Spiegelachse? d den punkt. 2. Zeichne die Verbindungsstre- cke und den Mittelpunkt M. 3. Die Senkrechte zur Verbin- dungsstrecke durch M ist die Symmetrieachse. </t>
   </si>
   <si>
-    <t>487</t>
-  </si>
-  <si>
     <t xml:space="preserve">bertrage in dein Heft und konstruiere falls möglich die Symmetrieachsen. Entscheide so, ob tatsächlich gespiegelt wurde. b) c) </t>
   </si>
   <si>
-    <t>488</t>
-  </si>
-  <si>
     <t xml:space="preserve">a) bertrage die Figuren in dein Heft und beschreibe die Fehler. b) Trage falls möglich die richtigen Symmetrieachsen ein. (2) (3) </t>
   </si>
   <si>
-    <t>489</t>
-  </si>
-  <si>
     <t xml:space="preserve">a) Joshua behauptet, der „Union Jack" habe vier Symmetrieachsen. Zeichne den Union Jack als Rechteck mit Bleistift und Heft-Hat Joshua recht? b) Lineal in dein Die „Schweizerfahne" wurde in ihrer ursprünglichen Fassung vom 12. Dezember 1889 in quadratischem Format festgelegt. Übertrage sie als 4 crnX4 cm Quadrat in dein Heft und untersuche sie auf Symme- trieachsen. </t>
   </si>
   <si>
-    <t>490</t>
-  </si>
-  <si>
     <t xml:space="preserve">n Ist gar nic t so schwer. Du brauchst dazu nur eine etwas größere Kartoffel, einen wasserfesten Stift, ein Taschen- messer und natürlich eine gute Idee für eine ge- eignete Vorlage. Vorlage auf Kartoffelhölfte übertragen opfü bungen Nicht markierte Stellen Vor- sichtig wegschoben NEW Fertig! Stempel/löche mit Wasserfarbe bemalen und losstempeln . Rieke erhält einen Lila-Ton, indem sie 2 Dosen roter Farbe und 3 Dosen blauer Farbe mischt. Welchen Anteil macht Blau aus? Wie viele Strecken benötigt man, um das Haus des Nikolaus zu zeichnen? 2. Der Flächeninhalt eines Rechtecks beträgt 10 cm2. Wie lang können die Seiten 3. dieses Rechtecks sein? Bestimme die Hochzahl: a) 1()• = 100000 b) 3• = 81 4. Welche geometrischen Körper erkennst du in den beiden 5. Turmdächern ? So lange verbringt man durchschnittlich am Tag mit 6. Essen und Trinken: Frankreich 135 min; Türkei 162 min; USA 74 min; Deutschland 105 min; Japan 117 min. Ordne der Größe nach. Eine Sonnenblume wächst jeden Tag um 0,5 cm. Um wie viel cm wächst sie innerhalb 7. von 20 Tagen? </t>
   </si>
   <si>
-    <t>491</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jonas at ein Vierec ABCD mt einem DGS ge zeichnet und es anschließend um den Punkt B gedreht — im rechten Bild um 700. Mit ein wenig Spielerei hat er dann die drei schönen Muster er- zeugt und auch verraten wie das geht: „Ich habe mit unterschiedlich großen Winkeln immer weiter gedreht. Einmal nahm ich 200, dann 450 und auch 600." 700 D' 000 a) Ordne jedem Bild den passenden Drehwinkel zu. Begründe deine Zuordnung. b) Wie kannst du dich vergewissern, dass die Drehwinkel in den Mustern tatsächlich genau 200, 450 bzw. 600 sind? Frida: „Ich benutze das Geodreieck und messe." c) Erzeuge selbst mit einem DGS drehsymme- trische Muster. Mit den drei Schaltflächen kommst du rasch ans Ziel. Probiere dabei auch unterschiedliche Drehwinkel und Figuren aus! Yagmur: „Ich zähle die gedrehten Figuren und komme so zum Drehwinkel.'i Vieleck zeichnen Schieberegler für den Winkel, Schrittweite festlegen Eine Figur um einen Punkt drehen. </t>
   </si>
   <si>
-    <t>492</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rechtecke drehen Tipp Zeichne ein Rechteck von 4 cm 2 cm in die Mitte eines karierten Blattes in dein Heft. Zeichne nun das gleiche Rechteck auf eine durchsichtjge Folie (ungefähr 8 cm • 8 cm). Beschrifte bei beiden Rechtecken die Ecken A, B, C und D wie in der Abbildung. Lege die Folie nun auf das Papier, so dass die Rechtecke genau zur Deckung kommen. iiiiiiiiäiiiiiiiii 8 a) Stecke eine Stecknadel in die Mitte des Folienrechtecks und drehe die Folie um 900 entgegen dem Uhrzeigersinn. Wo liegen die Punkte A, B, C, D nach der Drehung? Auf welchen Bahnkurven be- wegen sich die Eckpunkte des Rechtecks? Beschreibe möglichst genau. Zeichne in dein Heft und beschrifte die Ecken des roten Rechtecks. Zeichne die Bahnkurven. b) Stecke die Stecknadel nun in den Punkt C und drehe die Folie aus der Ausgangsstel- lung um 1800. Wie liegen die beiden Vierecke nun zueinander? Wie lassen sich die Bahnkurven der Eckpunkte beschrei- ben? Zeichne ins Heft. c) Das Bild entsteht, wenn du die Nadel im Punkt Z außerhalb des Rechtecks ein stichst und dann um 900 drehst. Kannst du diese Lage des Rechtecks auch ohne Folie durch Konstruktion mit dem Zirkel und dem Geodreieck bestimmen? d) Um welchen Drehpunkt und um welchen Winkel wurde das Rechteck in den folgenden Fällen gedreht? Beantworte zunächst im Kopf und überprüfe dann mit der Folie oder mit dem Zirkel und dem Geodreieck. (1 c </t>
   </si>
   <si>
-    <t>493</t>
-  </si>
-  <si>
     <t xml:space="preserve">Das Dreieck ABC mit A (311), B (711) und C (714) soll um 720 gedreht werden. Das Drehzentrum Z ist der Ursprung (010). Lösung: 4 56 720 456 . Punkte mit Drehzentrum Z verbinden — erster Schenkel des Drehwinkels. 2. Den Drehwinkel von 720 abtragen — zweiter Schenkel des Drehwinkels. 3. Mit dem Zirkel die Bildpunkte abtragen. 4. Bildpunkte zur Bildfigur verbinden. 5. Koordinaten näherungsweise ablesen: A' (013,2) , B' (1 ,217) und C' (-1 7 ,9). </t>
   </si>
   <si>
-    <t>494</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mithilfe der Drehung kann man drehsymmetrische Fi- guren zeichnen. Als Drehwinkel kommen alle Teiler von 360 in Frage. In diesem Beispiel wurde die Grundfigur um 720 gedreht, die Bildfigur wieder um 720 usw. Die Hilfslinien, die man zum Abtragen der Winkel benötigt, zeichnet man am besten mit ganz dünnen Bleistiftlinien. Man kann sie dann hinterher wieder ausradieren. 72 </t>
   </si>
   <si>
-    <t>495</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bel aner Dre ung ann as Dre zentrum Z auch auf dem Rand der Figur (1 ) oder innerhalb der Figur (2) liegen. 2) z z </t>
   </si>
   <si>
-    <t>496</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ubertrage das Dreieck ABC und das Drehzentrum aus Beispiel A in dein Heft und drehe das Dreieck um 900. Lies die Koordinaten der gedrehten Eckpunkte ab. </t>
   </si>
   <si>
-    <t>497</t>
-  </si>
-  <si>
     <t xml:space="preserve">bertrage die Linien in dein Heft. Drehe sie dann nacheinander um 900, 1800 und 2700 um Z und zeichne jeweils die Bilder. Gestalte das entstehende Muster farbig. z </t>
   </si>
   <si>
-    <t>498</t>
-  </si>
-  <si>
     <t xml:space="preserve">bertrage as Rechteck dreimal In dein Heft. Konstruiere dann das Bildrechteck nach Drehung a) um 700 um Z; b) um 1000 um B; c) um 600 um M. c z </t>
   </si>
   <si>
-    <t>499</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drehe den Punkt P um Z mit dem Winkel a. Bestimme den Bildpunkt P'. a) Z (010), a- 500, P (711) b) Z (313), a- 450, P c) Z (314), a- 1250, P (213) d) Z (512,5), a- 2100, P (411 Ein Quadrat drehen Das rote Quadrat ist jeweils das Bild des grünen Quadrats nach einer Drehung. Übertrage kästchengenau in dein Heft und bestimme Drehzentrum und Drehwin kel. Stelle zuerst eine Vermutung auf und überprüfe dann durch Konstruktion. Tipp Die Vermutung kannst du auch durch Probieren mit einem ausgeschnittenen Quadrat gewinnen </t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
     <t xml:space="preserve">as relec so an ern un t gesplege t wer en. Lösung: Dazu werden die Punkte A, B und C gespiegelt, die Bild- punkte dann verbunden. Die Seitenlängen und Winkel in Grundfigur und Bildfigur sind gleich. A' C' </t>
   </si>
   <si>
-    <t>501</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zac ne le Figuren In ein He . Spege e Sie am Pun Z, so ass pun tsymmetnsc e Figuren entstehen. b) </t>
   </si>
   <si>
-    <t>502</t>
-  </si>
-  <si>
     <t xml:space="preserve">a) Spiegele das Dreieck ABC mit A (212), B (913) und C (216) an dem Punkt Z (616). Notiere die Koordinaten der Bildpunkte. Hättest du die Koordinaten auch voraussa- gen können? b) Bestimme die Koordinaten der Bildpunkte des Vierecks ABCD mit A (314), B (61 3), C (815) und D (417) nach Spiegelung an Z (915). </t>
   </si>
   <si>
-    <t>503</t>
-  </si>
-  <si>
     <t xml:space="preserve">Übertrage das Muster in dein Heft. Färbe die weißen Flächen so, dass ein punktsym- metrisches Muster entsteht. Erfinde auch selbst ein punktsymmetrisches Farbmus- ter. 13 Symmetriezentren Prüfe, ob die Figuren punktsymmetrisch sind. Wo liegt das Symmetriezentrum? 14 Drehsymmetrische Figuren Drehsymmetrische Figuren lassen sich aus einem Grundbaustein erzeugen, der immer wieder gedreht wird. Finde zu jeder Figur den Grundbaustein. Wie oft und um welche Winkel musst du ihn drehen, damit die Figur entsteht? Zeichne den entsprechen Grundbaustein um 1200 und 2400 drehen den Grundbaustein so gut du kannst in dein Heft und konstruiere die Figur. Kopfübungen 18. 13. 1. Ordne die Zahlen der Größe nach: 2. Skizziere einen Kreis und ein gleichseitiges Dreieck so, dass sie sich in a) 3 Punkten b) 6 Punkten schneiden. 3. Wie groß ist der Winkel ungefähr? 4. Notiere zuerst als Term und berechne dann: Zu drei Vierteln von 20 wird ein Fünftel von 30 addiert. 5. Eine I-Liter-Milchpackung hat die Form eines Quaders. Die Höhe soll 20cm sein. Gib ein Beispiel für die mögliche Breite und Länge an. 6. Auf welche Stelle (E, Z, H, wurde gerundet? a) 19761 z 19800 b) 63,52-64 c) 55555 z 56000 7. Das größte Dreieck im Bild hat die Seitenläge 12 cm. Bestimme die Seitenlänge des kleinsten Dreiecks. </t>
   </si>
   <si>
-    <t>504</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stell dir vor, du blickst aus der Vogel- perspektive auf ein Kinderkarussell. Wie bewegen sich die Autos, Mondraketen, Tiere und Boote? Suche dir ein Fahrzeug für dein Karussell, das du mit Vielecken konstruierst. Als Beispiel haben wir ein einfaches Segelboot aus einem Fünfeck (Rumpf) und einem Dreieck (Segel) und eine Rakete dargestellt. c c </t>
   </si>
   <si>
-    <t>505</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lege einen Punkt als Drehzentrum fest, den du mit Z benennst. Erstelle einen Schieberegler für deinen Drehwinkel a. • Winkel Ganze Zahl mim) O • Zufällig max: 360• Schrittweite: 30" </t>
   </si>
   <si>
-    <t>506</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nun kannst du dein Fahrzeug drehen, indem du den Befehl mit der passenden Schalt- fläche auswählst. Wähle den Rumpf aus, dann Z und gib den Drehwinkel a an. Dasselbe musst du nun auch für das Segel tun. « = 180 </t>
   </si>
   <si>
-    <t>507</t>
-  </si>
-  <si>
     <t xml:space="preserve">a) Versuche, die verschiedenen Bandornamente mit Worten zu be- schreiben. Was haben sie alle gemeinsam? b) Sieh dich auf der Straße und bei dir zu Hause um. Findest du dort Bandornamente? Notiere Beispiele und fertige von zwei Bandor- namenten eine Skizze an. Was fällt dir dabei schwer? Findest du nützliche Hilfen? Rösselsprung und mehr Bei vielen Brettspielen müssen Spielfiguren verschoben werden. Beim Schachspiel gibt es für jede Spielfigur eine Regel, wie man sie verschieben darf. 8 7 ab c d e fg h a) Die Dame darf man nach rechts, links, oben, unten oder in jede beliebige Diagonale um so viele Felder verschieben, wie man will, solange keine andere Figur im Weg ist. Beschreibe wie man die anderen Figuren verschieben darf. b) Sieh dir den Spielstand oben an. Wie muss die weiße Dame verschoben werden, um auf das Feld a 8 zu gelangen? Wie kann der schwarze Läufer verschoben werden? c) Die grauen Springer in der Abbildung links markieren die Felder, auf die der Springer ziehen darf. Beschreibe in Worten, wie man den Springer verschieben kann. </t>
   </si>
   <si>
-    <t>508</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mithilfe der Verschiebung kann man Bandorna mente zeichnen. Hat man die Grundfigur einmal verschoben, so verschiebt man die Bildfigur mit dem gleichen Verschiebungspfeil Usw. </t>
   </si>
   <si>
-    <t>509</t>
-  </si>
-  <si>
     <t xml:space="preserve">Einfach ist eine Verschiebung auf Kästchenpapier. Man kann den Verschiebungspfeil durch Abzählen der Kästchen beschreiben. 2 nach unten 5 nach rechts </t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t xml:space="preserve">a) Zeichne ein Bandornament aus der Grundfigur in dein Heft. Nutze die ganze Heftbreite. b) Erfinde selbst eine Grundfigur, gib einen Verschie- bungspfeil vor und lasse deine Nachbarin oder dei- nen Nachbarn daraus ein Bandornament zeichnen. </t>
   </si>
   <si>
-    <t>511</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ubertrage die Figur so in dein Heft, dass der kleine Kreis einen Radius von 1 cm hat. Welchen Radius hat denn der Halbkreis? Zeichne ein Bandornament über die ganze Heftbreite, indem du die Grundfigur immer wieder um 4 cm verschiebst. Wie viele Punkte musst du verschieben, um die Bildfigur zeichnen zu können? </t>
   </si>
   <si>
-    <t>512</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trage die Punkte A (211 , B(612), C (715 und D (415 in ein Koordinatensystem ein und verbinde sie zum Viereck ABCD. Konstruiere das Bildviereck A'B'C'D' mithilfe des Ver- schiebungspfeils, der folgende Punkte aufeinander abbildet: a) P (315) auf P' (1 18), b) Q (913) auf Q' (610), c) R (1 13) auf R (313,5), d) A auf B. </t>
   </si>
   <si>
-    <t>513</t>
-  </si>
-  <si>
     <t xml:space="preserve">bertrage le Ab i ung dreima In an He . Konstruiere dann drei verschiedene Schrägbilder eines Hauses durch Verschiebung mit den Verschiebungspfeilen (1) 6 nach links, 2 nach oben (3) 3 nach rechts, 3 nach oben (2) 2 nach rechts, 6 nach oben Wie unterscheiden sich die Schrägbilder? Macht es Sinn, bei der Konstruktion des Schrägbildes eines Hauses einen Verschiebungspfeil zu Hilfe zu nehmen, der nach unten zeigt? Begründe. </t>
   </si>
   <si>
-    <t>514</t>
-  </si>
-  <si>
     <t xml:space="preserve">a) Verschiebe das Dreieck A (1 | 1), B (412) und C (1 16) um zwei nach rechts und vier nach oben. Lies die Koordinaten der Bildpunkte ab und vergleiche mit denen der Grundfigur. Kann man die Koordinaten der Bildfigur errechnen? b) Welche Koordinaten erwartest du für die Bildpunkte des Vierecks A (2 15), B (61 6), C (318) und D (419) bei Verschiebung um 1 nach rechts und 4 nach unten? Überprüfe dein Ergebnis mit einer Zeichnung. </t>
   </si>
   <si>
-    <t>515</t>
-  </si>
-  <si>
     <t xml:space="preserve">Die Punkte A bis E bilden die Figur im Ko- ordinatensystem. a) Lies die Koordinaten der einzelnen Punkte ab und notiere sie. b) Mit welchem Verschiebungspfeil muss die Figur verschoben werden, damit A' die Koordinaten (210) hat? c) Berechne auch die Koordinaten der anderen Bildpunkte, die bei dieser Ver- schiebung entstehen. 7 6 -2-11 4 c 8 9101112 </t>
   </si>
   <si>
-    <t>516</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dieses Ban ornament Ist entstan en, In em le aue Grun gur Immer Wie er nac einer sich wiederholenden Konstruktionsvorschrift abgebildet wurde: Schritt 1: Spiegele die Grundfigur an der rot eingezeichneten Spiegelachse. Schritt 2: Verschiebe die Bildfigur mit dem eingezeichneten Verschiebungspfeil. Kehre zurück zu Schritt 1. a) Zeichne ein Bandornament nach der Konstruktionsvorschrift. Durchlaufe die Vor- schrift dabei je fünfmal. Schritt 1: Spiegele die Grundfigur an der roten Spiegelachse. Schritt 2: Spiegele die Bildfigur an der nächsten blauen Spiegelachse. Kehre zurück zu Schritt 1 (1) Schritt 1: Spiegele die Grundfigur am roten Spiegelpunkt. Schritt 2: Verschiebe die Bildfigur mit dem blauen Verschiebungspfeil. Kehre zurück zu Schritt 1. (2) b) Finde heraus, durch welche Konstruktionsvorschrift sich die Bandornamente unten erzeugen lassen. opfübungen (2) . Eine 40cm lange Holzleiste soll im Verhältnis 2 zu 3 zersägt werden. Gib die Längen der beiden Abschnitte an. 2. In welche Richtung wird der Punkt P(315) verschoben, wenn sich a) die y-Koordinate verdoppelt b) die x-Koordinate halbiert? 3. Aus wie vielen Sekunden besteht eine Stunde? c) 5:20 4. Berechne im Kopf: a) 5 : 0,2 b) 5:2 5. Ein Quader wird einmal schräg wie im Bild durchgeschnitten. Wie heißen die beiden Teilkörper, die dabei entstehen? 6. Entscheide, ob das Runden für dich sinnvoll ist: a) dein Geburtsjahr, b) die Abfahrtszeit deines Zuges, c) die Anzahl der Haare auf deinem Kopf. 7. Zähle in 16-er Schritten abwärts: 100; 84; T, u; u; T, u. </t>
   </si>
   <si>
-    <t>517</t>
-  </si>
-  <si>
     <t xml:space="preserve">NI s Sin au seinem Sc u weg enge P ttenmuster au ge a en. a) Zeichne die Plattenmuster ab. Beschreibe die Formen. b) Schau dich selbst draußen um. Kannst du weitere Plattenmuster finden? Mache von diesen eine Skizze. </t>
   </si>
   <si>
-    <t>518</t>
-  </si>
-  <si>
     <t xml:space="preserve">Erzeugt ein Parkett aus den abgebildeten Figuren oder e indet eigene. Die Vorlagen ge- ben euch Hinweise, wie die Schablone konstruiert werden muss, damit eine lückenlose Parkettierung möglich ist. (1) (2) </t>
   </si>
   <si>
-    <t>519</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 4 ESt}, Die Gesetzmäßigkeiten, die den holländischen Künstler M. C. ESCHER sein ganzes Leben lang am meisten fasziniert haben, waren die der re- gelmäßigen Flächenaufteilung (Parkettierung). Die Abbildung links ist eine seiner ersten Studien zu diesem Thema und stammt vom Oktober 1936. a) Beschreibe das Bild. Welche Besonderheiten fallen dir auf? Was haben die einzelnen Bud- dhas gemeinsam, wie unterscheiden sie sich? b) Durch welche Bewegung kannst du Buddha 2 aus Buddha 1 erhalten, wie Buddha 3 aus Buddha I? Kommst du auch mit einer einzi- gen Bewegung von Buddha 2 zu Buddha 3? c) Wie kommst du von Buddha 5 zu Buddha 3 (4; 6)? Finde mehrere Möglichkeiten. </t>
   </si>
   <si>
@@ -2888,6 +2354,15 @@
   </si>
   <si>
     <t xml:space="preserve">Auf Julians Konto sind zu Beginn 1 20 Euro. Nun werden nachein ander folgende Buchungen ausgeführt: O Abhebung 210 € @ Einzahlung 72 € @ Einzahlung 85 € @Abbuchung 68 € Bestimme den aktuellen Kontostand nach jeder Buchung. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Um 10.30 Uhr bilden der große und der kleine Zeiger einer Uhr einen Winkel von 135°. Warum ist das so? b) Welche Winkel werden gebildet um 9.00 Uhr, um 16.30 Uhr und um 8.24 Uhr? 5. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole und Marius wollen Omas Waffelrezept ausprobieren, doch das Abmessen der Zutaten ist schwierig: Die Einteilung auf dem Messbecher zeigt nur Milliliter, die Waage nur Gramm. Waffelrezept kg Butter Eier kg Mehl Milch Esslöffel Zucker 1 Prise Satz 750 100 250 500 ml 1000 kg kg 500 100 a) Schreibe die Zutaten des Rezepts in g und me auf. Ist dies immer möglich? b) Notiere die markierten Gramm- und Milliliterangaben als Bruchteile. c) Entscheide mit der Skala des Messbechers, was mehr ist: e oder e. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donauwellen backt man auf rechteckigen Backblechen. Der Konditor hat den Kuchen in 10 gleich große Stücke vor- geschnitten. Ein Stück entspricht* (einem Zehntel) Kuchen. Lena kauft 7 Stücke. Es sind noch n% des Kuchens übrig. </t>
   </si>
 </sst>
 </file>
@@ -3290,10 +2765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GZ491"/>
+  <dimension ref="A1:GZ490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3346,7 +2821,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>953</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:208" ht="90" customHeight="1">
@@ -3405,7 +2880,7 @@
         <v>25</v>
       </c>
       <c r="GZ13" t="s">
-        <v>952</v>
+        <v>774</v>
       </c>
     </row>
     <row r="14" spans="1:208" ht="90" customHeight="1">
@@ -3416,7 +2891,7 @@
         <v>27</v>
       </c>
       <c r="GZ14" t="s">
-        <v>952</v>
+        <v>774</v>
       </c>
     </row>
     <row r="15" spans="1:208" ht="90" customHeight="1">
@@ -3427,7 +2902,7 @@
         <v>29</v>
       </c>
       <c r="GZ15" t="s">
-        <v>952</v>
+        <v>774</v>
       </c>
     </row>
     <row r="16" spans="1:208" ht="90" customHeight="1">
@@ -3483,7 +2958,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>954</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="90" customHeight="1">
@@ -3547,7 +3022,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="90" customHeight="1">
@@ -3555,7 +3030,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>955</v>
+        <v>777</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="90" customHeight="1">
@@ -3563,7 +3038,7 @@
         <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="90" customHeight="1">
@@ -3571,7 +3046,7 @@
         <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90" customHeight="1">
@@ -3579,7 +3054,7 @@
         <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" customHeight="1">
@@ -3587,7 +3062,7 @@
         <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>956</v>
+        <v>778</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="90" customHeight="1">
@@ -3595,7 +3070,7 @@
         <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90" customHeight="1">
@@ -3603,7 +3078,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="90" customHeight="1">
@@ -3611,7 +3086,7 @@
         <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>957</v>
+        <v>779</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" customHeight="1">
@@ -3619,7 +3094,7 @@
         <v>64</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90" customHeight="1">
@@ -3627,7 +3102,7 @@
         <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="90" customHeight="1">
@@ -3635,15 +3110,15 @@
         <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="90" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="90" customHeight="1">
@@ -3651,7 +3126,7 @@
         <v>70</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="90" customHeight="1">
@@ -3659,31 +3134,31 @@
         <v>71</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="90" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="90" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90" customHeight="1">
@@ -3691,7 +3166,7 @@
         <v>78</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="90" customHeight="1">
@@ -3699,23 +3174,23 @@
         <v>79</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>780</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="90" customHeight="1">
@@ -3723,7 +3198,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="90" customHeight="1">
@@ -3731,7 +3206,7 @@
         <v>85</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="90" customHeight="1">
@@ -3739,7 +3214,7 @@
         <v>86</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>781</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="90" customHeight="1">
@@ -3747,7 +3222,7 @@
         <v>87</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>123</v>
+        <v>782</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="90" customHeight="1">
@@ -3755,15 +3230,15 @@
         <v>88</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="90" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="90" customHeight="1">
@@ -3771,15 +3246,15 @@
         <v>91</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="90" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90" customHeight="1">
@@ -3787,3393 +3262,2943 @@
         <v>94</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="90" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="90" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="90" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="90" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>143</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="90" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="90" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="90" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="90" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="90" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="90" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="90" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="90" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>161</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="90" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>163</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="90" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="90" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>167</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="90" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="90" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="90" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="90" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="90" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="90" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="90" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="90" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="90" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="90" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="90" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="90" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="90" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="90" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="90" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="90" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="90" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="90" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="90" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="90" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="90" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="90" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>219</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="90" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="90" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="90" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="90" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>233</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="90" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="90" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="90" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="90" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="90" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>243</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="90" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>245</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="90" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>247</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="90" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>249</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="90" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>251</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="90" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>253</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="90" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>255</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="90" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="90" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="90" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>261</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="90" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>263</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="90" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>265</v>
+        <v>358</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="90" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>267</v>
+        <v>360</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="90" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="90" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>271</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="90" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>273</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="90" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="90" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>277</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="90" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>279</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="90" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>281</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="90" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="90" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>287</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="90" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="90" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="90" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>295</v>
+        <v>388</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="90" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>299</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="90" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>301</v>
+        <v>394</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="90" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="90" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>305</v>
+        <v>398</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="90" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>307</v>
+        <v>400</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="90" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>309</v>
+        <v>402</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="90" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="90" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>313</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="90" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="90" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>317</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="90" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>319</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="90" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>321</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="90" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>323</v>
+        <v>416</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="90" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>325</v>
+        <v>418</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="90" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>327</v>
+        <v>420</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="90" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>329</v>
+        <v>422</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="90" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>331</v>
+        <v>424</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="90" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>294</v>
+        <v>204</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>333</v>
+        <v>426</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="90" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>335</v>
+        <v>428</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="90" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>337</v>
+        <v>430</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="90" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>339</v>
+        <v>432</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="90" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>341</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="90" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>343</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="90" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>345</v>
+        <v>438</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="90" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>308</v>
+        <v>212</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>347</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="90" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>349</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="90" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>312</v>
+        <v>215</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>351</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="90" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>353</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="90" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>355</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="90" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>357</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="90" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>359</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="90" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>361</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="90" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>363</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="90" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>365</v>
+        <v>458</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="90" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>367</v>
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="90" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>369</v>
+        <v>462</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="90" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>371</v>
+        <v>464</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="90" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>373</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="90" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>375</v>
+        <v>468</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="90" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>377</v>
+        <v>470</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="90" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>379</v>
+        <v>472</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="90" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>381</v>
+        <v>474</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="90" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>383</v>
+        <v>476</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="90" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>385</v>
+        <v>478</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="90" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>387</v>
+        <v>480</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="90" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>389</v>
+        <v>482</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="90" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>391</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="90" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>393</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>395</v>
+        <v>488</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="90" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>397</v>
+        <v>490</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="90" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>399</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="90" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>401</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="90" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>403</v>
+        <v>496</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="90" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>366</v>
+        <v>267</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>405</v>
+        <v>498</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="90" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>368</v>
+        <v>269</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>407</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="90" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>409</v>
+        <v>502</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="90" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>411</v>
+        <v>504</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="90" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>413</v>
+        <v>506</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="90" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>376</v>
+        <v>277</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>415</v>
+        <v>508</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="90" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>417</v>
+        <v>510</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="90" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>380</v>
+        <v>281</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>419</v>
+        <v>512</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="90" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>382</v>
+        <v>283</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>421</v>
+        <v>514</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="90" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>423</v>
+        <v>516</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="90" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>425</v>
+        <v>518</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="90" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>427</v>
+        <v>520</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="90" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>429</v>
+        <v>522</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="90" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>431</v>
+        <v>524</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="90" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>433</v>
+        <v>526</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="90" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>396</v>
+        <v>297</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>435</v>
+        <v>528</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="90" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>398</v>
+        <v>299</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>437</v>
+        <v>530</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="90" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>439</v>
+        <v>532</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="90" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>402</v>
+        <v>303</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>441</v>
+        <v>534</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="90" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>443</v>
+        <v>536</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="90" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>445</v>
+        <v>538</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="90" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>408</v>
+        <v>309</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>447</v>
+        <v>540</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="90" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>449</v>
+        <v>542</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="90" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>451</v>
+        <v>544</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="90" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>453</v>
+        <v>546</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="90" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>455</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="90" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>457</v>
+        <v>550</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="90" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>459</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="90" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>461</v>
+        <v>554</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>463</v>
+        <v>556</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="90" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>465</v>
+        <v>558</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="90" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>428</v>
+        <v>329</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>467</v>
+        <v>560</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="90" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>469</v>
+        <v>394</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>471</v>
+        <v>563</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="90" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>473</v>
+        <v>565</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="90" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>436</v>
+        <v>337</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>475</v>
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>477</v>
+        <v>569</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="90" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>440</v>
+        <v>341</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>479</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>481</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="90" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="90" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>485</v>
+        <v>577</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="90" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>448</v>
+        <v>349</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>487</v>
+        <v>579</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="90" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>489</v>
+        <v>581</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="90" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>452</v>
+        <v>353</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>491</v>
+        <v>583</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="90" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>454</v>
+        <v>355</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>493</v>
+        <v>585</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="90" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>456</v>
+        <v>357</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>495</v>
+        <v>587</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="90" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>458</v>
+        <v>359</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>497</v>
+        <v>589</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="90" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>460</v>
+        <v>361</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>499</v>
+        <v>591</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="90" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>462</v>
+        <v>363</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>501</v>
+        <v>593</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="90" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>464</v>
+        <v>365</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>503</v>
+        <v>595</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="90" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>466</v>
+        <v>367</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>505</v>
+        <v>597</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="90" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>468</v>
+        <v>369</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>507</v>
+        <v>599</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="90" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>470</v>
+        <v>371</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>509</v>
+        <v>601</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="90" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>472</v>
+        <v>373</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>511</v>
+        <v>603</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="90" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>474</v>
+        <v>375</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>513</v>
+        <v>605</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="90" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>476</v>
+        <v>377</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="90" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>478</v>
+        <v>379</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>517</v>
+        <v>609</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="90" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>480</v>
+        <v>381</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>519</v>
+        <v>611</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="90" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>482</v>
+        <v>383</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>521</v>
+        <v>613</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="90" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>484</v>
+        <v>385</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>523</v>
+        <v>615</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="90" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>486</v>
+        <v>387</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>525</v>
+        <v>617</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>488</v>
+        <v>389</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>527</v>
+        <v>619</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>490</v>
+        <v>391</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>529</v>
+        <v>621</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="90" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>492</v>
+        <v>393</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>531</v>
+        <v>623</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="90" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>494</v>
+        <v>395</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>533</v>
+        <v>625</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="90" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>496</v>
+        <v>397</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>535</v>
+        <v>627</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="90" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>498</v>
+        <v>399</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>537</v>
+        <v>629</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="90" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>500</v>
+        <v>401</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>539</v>
+        <v>631</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>502</v>
+        <v>403</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>541</v>
+        <v>633</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="90" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>504</v>
+        <v>405</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>543</v>
+        <v>635</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="90" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>506</v>
+        <v>407</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>545</v>
+        <v>637</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="90" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>508</v>
+        <v>409</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>547</v>
+        <v>639</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="90" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>510</v>
+        <v>411</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>549</v>
+        <v>641</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="90" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>512</v>
+        <v>413</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="90" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>514</v>
+        <v>415</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>553</v>
+        <v>645</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="90" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>516</v>
+        <v>417</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>555</v>
+        <v>647</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="90" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>518</v>
+        <v>419</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>557</v>
+        <v>649</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="90" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>520</v>
+        <v>421</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>559</v>
+        <v>651</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="90" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>522</v>
+        <v>423</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>561</v>
+        <v>653</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="90" customHeight="1">
       <c r="A275" s="1" t="s">
-        <v>524</v>
+        <v>425</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>563</v>
+        <v>655</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="90" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>526</v>
+        <v>427</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>565</v>
+        <v>657</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="90" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>528</v>
+        <v>429</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>567</v>
+        <v>659</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="90" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>530</v>
+        <v>431</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>569</v>
+        <v>661</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="90" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>532</v>
+        <v>433</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>571</v>
+        <v>663</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="90" customHeight="1">
       <c r="A280" s="1" t="s">
-        <v>534</v>
+        <v>435</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>573</v>
+        <v>665</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>536</v>
+        <v>437</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>575</v>
+        <v>667</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="90" customHeight="1">
       <c r="A282" s="1" t="s">
-        <v>538</v>
+        <v>439</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>577</v>
+        <v>669</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="90" customHeight="1">
       <c r="A283" s="1" t="s">
-        <v>540</v>
+        <v>441</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>579</v>
+        <v>671</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="90" customHeight="1">
       <c r="A284" s="1" t="s">
-        <v>542</v>
+        <v>443</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>581</v>
+        <v>673</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="90" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>544</v>
+        <v>445</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>583</v>
+        <v>675</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="90" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>546</v>
+        <v>447</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>585</v>
+        <v>677</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" customHeight="1">
       <c r="A287" s="1" t="s">
-        <v>548</v>
+        <v>449</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>587</v>
+        <v>679</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="90" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>550</v>
+        <v>451</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>589</v>
+        <v>681</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="90" customHeight="1">
       <c r="A289" s="1" t="s">
-        <v>552</v>
+        <v>453</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>591</v>
+        <v>683</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="90" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>554</v>
+        <v>455</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>593</v>
+        <v>685</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" customHeight="1">
       <c r="A291" s="1" t="s">
-        <v>556</v>
+        <v>457</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>595</v>
+        <v>687</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="90" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>558</v>
+        <v>459</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>597</v>
+        <v>689</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="90" customHeight="1">
       <c r="A293" s="1" t="s">
-        <v>560</v>
+        <v>461</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>599</v>
+        <v>691</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="90" customHeight="1">
       <c r="A294" s="1" t="s">
-        <v>562</v>
+        <v>463</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="90" customHeight="1">
       <c r="A295" s="1" t="s">
-        <v>564</v>
+        <v>465</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>603</v>
+        <v>695</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="90" customHeight="1">
       <c r="A296" s="1" t="s">
-        <v>566</v>
+        <v>467</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>605</v>
+        <v>697</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="90" customHeight="1">
       <c r="A297" s="1" t="s">
-        <v>568</v>
+        <v>469</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>607</v>
+        <v>699</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="90" customHeight="1">
       <c r="A298" s="1" t="s">
-        <v>570</v>
+        <v>471</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>609</v>
+        <v>700</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="90" customHeight="1">
       <c r="A299" s="1" t="s">
-        <v>572</v>
+        <v>473</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>611</v>
+        <v>701</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="90" customHeight="1">
       <c r="A300" s="1" t="s">
-        <v>574</v>
+        <v>475</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>613</v>
+        <v>702</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="90" customHeight="1">
       <c r="A301" s="1" t="s">
-        <v>576</v>
+        <v>477</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>615</v>
+        <v>703</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="90" customHeight="1">
       <c r="A302" s="1" t="s">
-        <v>578</v>
+        <v>479</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>617</v>
+        <v>704</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="90" customHeight="1">
       <c r="A303" s="1" t="s">
-        <v>580</v>
+        <v>481</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>619</v>
+        <v>705</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="90" customHeight="1">
       <c r="A304" s="1" t="s">
-        <v>582</v>
+        <v>483</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>621</v>
+        <v>706</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="90" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>584</v>
+        <v>485</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="90" customHeight="1">
       <c r="A306" s="1" t="s">
-        <v>586</v>
+        <v>487</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>625</v>
+        <v>708</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="90" customHeight="1">
       <c r="A307" s="1" t="s">
-        <v>588</v>
+        <v>489</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>627</v>
+        <v>709</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="90" customHeight="1">
       <c r="A308" s="1" t="s">
-        <v>590</v>
+        <v>491</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="90" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>592</v>
+        <v>493</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>631</v>
+        <v>711</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="90" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>594</v>
+        <v>495</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>633</v>
+        <v>712</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="90" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>596</v>
+        <v>497</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="90" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>598</v>
+        <v>499</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="90" customHeight="1">
       <c r="A313" s="1" t="s">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="90" customHeight="1">
       <c r="A314" s="1" t="s">
-        <v>602</v>
+        <v>503</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="90" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>604</v>
+        <v>505</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="90" customHeight="1">
       <c r="A316" s="1" t="s">
-        <v>606</v>
+        <v>507</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>645</v>
+        <v>718</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="90" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>608</v>
+        <v>509</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>647</v>
+        <v>719</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="90" customHeight="1">
       <c r="A318" s="1" t="s">
-        <v>610</v>
+        <v>511</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>649</v>
+        <v>720</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="90" customHeight="1">
       <c r="A319" s="1" t="s">
-        <v>612</v>
+        <v>513</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="90" customHeight="1">
       <c r="A320" s="1" t="s">
-        <v>614</v>
+        <v>515</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>653</v>
+        <v>722</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="90" customHeight="1">
       <c r="A321" s="1" t="s">
-        <v>616</v>
+        <v>517</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>655</v>
+        <v>723</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="90" customHeight="1">
       <c r="A322" s="1" t="s">
-        <v>618</v>
+        <v>519</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="90" customHeight="1">
       <c r="A323" s="1" t="s">
-        <v>620</v>
+        <v>521</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>659</v>
+        <v>724</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="90" customHeight="1">
       <c r="A324" s="1" t="s">
-        <v>622</v>
+        <v>523</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>661</v>
+        <v>725</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="90" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>624</v>
+        <v>525</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>495</v>
+        <v>724</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="90" customHeight="1">
       <c r="A326" s="1" t="s">
-        <v>626</v>
+        <v>527</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>664</v>
+        <v>725</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="90" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>628</v>
+        <v>529</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>666</v>
+        <v>726</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="90" customHeight="1">
       <c r="A328" s="1" t="s">
-        <v>630</v>
+        <v>531</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>668</v>
+        <v>727</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="90" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>632</v>
+        <v>533</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>670</v>
+        <v>728</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="90" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>634</v>
+        <v>535</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>672</v>
+        <v>729</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="90" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>636</v>
+        <v>537</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>674</v>
+        <v>730</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="90" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>638</v>
+        <v>539</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>676</v>
+        <v>731</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="90" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>640</v>
+        <v>541</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>678</v>
+        <v>732</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="90" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>642</v>
+        <v>543</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>680</v>
+        <v>733</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="90" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>644</v>
+        <v>545</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>682</v>
+        <v>734</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="90" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>646</v>
+        <v>547</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>684</v>
+        <v>735</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="90" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>648</v>
+        <v>549</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>686</v>
+        <v>736</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="90" customHeight="1">
       <c r="A338" s="1" t="s">
-        <v>650</v>
+        <v>551</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>688</v>
+        <v>737</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="90" customHeight="1">
       <c r="A339" s="1" t="s">
-        <v>652</v>
+        <v>553</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>690</v>
+        <v>738</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" customHeight="1">
       <c r="A340" s="1" t="s">
-        <v>654</v>
+        <v>555</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>692</v>
+        <v>739</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="90" customHeight="1">
       <c r="A341" s="1" t="s">
-        <v>656</v>
+        <v>557</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>694</v>
+        <v>740</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="90" customHeight="1">
       <c r="A342" s="1" t="s">
-        <v>658</v>
+        <v>559</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>696</v>
+        <v>741</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="90" customHeight="1">
       <c r="A343" s="1" t="s">
-        <v>660</v>
+        <v>561</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>698</v>
+        <v>742</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="90" customHeight="1">
       <c r="A344" s="1" t="s">
-        <v>662</v>
+        <v>562</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>700</v>
+        <v>743</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="90" customHeight="1">
       <c r="A345" s="1" t="s">
-        <v>663</v>
+        <v>564</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="90" customHeight="1">
       <c r="A346" s="1" t="s">
-        <v>665</v>
+        <v>566</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>704</v>
+        <v>745</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="90" customHeight="1">
       <c r="A347" s="1" t="s">
-        <v>667</v>
+        <v>568</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>706</v>
+        <v>746</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="90" customHeight="1">
       <c r="A348" s="1" t="s">
-        <v>669</v>
+        <v>570</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>708</v>
+        <v>747</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="90" customHeight="1">
       <c r="A349" s="1" t="s">
-        <v>671</v>
+        <v>572</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>710</v>
+        <v>748</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="90" customHeight="1">
       <c r="A350" s="1" t="s">
-        <v>673</v>
+        <v>574</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>712</v>
+        <v>749</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="90" customHeight="1">
       <c r="A351" s="1" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="90" customHeight="1">
       <c r="A352" s="1" t="s">
-        <v>677</v>
+        <v>578</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>716</v>
+        <v>751</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="90" customHeight="1">
       <c r="A353" s="1" t="s">
-        <v>679</v>
+        <v>580</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>718</v>
+        <v>752</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="90" customHeight="1">
       <c r="A354" s="1" t="s">
-        <v>681</v>
+        <v>582</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="90" customHeight="1">
       <c r="A355" s="1" t="s">
-        <v>683</v>
+        <v>584</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>722</v>
+        <v>754</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="90" customHeight="1">
       <c r="A356" s="1" t="s">
-        <v>685</v>
+        <v>586</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="90" customHeight="1">
       <c r="A357" s="1" t="s">
-        <v>687</v>
+        <v>588</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="90" customHeight="1">
       <c r="A358" s="1" t="s">
-        <v>689</v>
+        <v>590</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>728</v>
+        <v>757</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="90" customHeight="1">
       <c r="A359" s="1" t="s">
-        <v>691</v>
+        <v>592</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="90" customHeight="1">
       <c r="A360" s="1" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>732</v>
+        <v>759</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="90" customHeight="1">
       <c r="A361" s="1" t="s">
-        <v>695</v>
+        <v>596</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="90" customHeight="1">
       <c r="A362" s="1" t="s">
-        <v>697</v>
+        <v>598</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>736</v>
+        <v>761</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="90" customHeight="1">
       <c r="A363" s="1" t="s">
-        <v>699</v>
+        <v>600</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="90" customHeight="1">
       <c r="A364" s="1" t="s">
-        <v>701</v>
+        <v>602</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>740</v>
+        <v>763</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="90" customHeight="1">
       <c r="A365" s="1" t="s">
-        <v>703</v>
+        <v>604</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="90" customHeight="1">
       <c r="A366" s="1" t="s">
-        <v>705</v>
+        <v>606</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" customHeight="1">
       <c r="A367" s="1" t="s">
-        <v>707</v>
+        <v>608</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>746</v>
+        <v>766</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" customHeight="1">
       <c r="A368" s="1" t="s">
-        <v>709</v>
+        <v>610</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="90" customHeight="1">
       <c r="A369" s="1" t="s">
-        <v>711</v>
+        <v>612</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="90" customHeight="1">
       <c r="A370" s="1" t="s">
-        <v>713</v>
+        <v>614</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="90" customHeight="1">
       <c r="A371" s="1" t="s">
-        <v>715</v>
+        <v>616</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="90" customHeight="1">
       <c r="A372" s="1" t="s">
-        <v>717</v>
+        <v>618</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="90" customHeight="1">
       <c r="A373" s="1" t="s">
-        <v>719</v>
+        <v>620</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="90" customHeight="1">
       <c r="A374" s="1" t="s">
-        <v>721</v>
+        <v>622</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="90" customHeight="1">
       <c r="A375" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>762</v>
+        <v>624</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="90" customHeight="1">
       <c r="A376" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>764</v>
+        <v>626</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="90" customHeight="1">
       <c r="A377" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>766</v>
+        <v>628</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="90" customHeight="1">
       <c r="A378" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>768</v>
+        <v>630</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="90" customHeight="1">
       <c r="A379" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>770</v>
+        <v>632</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="90" customHeight="1">
       <c r="A380" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>772</v>
+        <v>634</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="90" customHeight="1">
       <c r="A381" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>774</v>
+        <v>636</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="90" customHeight="1">
       <c r="A382" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>776</v>
+        <v>638</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="90" customHeight="1">
       <c r="A383" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>778</v>
+        <v>640</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="90" customHeight="1">
       <c r="A384" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" ht="90" customHeight="1">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="90" customHeight="1">
       <c r="A385" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" ht="90" customHeight="1">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="90" customHeight="1">
       <c r="A386" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" ht="90" customHeight="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" ht="90" customHeight="1">
       <c r="A387" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="90" customHeight="1">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="90" customHeight="1">
       <c r="A388" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" ht="90" customHeight="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="90" customHeight="1">
       <c r="A389" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="90" customHeight="1">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="90" customHeight="1">
       <c r="A390" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" ht="90" customHeight="1">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="90" customHeight="1">
       <c r="A391" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="90" customHeight="1">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="90" customHeight="1">
       <c r="A392" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="90" customHeight="1">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="90" customHeight="1">
       <c r="A393" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="90" customHeight="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="90" customHeight="1">
       <c r="A394" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" ht="90" customHeight="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="90" customHeight="1">
       <c r="A395" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="90" customHeight="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" ht="90" customHeight="1">
       <c r="A396" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" ht="90" customHeight="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" ht="90" customHeight="1">
       <c r="A397" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="90" customHeight="1">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" ht="90" customHeight="1">
       <c r="A398" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="90" customHeight="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="90" customHeight="1">
       <c r="A399" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="90" customHeight="1">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" ht="90" customHeight="1">
       <c r="A400" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="90" customHeight="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="90" customHeight="1">
       <c r="A401" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" ht="90" customHeight="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="90" customHeight="1">
       <c r="A402" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" ht="90" customHeight="1">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" ht="90" customHeight="1">
       <c r="A403" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="90" customHeight="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" ht="90" customHeight="1">
       <c r="A404" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="90" customHeight="1">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="90" customHeight="1">
       <c r="A405" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="90" customHeight="1">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" ht="90" customHeight="1">
       <c r="A406" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" ht="90" customHeight="1">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" ht="90" customHeight="1">
       <c r="A407" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" ht="90" customHeight="1">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" ht="90" customHeight="1">
       <c r="A408" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="90" customHeight="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" ht="90" customHeight="1">
       <c r="A409" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="90" customHeight="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" ht="90" customHeight="1">
       <c r="A410" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" ht="90" customHeight="1">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" ht="90" customHeight="1">
       <c r="A411" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" ht="90" customHeight="1">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" ht="90" customHeight="1">
       <c r="A412" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" ht="90" customHeight="1">
-      <c r="A413" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" ht="90" customHeight="1">
-      <c r="A414" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" ht="90" customHeight="1">
-      <c r="A415" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" ht="90" customHeight="1">
-      <c r="A416" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" ht="90" customHeight="1">
-      <c r="A417" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" ht="90" customHeight="1">
-      <c r="A418" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" ht="90" customHeight="1">
-      <c r="A419" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" ht="90" customHeight="1">
-      <c r="A420" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" ht="90" customHeight="1">
-      <c r="A421" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" ht="90" customHeight="1">
-      <c r="A422" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" ht="90" customHeight="1">
-      <c r="A423" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="90" customHeight="1">
-      <c r="A424" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="90" customHeight="1">
-      <c r="A425" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" ht="90" customHeight="1">
-      <c r="A426" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" ht="90" customHeight="1">
-      <c r="A427" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" ht="90" customHeight="1">
-      <c r="A428" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="90" customHeight="1">
-      <c r="A429" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="90" customHeight="1">
-      <c r="A430" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" ht="90" customHeight="1">
-      <c r="A431" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" ht="90" customHeight="1">
-      <c r="A432" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" ht="90" customHeight="1">
-      <c r="A433" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="90" customHeight="1">
-      <c r="A434" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" ht="90" customHeight="1">
-      <c r="A435" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" ht="90" customHeight="1">
-      <c r="A436" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" ht="90" customHeight="1">
-      <c r="A437" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" ht="90" customHeight="1">
-      <c r="A438" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" ht="90" customHeight="1">
-      <c r="A439" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="90" customHeight="1">
-      <c r="A440" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" ht="90" customHeight="1">
-      <c r="A441" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" ht="90" customHeight="1">
-      <c r="A442" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="90" customHeight="1">
-      <c r="A443" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" ht="90" customHeight="1">
-      <c r="A444" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" ht="90" customHeight="1">
-      <c r="A445" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" ht="90" customHeight="1">
-      <c r="A446" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" ht="90" customHeight="1">
-      <c r="A447" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" ht="90" customHeight="1">
-      <c r="A448" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" ht="90" customHeight="1">
-      <c r="A449" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" ht="90" customHeight="1">
-      <c r="A450" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" ht="90" customHeight="1">
-      <c r="A451" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" ht="90" customHeight="1">
-      <c r="A452" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" ht="90" customHeight="1">
-      <c r="A453" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" ht="90" customHeight="1">
-      <c r="A454" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" ht="90" customHeight="1">
-      <c r="A455" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" ht="90" customHeight="1">
-      <c r="A456" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" ht="90" customHeight="1">
-      <c r="A457" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" ht="90" customHeight="1">
-      <c r="A458" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" ht="90" customHeight="1">
-      <c r="A459" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" ht="90" customHeight="1">
-      <c r="A460" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" ht="90" customHeight="1">
-      <c r="A461" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" ht="90" customHeight="1">
-      <c r="A462" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" ht="90" customHeight="1">
-      <c r="A463" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="90" customHeight="1">
-      <c r="A464" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" ht="90" customHeight="1">
-      <c r="A465" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" ht="90" customHeight="1">
-      <c r="A466" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" ht="90" customHeight="1">
-      <c r="A467" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" ht="90" customHeight="1">
-      <c r="A468" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" ht="90" customHeight="1">
-      <c r="A469" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" ht="90" customHeight="1">
-      <c r="A470" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" ht="90" customHeight="1">
-      <c r="A471" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" ht="90" customHeight="1">
-      <c r="A472" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" ht="90" customHeight="1">
-      <c r="A473" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" ht="90" customHeight="1">
-      <c r="A474" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" ht="90" customHeight="1">
-      <c r="A475" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" ht="90" customHeight="1">
-      <c r="A476" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" ht="90" customHeight="1">
-      <c r="A477" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" ht="90" customHeight="1">
-      <c r="A478" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" ht="90" customHeight="1">
-      <c r="A479" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" ht="90" customHeight="1">
-      <c r="A480" s="1" t="s">
-        <v>930</v>
-      </c>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" ht="90" customHeight="1">
+      <c r="A413" s="1"/>
+    </row>
+    <row r="414" spans="1:1" ht="90" customHeight="1">
+      <c r="A414" s="1"/>
+    </row>
+    <row r="415" spans="1:1" ht="90" customHeight="1">
+      <c r="A415" s="1"/>
+    </row>
+    <row r="416" spans="1:1" ht="90" customHeight="1">
+      <c r="A416" s="1"/>
+    </row>
+    <row r="417" spans="1:1" ht="90" customHeight="1">
+      <c r="A417" s="1"/>
+    </row>
+    <row r="418" spans="1:1" ht="90" customHeight="1">
+      <c r="A418" s="1"/>
+    </row>
+    <row r="419" spans="1:1" ht="90" customHeight="1">
+      <c r="A419" s="1"/>
+    </row>
+    <row r="420" spans="1:1" ht="90" customHeight="1">
+      <c r="A420" s="1"/>
+    </row>
+    <row r="421" spans="1:1" ht="90" customHeight="1">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="422" spans="1:1" ht="90" customHeight="1">
+      <c r="A422" s="1"/>
+    </row>
+    <row r="423" spans="1:1" ht="90" customHeight="1">
+      <c r="A423" s="1"/>
+    </row>
+    <row r="424" spans="1:1" ht="90" customHeight="1">
+      <c r="A424" s="1"/>
+    </row>
+    <row r="425" spans="1:1" ht="90" customHeight="1">
+      <c r="A425" s="1"/>
+    </row>
+    <row r="426" spans="1:1" ht="90" customHeight="1">
+      <c r="A426" s="1"/>
+    </row>
+    <row r="427" spans="1:1" ht="90" customHeight="1">
+      <c r="A427" s="1"/>
+    </row>
+    <row r="428" spans="1:1" ht="90" customHeight="1">
+      <c r="A428" s="1"/>
+    </row>
+    <row r="429" spans="1:1" ht="90" customHeight="1">
+      <c r="A429" s="1"/>
+    </row>
+    <row r="430" spans="1:1" ht="90" customHeight="1">
+      <c r="A430" s="1"/>
+    </row>
+    <row r="431" spans="1:1" ht="90" customHeight="1">
+      <c r="A431" s="1"/>
+    </row>
+    <row r="432" spans="1:1" ht="90" customHeight="1">
+      <c r="A432" s="1"/>
+    </row>
+    <row r="433" spans="1:1" ht="90" customHeight="1">
+      <c r="A433" s="1"/>
+    </row>
+    <row r="434" spans="1:1" ht="90" customHeight="1">
+      <c r="A434" s="1"/>
+    </row>
+    <row r="435" spans="1:1" ht="90" customHeight="1">
+      <c r="A435" s="1"/>
+    </row>
+    <row r="436" spans="1:1" ht="90" customHeight="1">
+      <c r="A436" s="1"/>
+    </row>
+    <row r="437" spans="1:1" ht="90" customHeight="1">
+      <c r="A437" s="1"/>
+    </row>
+    <row r="438" spans="1:1" ht="90" customHeight="1">
+      <c r="A438" s="1"/>
+    </row>
+    <row r="439" spans="1:1" ht="90" customHeight="1">
+      <c r="A439" s="1"/>
+    </row>
+    <row r="440" spans="1:1" ht="90" customHeight="1">
+      <c r="A440" s="1"/>
+    </row>
+    <row r="441" spans="1:1" ht="90" customHeight="1">
+      <c r="A441" s="1"/>
+    </row>
+    <row r="442" spans="1:1" ht="90" customHeight="1">
+      <c r="A442" s="1"/>
+    </row>
+    <row r="443" spans="1:1" ht="90" customHeight="1">
+      <c r="A443" s="1"/>
+    </row>
+    <row r="444" spans="1:1" ht="90" customHeight="1">
+      <c r="A444" s="1"/>
+    </row>
+    <row r="445" spans="1:1" ht="90" customHeight="1">
+      <c r="A445" s="1"/>
+    </row>
+    <row r="446" spans="1:1" ht="90" customHeight="1">
+      <c r="A446" s="1"/>
+    </row>
+    <row r="447" spans="1:1" ht="90" customHeight="1">
+      <c r="A447" s="1"/>
+    </row>
+    <row r="448" spans="1:1" ht="90" customHeight="1">
+      <c r="A448" s="1"/>
+    </row>
+    <row r="449" spans="1:1" ht="90" customHeight="1">
+      <c r="A449" s="1"/>
+    </row>
+    <row r="450" spans="1:1" ht="90" customHeight="1">
+      <c r="A450" s="1"/>
+    </row>
+    <row r="451" spans="1:1" ht="90" customHeight="1">
+      <c r="A451" s="1"/>
+    </row>
+    <row r="452" spans="1:1" ht="90" customHeight="1">
+      <c r="A452" s="1"/>
+    </row>
+    <row r="453" spans="1:1" ht="90" customHeight="1">
+      <c r="A453" s="1"/>
+    </row>
+    <row r="454" spans="1:1" ht="90" customHeight="1">
+      <c r="A454" s="1"/>
+    </row>
+    <row r="455" spans="1:1" ht="90" customHeight="1">
+      <c r="A455" s="1"/>
+    </row>
+    <row r="456" spans="1:1" ht="90" customHeight="1">
+      <c r="A456" s="1"/>
+    </row>
+    <row r="457" spans="1:1" ht="90" customHeight="1">
+      <c r="A457" s="1"/>
+    </row>
+    <row r="458" spans="1:1" ht="90" customHeight="1">
+      <c r="A458" s="1"/>
+    </row>
+    <row r="459" spans="1:1" ht="90" customHeight="1">
+      <c r="A459" s="1"/>
+    </row>
+    <row r="460" spans="1:1" ht="90" customHeight="1">
+      <c r="A460" s="1"/>
+    </row>
+    <row r="461" spans="1:1" ht="90" customHeight="1">
+      <c r="A461" s="1"/>
+    </row>
+    <row r="462" spans="1:1" ht="90" customHeight="1">
+      <c r="A462" s="1"/>
+    </row>
+    <row r="463" spans="1:1" ht="90" customHeight="1">
+      <c r="A463" s="1"/>
+    </row>
+    <row r="464" spans="1:1" ht="90" customHeight="1">
+      <c r="A464" s="1"/>
+    </row>
+    <row r="465" spans="1:1" ht="90" customHeight="1">
+      <c r="A465" s="1"/>
+    </row>
+    <row r="466" spans="1:1" ht="90" customHeight="1">
+      <c r="A466" s="1"/>
+    </row>
+    <row r="467" spans="1:1" ht="90" customHeight="1">
+      <c r="A467" s="1"/>
+    </row>
+    <row r="468" spans="1:1" ht="90" customHeight="1">
+      <c r="A468" s="1"/>
+    </row>
+    <row r="469" spans="1:1" ht="90" customHeight="1">
+      <c r="A469" s="1"/>
+    </row>
+    <row r="470" spans="1:1" ht="90" customHeight="1">
+      <c r="A470" s="1"/>
+    </row>
+    <row r="471" spans="1:1" ht="90" customHeight="1">
+      <c r="A471" s="1"/>
+    </row>
+    <row r="472" spans="1:1" ht="90" customHeight="1">
+      <c r="A472" s="1"/>
+    </row>
+    <row r="473" spans="1:1" ht="90" customHeight="1">
+      <c r="A473" s="1"/>
+    </row>
+    <row r="474" spans="1:1" ht="90" customHeight="1">
+      <c r="A474" s="1"/>
+    </row>
+    <row r="475" spans="1:1" ht="90" customHeight="1">
+      <c r="A475" s="1"/>
+    </row>
+    <row r="476" spans="1:1" ht="90" customHeight="1">
+      <c r="A476" s="1"/>
+    </row>
+    <row r="477" spans="1:1" ht="90" customHeight="1">
+      <c r="A477" s="1"/>
+    </row>
+    <row r="478" spans="1:1" ht="90" customHeight="1">
+      <c r="A478" s="1"/>
+    </row>
+    <row r="479" spans="1:1" ht="90" customHeight="1">
+      <c r="A479" s="1"/>
+    </row>
+    <row r="480" spans="1:1" ht="90" customHeight="1">
+      <c r="A480" s="1"/>
     </row>
     <row r="481" spans="1:1" ht="90" customHeight="1">
-      <c r="A481" s="1" t="s">
-        <v>932</v>
-      </c>
+      <c r="A481" s="1"/>
     </row>
     <row r="482" spans="1:1" ht="90" customHeight="1">
-      <c r="A482" s="1" t="s">
-        <v>934</v>
-      </c>
+      <c r="A482" s="1"/>
     </row>
     <row r="483" spans="1:1" ht="90" customHeight="1">
-      <c r="A483" s="1" t="s">
-        <v>936</v>
-      </c>
+      <c r="A483" s="1"/>
     </row>
     <row r="484" spans="1:1" ht="90" customHeight="1">
-      <c r="A484" s="1" t="s">
-        <v>938</v>
-      </c>
+      <c r="A484" s="1"/>
     </row>
     <row r="485" spans="1:1" ht="90" customHeight="1">
-      <c r="A485" s="1" t="s">
-        <v>940</v>
-      </c>
+      <c r="A485" s="1"/>
     </row>
     <row r="486" spans="1:1" ht="90" customHeight="1">
-      <c r="A486" s="1" t="s">
-        <v>942</v>
-      </c>
+      <c r="A486" s="1"/>
     </row>
     <row r="487" spans="1:1" ht="90" customHeight="1">
-      <c r="A487" s="1" t="s">
-        <v>944</v>
-      </c>
+      <c r="A487" s="1"/>
     </row>
     <row r="488" spans="1:1" ht="90" customHeight="1">
-      <c r="A488" s="1" t="s">
-        <v>946</v>
-      </c>
+      <c r="A488" s="1"/>
     </row>
     <row r="489" spans="1:1" ht="90" customHeight="1">
-      <c r="A489" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" ht="90" customHeight="1">
-      <c r="A490" s="1" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" ht="90" customHeight="1"/>
+      <c r="A489" s="1"/>
+    </row>
+    <row r="490" spans="1:1" ht="90" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
